--- a/AUD_CFTC.xlsx
+++ b/AUD_CFTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\Documents\Forex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE48E8-ED37-4DE7-BF04-D3D5F2DB3CF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA29D9C5-630F-4C5B-B6C2-27E4AF88EE4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24705" xr2:uid="{48407EEB-A52F-4E5D-A186-C797975057A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="11670" xr2:uid="{48407EEB-A52F-4E5D-A186-C797975057A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,16 @@
     <t>NonRept_Positions_Short_All</t>
   </si>
   <si>
-    <t>Report_Date</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -115,8 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -432,19 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76C1F08-E12E-40CB-8FA1-B552F0FF7DA9}">
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
@@ -9963,8 +9968,8799 @@
         <v>39357</v>
       </c>
     </row>
+    <row r="171" spans="1:18">
+      <c r="A171" s="3">
+        <v>42003</v>
+      </c>
+      <c r="B171" s="2">
+        <v>120316</v>
+      </c>
+      <c r="C171" s="2">
+        <v>66806</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1377</v>
+      </c>
+      <c r="E171" s="2">
+        <v>7</v>
+      </c>
+      <c r="F171" s="2">
+        <v>2220</v>
+      </c>
+      <c r="G171" s="2">
+        <v>14954</v>
+      </c>
+      <c r="H171" s="2">
+        <v>921</v>
+      </c>
+      <c r="I171" s="2">
+        <v>27759</v>
+      </c>
+      <c r="J171" s="2">
+        <v>54705</v>
+      </c>
+      <c r="K171" s="2">
+        <v>655</v>
+      </c>
+      <c r="L171" s="2">
+        <v>6483</v>
+      </c>
+      <c r="M171" s="2">
+        <v>9759</v>
+      </c>
+      <c r="N171" s="2">
+        <v>25</v>
+      </c>
+      <c r="O171" s="2">
+        <v>104876</v>
+      </c>
+      <c r="P171" s="2">
+        <v>82403</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>15440</v>
+      </c>
+      <c r="R171" s="2">
+        <v>37913</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
+      <c r="A172" s="3">
+        <v>41996</v>
+      </c>
+      <c r="B172" s="2">
+        <v>118773</v>
+      </c>
+      <c r="C172" s="2">
+        <v>65050</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1379</v>
+      </c>
+      <c r="E172" s="2">
+        <v>86</v>
+      </c>
+      <c r="F172" s="2">
+        <v>2220</v>
+      </c>
+      <c r="G172" s="2">
+        <v>15033</v>
+      </c>
+      <c r="H172" s="2">
+        <v>951</v>
+      </c>
+      <c r="I172" s="2">
+        <v>30540</v>
+      </c>
+      <c r="J172" s="2">
+        <v>56108</v>
+      </c>
+      <c r="K172" s="2">
+        <v>735</v>
+      </c>
+      <c r="L172" s="2">
+        <v>4901</v>
+      </c>
+      <c r="M172" s="2">
+        <v>8106</v>
+      </c>
+      <c r="N172" s="2">
+        <v>25</v>
+      </c>
+      <c r="O172" s="2">
+        <v>104508</v>
+      </c>
+      <c r="P172" s="2">
+        <v>82423</v>
+      </c>
+      <c r="Q172" s="2">
+        <v>14265</v>
+      </c>
+      <c r="R172" s="2">
+        <v>36350</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
+      <c r="A173" s="3">
+        <v>41989</v>
+      </c>
+      <c r="B173" s="2">
+        <v>116787</v>
+      </c>
+      <c r="C173" s="2">
+        <v>61551</v>
+      </c>
+      <c r="D173" s="2">
+        <v>928</v>
+      </c>
+      <c r="E173" s="2">
+        <v>7</v>
+      </c>
+      <c r="F173" s="2">
+        <v>2220</v>
+      </c>
+      <c r="G173" s="2">
+        <v>14906</v>
+      </c>
+      <c r="H173" s="2">
+        <v>930</v>
+      </c>
+      <c r="I173" s="2">
+        <v>31923</v>
+      </c>
+      <c r="J173" s="2">
+        <v>54340</v>
+      </c>
+      <c r="K173" s="2">
+        <v>753</v>
+      </c>
+      <c r="L173" s="2">
+        <v>5197</v>
+      </c>
+      <c r="M173" s="2">
+        <v>8735</v>
+      </c>
+      <c r="N173" s="2">
+        <v>25</v>
+      </c>
+      <c r="O173" s="2">
+        <v>102606</v>
+      </c>
+      <c r="P173" s="2">
+        <v>80624</v>
+      </c>
+      <c r="Q173" s="2">
+        <v>14181</v>
+      </c>
+      <c r="R173" s="2">
+        <v>36163</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
+      <c r="A174" s="3">
+        <v>41982</v>
+      </c>
+      <c r="B174" s="2">
+        <v>159287</v>
+      </c>
+      <c r="C174" s="2">
+        <v>88056</v>
+      </c>
+      <c r="D174" s="2">
+        <v>9092</v>
+      </c>
+      <c r="E174" s="2">
+        <v>9622</v>
+      </c>
+      <c r="F174" s="2">
+        <v>2279</v>
+      </c>
+      <c r="G174" s="2">
+        <v>14358</v>
+      </c>
+      <c r="H174" s="2">
+        <v>895</v>
+      </c>
+      <c r="I174" s="2">
+        <v>28863</v>
+      </c>
+      <c r="J174" s="2">
+        <v>53716</v>
+      </c>
+      <c r="K174" s="2">
+        <v>6772</v>
+      </c>
+      <c r="L174" s="2">
+        <v>1129</v>
+      </c>
+      <c r="M174" s="2">
+        <v>22894</v>
+      </c>
+      <c r="N174" s="2">
+        <v>4048</v>
+      </c>
+      <c r="O174" s="2">
+        <v>141664</v>
+      </c>
+      <c r="P174" s="2">
+        <v>121397</v>
+      </c>
+      <c r="Q174" s="2">
+        <v>17623</v>
+      </c>
+      <c r="R174" s="2">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
+      <c r="A175" s="3">
+        <v>41975</v>
+      </c>
+      <c r="B175" s="2">
+        <v>133675</v>
+      </c>
+      <c r="C175" s="2">
+        <v>82168</v>
+      </c>
+      <c r="D175" s="2">
+        <v>11144</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1188</v>
+      </c>
+      <c r="F175" s="2">
+        <v>2248</v>
+      </c>
+      <c r="G175" s="2">
+        <v>13354</v>
+      </c>
+      <c r="H175" s="2">
+        <v>888</v>
+      </c>
+      <c r="I175" s="2">
+        <v>24327</v>
+      </c>
+      <c r="J175" s="2">
+        <v>44543</v>
+      </c>
+      <c r="K175" s="2">
+        <v>3924</v>
+      </c>
+      <c r="L175" s="2">
+        <v>471</v>
+      </c>
+      <c r="M175" s="2">
+        <v>22514</v>
+      </c>
+      <c r="N175" s="2">
+        <v>563</v>
+      </c>
+      <c r="O175" s="2">
+        <v>115777</v>
+      </c>
+      <c r="P175" s="2">
+        <v>98118</v>
+      </c>
+      <c r="Q175" s="2">
+        <v>17898</v>
+      </c>
+      <c r="R175" s="2">
+        <v>35557</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" s="3">
+        <v>41968</v>
+      </c>
+      <c r="B176" s="2">
+        <v>127008</v>
+      </c>
+      <c r="C176" s="2">
+        <v>78695</v>
+      </c>
+      <c r="D176" s="2">
+        <v>11035</v>
+      </c>
+      <c r="E176" s="2">
+        <v>819</v>
+      </c>
+      <c r="F176" s="2">
+        <v>1415</v>
+      </c>
+      <c r="G176" s="2">
+        <v>11441</v>
+      </c>
+      <c r="H176" s="2">
+        <v>889</v>
+      </c>
+      <c r="I176" s="2">
+        <v>23834</v>
+      </c>
+      <c r="J176" s="2">
+        <v>36504</v>
+      </c>
+      <c r="K176" s="2">
+        <v>1027</v>
+      </c>
+      <c r="L176" s="2">
+        <v>595</v>
+      </c>
+      <c r="M176" s="2">
+        <v>30501</v>
+      </c>
+      <c r="N176" s="2">
+        <v>522</v>
+      </c>
+      <c r="O176" s="2">
+        <v>107796</v>
+      </c>
+      <c r="P176" s="2">
+        <v>92738</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>19212</v>
+      </c>
+      <c r="R176" s="2">
+        <v>34270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" s="3">
+        <v>41961</v>
+      </c>
+      <c r="B177" s="2">
+        <v>117859</v>
+      </c>
+      <c r="C177" s="2">
+        <v>75749</v>
+      </c>
+      <c r="D177" s="2">
+        <v>12900</v>
+      </c>
+      <c r="E177" s="2">
+        <v>289</v>
+      </c>
+      <c r="F177" s="2">
+        <v>1415</v>
+      </c>
+      <c r="G177" s="2">
+        <v>10172</v>
+      </c>
+      <c r="H177" s="2">
+        <v>1011</v>
+      </c>
+      <c r="I177" s="2">
+        <v>21071</v>
+      </c>
+      <c r="J177" s="2">
+        <v>32894</v>
+      </c>
+      <c r="K177" s="2">
+        <v>1063</v>
+      </c>
+      <c r="L177" s="2">
+        <v>81</v>
+      </c>
+      <c r="M177" s="2">
+        <v>24713</v>
+      </c>
+      <c r="N177" s="2">
+        <v>487</v>
+      </c>
+      <c r="O177" s="2">
+        <v>101166</v>
+      </c>
+      <c r="P177" s="2">
+        <v>83529</v>
+      </c>
+      <c r="Q177" s="2">
+        <v>16693</v>
+      </c>
+      <c r="R177" s="2">
+        <v>34330</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" s="3">
+        <v>41954</v>
+      </c>
+      <c r="B178" s="2">
+        <v>123726</v>
+      </c>
+      <c r="C178" s="2">
+        <v>78600</v>
+      </c>
+      <c r="D178" s="2">
+        <v>13358</v>
+      </c>
+      <c r="E178" s="2">
+        <v>81</v>
+      </c>
+      <c r="F178" s="2">
+        <v>1445</v>
+      </c>
+      <c r="G178" s="2">
+        <v>10955</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1039</v>
+      </c>
+      <c r="I178" s="2">
+        <v>24150</v>
+      </c>
+      <c r="J178" s="2">
+        <v>35562</v>
+      </c>
+      <c r="K178" s="2">
+        <v>593</v>
+      </c>
+      <c r="L178" s="2">
+        <v>655</v>
+      </c>
+      <c r="M178" s="2">
+        <v>24324</v>
+      </c>
+      <c r="N178" s="2">
+        <v>564</v>
+      </c>
+      <c r="O178" s="2">
+        <v>107127</v>
+      </c>
+      <c r="P178" s="2">
+        <v>86476</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>16599</v>
+      </c>
+      <c r="R178" s="2">
+        <v>37250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
+      <c r="A179" s="3">
+        <v>41947</v>
+      </c>
+      <c r="B179" s="2">
+        <v>123342</v>
+      </c>
+      <c r="C179" s="2">
+        <v>74265</v>
+      </c>
+      <c r="D179" s="2">
+        <v>12793</v>
+      </c>
+      <c r="E179" s="2">
+        <v>182</v>
+      </c>
+      <c r="F179" s="2">
+        <v>1495</v>
+      </c>
+      <c r="G179" s="2">
+        <v>11349</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1049</v>
+      </c>
+      <c r="I179" s="2">
+        <v>26503</v>
+      </c>
+      <c r="J179" s="2">
+        <v>38738</v>
+      </c>
+      <c r="K179" s="2">
+        <v>452</v>
+      </c>
+      <c r="L179" s="2">
+        <v>604</v>
+      </c>
+      <c r="M179" s="2">
+        <v>22595</v>
+      </c>
+      <c r="N179" s="2">
+        <v>662</v>
+      </c>
+      <c r="O179" s="2">
+        <v>105212</v>
+      </c>
+      <c r="P179" s="2">
+        <v>87820</v>
+      </c>
+      <c r="Q179" s="2">
+        <v>18130</v>
+      </c>
+      <c r="R179" s="2">
+        <v>35522</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
+      <c r="A180" s="3">
+        <v>41940</v>
+      </c>
+      <c r="B180" s="2">
+        <v>120071</v>
+      </c>
+      <c r="C180" s="2">
+        <v>68582</v>
+      </c>
+      <c r="D180" s="2">
+        <v>15561</v>
+      </c>
+      <c r="E180" s="2">
+        <v>160</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1415</v>
+      </c>
+      <c r="G180" s="2">
+        <v>12831</v>
+      </c>
+      <c r="H180" s="2">
+        <v>1054</v>
+      </c>
+      <c r="I180" s="2">
+        <v>28984</v>
+      </c>
+      <c r="J180" s="2">
+        <v>38342</v>
+      </c>
+      <c r="K180" s="2">
+        <v>566</v>
+      </c>
+      <c r="L180" s="2">
+        <v>513</v>
+      </c>
+      <c r="M180" s="2">
+        <v>20583</v>
+      </c>
+      <c r="N180" s="2">
+        <v>120</v>
+      </c>
+      <c r="O180" s="2">
+        <v>101394</v>
+      </c>
+      <c r="P180" s="2">
+        <v>89217</v>
+      </c>
+      <c r="Q180" s="2">
+        <v>18677</v>
+      </c>
+      <c r="R180" s="2">
+        <v>30854</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
+      <c r="A181" s="3">
+        <v>41933</v>
+      </c>
+      <c r="B181" s="2">
+        <v>115985</v>
+      </c>
+      <c r="C181" s="2">
+        <v>70197</v>
+      </c>
+      <c r="D181" s="2">
+        <v>14345</v>
+      </c>
+      <c r="E181" s="2">
+        <v>159</v>
+      </c>
+      <c r="F181" s="2">
+        <v>1415</v>
+      </c>
+      <c r="G181" s="2">
+        <v>13399</v>
+      </c>
+      <c r="H181" s="2">
+        <v>981</v>
+      </c>
+      <c r="I181" s="2">
+        <v>24626</v>
+      </c>
+      <c r="J181" s="2">
+        <v>35654</v>
+      </c>
+      <c r="K181" s="2">
+        <v>445</v>
+      </c>
+      <c r="L181" s="2">
+        <v>689</v>
+      </c>
+      <c r="M181" s="2">
+        <v>16264</v>
+      </c>
+      <c r="N181" s="2">
+        <v>120</v>
+      </c>
+      <c r="O181" s="2">
+        <v>98632</v>
+      </c>
+      <c r="P181" s="2">
+        <v>81367</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>17353</v>
+      </c>
+      <c r="R181" s="2">
+        <v>34618</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="A182" s="3">
+        <v>41926</v>
+      </c>
+      <c r="B182" s="2">
+        <v>115941</v>
+      </c>
+      <c r="C182" s="2">
+        <v>69036</v>
+      </c>
+      <c r="D182" s="2">
+        <v>14548</v>
+      </c>
+      <c r="E182" s="2">
+        <v>14</v>
+      </c>
+      <c r="F182" s="2">
+        <v>1415</v>
+      </c>
+      <c r="G182" s="2">
+        <v>13099</v>
+      </c>
+      <c r="H182" s="2">
+        <v>972</v>
+      </c>
+      <c r="I182" s="2">
+        <v>24986</v>
+      </c>
+      <c r="J182" s="2">
+        <v>35471</v>
+      </c>
+      <c r="K182" s="2">
+        <v>523</v>
+      </c>
+      <c r="L182" s="2">
+        <v>772</v>
+      </c>
+      <c r="M182" s="2">
+        <v>16142</v>
+      </c>
+      <c r="N182" s="2">
+        <v>120</v>
+      </c>
+      <c r="O182" s="2">
+        <v>97838</v>
+      </c>
+      <c r="P182" s="2">
+        <v>80889</v>
+      </c>
+      <c r="Q182" s="2">
+        <v>18103</v>
+      </c>
+      <c r="R182" s="2">
+        <v>35052</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183" s="3">
+        <v>41919</v>
+      </c>
+      <c r="B183" s="2">
+        <v>129561</v>
+      </c>
+      <c r="C183" s="2">
+        <v>64159</v>
+      </c>
+      <c r="D183" s="2">
+        <v>14773</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0</v>
+      </c>
+      <c r="F183" s="2">
+        <v>1440</v>
+      </c>
+      <c r="G183" s="2">
+        <v>11825</v>
+      </c>
+      <c r="H183" s="2">
+        <v>986</v>
+      </c>
+      <c r="I183" s="2">
+        <v>39513</v>
+      </c>
+      <c r="J183" s="2">
+        <v>42535</v>
+      </c>
+      <c r="K183" s="2">
+        <v>460</v>
+      </c>
+      <c r="L183" s="2">
+        <v>5040</v>
+      </c>
+      <c r="M183" s="2">
+        <v>22398</v>
+      </c>
+      <c r="N183" s="2">
+        <v>119</v>
+      </c>
+      <c r="O183" s="2">
+        <v>111717</v>
+      </c>
+      <c r="P183" s="2">
+        <v>93096</v>
+      </c>
+      <c r="Q183" s="2">
+        <v>17844</v>
+      </c>
+      <c r="R183" s="2">
+        <v>36465</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
+      <c r="A184" s="3">
+        <v>41912</v>
+      </c>
+      <c r="B184" s="2">
+        <v>118488</v>
+      </c>
+      <c r="C184" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D184" s="2">
+        <v>17003</v>
+      </c>
+      <c r="E184" s="2">
+        <v>7</v>
+      </c>
+      <c r="F184" s="2">
+        <v>1440</v>
+      </c>
+      <c r="G184" s="2">
+        <v>14072</v>
+      </c>
+      <c r="H184" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I184" s="2">
+        <v>47917</v>
+      </c>
+      <c r="J184" s="2">
+        <v>29047</v>
+      </c>
+      <c r="K184" s="2">
+        <v>588</v>
+      </c>
+      <c r="L184" s="2">
+        <v>3602</v>
+      </c>
+      <c r="M184" s="2">
+        <v>22276</v>
+      </c>
+      <c r="N184" s="2">
+        <v>147</v>
+      </c>
+      <c r="O184" s="2">
+        <v>99171</v>
+      </c>
+      <c r="P184" s="2">
+        <v>84140</v>
+      </c>
+      <c r="Q184" s="2">
+        <v>19317</v>
+      </c>
+      <c r="R184" s="2">
+        <v>34348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
+      <c r="A185" s="3">
+        <v>41905</v>
+      </c>
+      <c r="B185" s="2">
+        <v>105756</v>
+      </c>
+      <c r="C185" s="2">
+        <v>26162</v>
+      </c>
+      <c r="D185" s="2">
+        <v>18000</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0</v>
+      </c>
+      <c r="F185" s="2">
+        <v>1425</v>
+      </c>
+      <c r="G185" s="2">
+        <v>12748</v>
+      </c>
+      <c r="H185" s="2">
+        <v>1074</v>
+      </c>
+      <c r="I185" s="2">
+        <v>54736</v>
+      </c>
+      <c r="J185" s="2">
+        <v>23167</v>
+      </c>
+      <c r="K185" s="2">
+        <v>530</v>
+      </c>
+      <c r="L185" s="2">
+        <v>1027</v>
+      </c>
+      <c r="M185" s="2">
+        <v>20526</v>
+      </c>
+      <c r="N185" s="2">
+        <v>192</v>
+      </c>
+      <c r="O185" s="2">
+        <v>85146</v>
+      </c>
+      <c r="P185" s="2">
+        <v>76237</v>
+      </c>
+      <c r="Q185" s="2">
+        <v>20610</v>
+      </c>
+      <c r="R185" s="2">
+        <v>29519</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
+      <c r="A186" s="3">
+        <v>41898</v>
+      </c>
+      <c r="B186" s="2">
+        <v>97839</v>
+      </c>
+      <c r="C186" s="2">
+        <v>17520</v>
+      </c>
+      <c r="D186" s="2">
+        <v>19562</v>
+      </c>
+      <c r="E186" s="2">
+        <v>150</v>
+      </c>
+      <c r="F186" s="2">
+        <v>1897</v>
+      </c>
+      <c r="G186" s="2">
+        <v>9524</v>
+      </c>
+      <c r="H186" s="2">
+        <v>1003</v>
+      </c>
+      <c r="I186" s="2">
+        <v>57012</v>
+      </c>
+      <c r="J186" s="2">
+        <v>21537</v>
+      </c>
+      <c r="K186" s="2">
+        <v>639</v>
+      </c>
+      <c r="L186" s="2">
+        <v>987</v>
+      </c>
+      <c r="M186" s="2">
+        <v>16240</v>
+      </c>
+      <c r="N186" s="2">
+        <v>248</v>
+      </c>
+      <c r="O186" s="2">
+        <v>79456</v>
+      </c>
+      <c r="P186" s="2">
+        <v>68903</v>
+      </c>
+      <c r="Q186" s="2">
+        <v>18383</v>
+      </c>
+      <c r="R186" s="2">
+        <v>28936</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
+      <c r="A187" s="3">
+        <v>41891</v>
+      </c>
+      <c r="B187" s="2">
+        <v>126831</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2242</v>
+      </c>
+      <c r="D187" s="2">
+        <v>36225</v>
+      </c>
+      <c r="E187" s="2">
+        <v>14668</v>
+      </c>
+      <c r="F187" s="2">
+        <v>3102</v>
+      </c>
+      <c r="G187" s="2">
+        <v>8571</v>
+      </c>
+      <c r="H187" s="2">
+        <v>1027</v>
+      </c>
+      <c r="I187" s="2">
+        <v>75101</v>
+      </c>
+      <c r="J187" s="2">
+        <v>25654</v>
+      </c>
+      <c r="K187" s="2">
+        <v>2193</v>
+      </c>
+      <c r="L187" s="2">
+        <v>955</v>
+      </c>
+      <c r="M187" s="2">
+        <v>11723</v>
+      </c>
+      <c r="N187" s="2">
+        <v>4271</v>
+      </c>
+      <c r="O187" s="2">
+        <v>103559</v>
+      </c>
+      <c r="P187" s="2">
+        <v>104332</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>23272</v>
+      </c>
+      <c r="R187" s="2">
+        <v>22499</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
+      <c r="A188" s="3">
+        <v>41884</v>
+      </c>
+      <c r="B188" s="2">
+        <v>114146</v>
+      </c>
+      <c r="C188" s="2">
+        <v>2104</v>
+      </c>
+      <c r="D188" s="2">
+        <v>44334</v>
+      </c>
+      <c r="E188" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F188" s="2">
+        <v>2454</v>
+      </c>
+      <c r="G188" s="2">
+        <v>8025</v>
+      </c>
+      <c r="H188" s="2">
+        <v>1040</v>
+      </c>
+      <c r="I188" s="2">
+        <v>77816</v>
+      </c>
+      <c r="J188" s="2">
+        <v>21970</v>
+      </c>
+      <c r="K188" s="2">
+        <v>2333</v>
+      </c>
+      <c r="L188" s="2">
+        <v>1050</v>
+      </c>
+      <c r="M188" s="2">
+        <v>11106</v>
+      </c>
+      <c r="N188" s="2">
+        <v>1561</v>
+      </c>
+      <c r="O188" s="2">
+        <v>90382</v>
+      </c>
+      <c r="P188" s="2">
+        <v>92393</v>
+      </c>
+      <c r="Q188" s="2">
+        <v>23764</v>
+      </c>
+      <c r="R188" s="2">
+        <v>21753</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
+      <c r="A189" s="3">
+        <v>41877</v>
+      </c>
+      <c r="B189" s="2">
+        <v>107819</v>
+      </c>
+      <c r="C189" s="2">
+        <v>2526</v>
+      </c>
+      <c r="D189" s="2">
+        <v>38253</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1374</v>
+      </c>
+      <c r="F189" s="2">
+        <v>2030</v>
+      </c>
+      <c r="G189" s="2">
+        <v>7295</v>
+      </c>
+      <c r="H189" s="2">
+        <v>985</v>
+      </c>
+      <c r="I189" s="2">
+        <v>72762</v>
+      </c>
+      <c r="J189" s="2">
+        <v>23349</v>
+      </c>
+      <c r="K189" s="2">
+        <v>1777</v>
+      </c>
+      <c r="L189" s="2">
+        <v>222</v>
+      </c>
+      <c r="M189" s="2">
+        <v>11309</v>
+      </c>
+      <c r="N189" s="2">
+        <v>1661</v>
+      </c>
+      <c r="O189" s="2">
+        <v>83337</v>
+      </c>
+      <c r="P189" s="2">
+        <v>86003</v>
+      </c>
+      <c r="Q189" s="2">
+        <v>24482</v>
+      </c>
+      <c r="R189" s="2">
+        <v>21816</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
+      <c r="A190" s="3">
+        <v>41870</v>
+      </c>
+      <c r="B190" s="2">
+        <v>103432</v>
+      </c>
+      <c r="C190" s="2">
+        <v>3258</v>
+      </c>
+      <c r="D190" s="2">
+        <v>33603</v>
+      </c>
+      <c r="E190" s="2">
+        <v>1540</v>
+      </c>
+      <c r="F190" s="2">
+        <v>1971</v>
+      </c>
+      <c r="G190" s="2">
+        <v>7288</v>
+      </c>
+      <c r="H190" s="2">
+        <v>974</v>
+      </c>
+      <c r="I190" s="2">
+        <v>66448</v>
+      </c>
+      <c r="J190" s="2">
+        <v>23915</v>
+      </c>
+      <c r="K190" s="2">
+        <v>1680</v>
+      </c>
+      <c r="L190" s="2">
+        <v>194</v>
+      </c>
+      <c r="M190" s="2">
+        <v>9672</v>
+      </c>
+      <c r="N190" s="2">
+        <v>1661</v>
+      </c>
+      <c r="O190" s="2">
+        <v>77726</v>
+      </c>
+      <c r="P190" s="2">
+        <v>80333</v>
+      </c>
+      <c r="Q190" s="2">
+        <v>25706</v>
+      </c>
+      <c r="R190" s="2">
+        <v>23099</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
+      <c r="A191" s="3">
+        <v>41863</v>
+      </c>
+      <c r="B191" s="2">
+        <v>94030</v>
+      </c>
+      <c r="C191" s="2">
+        <v>9662</v>
+      </c>
+      <c r="D191" s="2">
+        <v>30199</v>
+      </c>
+      <c r="E191" s="2">
+        <v>816</v>
+      </c>
+      <c r="F191" s="2">
+        <v>2003</v>
+      </c>
+      <c r="G191" s="2">
+        <v>7469</v>
+      </c>
+      <c r="H191" s="2">
+        <v>973</v>
+      </c>
+      <c r="I191" s="2">
+        <v>55276</v>
+      </c>
+      <c r="J191" s="2">
+        <v>20409</v>
+      </c>
+      <c r="K191" s="2">
+        <v>1335</v>
+      </c>
+      <c r="L191" s="2">
+        <v>207</v>
+      </c>
+      <c r="M191" s="2">
+        <v>8972</v>
+      </c>
+      <c r="N191" s="2">
+        <v>1765</v>
+      </c>
+      <c r="O191" s="2">
+        <v>72037</v>
+      </c>
+      <c r="P191" s="2">
+        <v>71938</v>
+      </c>
+      <c r="Q191" s="2">
+        <v>21993</v>
+      </c>
+      <c r="R191" s="2">
+        <v>22092</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
+      <c r="A192" s="3">
+        <v>41856</v>
+      </c>
+      <c r="B192" s="2">
+        <v>98196</v>
+      </c>
+      <c r="C192" s="2">
+        <v>4462</v>
+      </c>
+      <c r="D192" s="2">
+        <v>31590</v>
+      </c>
+      <c r="E192" s="2">
+        <v>1099</v>
+      </c>
+      <c r="F192" s="2">
+        <v>2608</v>
+      </c>
+      <c r="G192" s="2">
+        <v>7476</v>
+      </c>
+      <c r="H192" s="2">
+        <v>974</v>
+      </c>
+      <c r="I192" s="2">
+        <v>61265</v>
+      </c>
+      <c r="J192" s="2">
+        <v>22498</v>
+      </c>
+      <c r="K192" s="2">
+        <v>902</v>
+      </c>
+      <c r="L192" s="2">
+        <v>904</v>
+      </c>
+      <c r="M192" s="2">
+        <v>9127</v>
+      </c>
+      <c r="N192" s="2">
+        <v>1820</v>
+      </c>
+      <c r="O192" s="2">
+        <v>74034</v>
+      </c>
+      <c r="P192" s="2">
+        <v>75486</v>
+      </c>
+      <c r="Q192" s="2">
+        <v>24162</v>
+      </c>
+      <c r="R192" s="2">
+        <v>22710</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
+      <c r="A193" s="3">
+        <v>41849</v>
+      </c>
+      <c r="B193" s="2">
+        <v>106836</v>
+      </c>
+      <c r="C193" s="2">
+        <v>2829</v>
+      </c>
+      <c r="D193" s="2">
+        <v>43072</v>
+      </c>
+      <c r="E193" s="2">
+        <v>553</v>
+      </c>
+      <c r="F193" s="2">
+        <v>2932</v>
+      </c>
+      <c r="G193" s="2">
+        <v>5390</v>
+      </c>
+      <c r="H193" s="2">
+        <v>943</v>
+      </c>
+      <c r="I193" s="2">
+        <v>68254</v>
+      </c>
+      <c r="J193" s="2">
+        <v>23240</v>
+      </c>
+      <c r="K193" s="2">
+        <v>984</v>
+      </c>
+      <c r="L193" s="2">
+        <v>1082</v>
+      </c>
+      <c r="M193" s="2">
+        <v>9769</v>
+      </c>
+      <c r="N193" s="2">
+        <v>1536</v>
+      </c>
+      <c r="O193" s="2">
+        <v>79113</v>
+      </c>
+      <c r="P193" s="2">
+        <v>85487</v>
+      </c>
+      <c r="Q193" s="2">
+        <v>27723</v>
+      </c>
+      <c r="R193" s="2">
+        <v>21349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
+      <c r="A194" s="3">
+        <v>41842</v>
+      </c>
+      <c r="B194" s="2">
+        <v>109341</v>
+      </c>
+      <c r="C194" s="2">
+        <v>1593</v>
+      </c>
+      <c r="D194" s="2">
+        <v>43872</v>
+      </c>
+      <c r="E194" s="2">
+        <v>299</v>
+      </c>
+      <c r="F194" s="2">
+        <v>2484</v>
+      </c>
+      <c r="G194" s="2">
+        <v>3679</v>
+      </c>
+      <c r="H194" s="2">
+        <v>736</v>
+      </c>
+      <c r="I194" s="2">
+        <v>71605</v>
+      </c>
+      <c r="J194" s="2">
+        <v>27821</v>
+      </c>
+      <c r="K194" s="2">
+        <v>702</v>
+      </c>
+      <c r="L194" s="2">
+        <v>555</v>
+      </c>
+      <c r="M194" s="2">
+        <v>9152</v>
+      </c>
+      <c r="N194" s="2">
+        <v>1530</v>
+      </c>
+      <c r="O194" s="2">
+        <v>79504</v>
+      </c>
+      <c r="P194" s="2">
+        <v>87791</v>
+      </c>
+      <c r="Q194" s="2">
+        <v>29837</v>
+      </c>
+      <c r="R194" s="2">
+        <v>21550</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
+      <c r="A195" s="3">
+        <v>41835</v>
+      </c>
+      <c r="B195" s="2">
+        <v>105209</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1428</v>
+      </c>
+      <c r="D195" s="2">
+        <v>40282</v>
+      </c>
+      <c r="E195" s="2">
+        <v>431</v>
+      </c>
+      <c r="F195" s="2">
+        <v>2688</v>
+      </c>
+      <c r="G195" s="2">
+        <v>3361</v>
+      </c>
+      <c r="H195" s="2">
+        <v>736</v>
+      </c>
+      <c r="I195" s="2">
+        <v>69942</v>
+      </c>
+      <c r="J195" s="2">
+        <v>25978</v>
+      </c>
+      <c r="K195" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L195" s="2">
+        <v>135</v>
+      </c>
+      <c r="M195" s="2">
+        <v>8579</v>
+      </c>
+      <c r="N195" s="2">
+        <v>1416</v>
+      </c>
+      <c r="O195" s="2">
+        <v>77796</v>
+      </c>
+      <c r="P195" s="2">
+        <v>81803</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>27413</v>
+      </c>
+      <c r="R195" s="2">
+        <v>23406</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
+      <c r="A196" s="3">
+        <v>41828</v>
+      </c>
+      <c r="B196" s="2">
+        <v>101860</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1715</v>
+      </c>
+      <c r="D196" s="2">
+        <v>38666</v>
+      </c>
+      <c r="E196" s="2">
+        <v>202</v>
+      </c>
+      <c r="F196" s="2">
+        <v>2676</v>
+      </c>
+      <c r="G196" s="2">
+        <v>3256</v>
+      </c>
+      <c r="H196" s="2">
+        <v>736</v>
+      </c>
+      <c r="I196" s="2">
+        <v>65795</v>
+      </c>
+      <c r="J196" s="2">
+        <v>25117</v>
+      </c>
+      <c r="K196" s="2">
+        <v>688</v>
+      </c>
+      <c r="L196" s="2">
+        <v>118</v>
+      </c>
+      <c r="M196" s="2">
+        <v>9297</v>
+      </c>
+      <c r="N196" s="2">
+        <v>1129</v>
+      </c>
+      <c r="O196" s="2">
+        <v>73059</v>
+      </c>
+      <c r="P196" s="2">
+        <v>79091</v>
+      </c>
+      <c r="Q196" s="2">
+        <v>28801</v>
+      </c>
+      <c r="R196" s="2">
+        <v>22769</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
+      <c r="A197" s="3">
+        <v>41821</v>
+      </c>
+      <c r="B197" s="2">
+        <v>114918</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1913</v>
+      </c>
+      <c r="D197" s="2">
+        <v>46781</v>
+      </c>
+      <c r="E197" s="2">
+        <v>10</v>
+      </c>
+      <c r="F197" s="2">
+        <v>3324</v>
+      </c>
+      <c r="G197" s="2">
+        <v>2465</v>
+      </c>
+      <c r="H197" s="2">
+        <v>123</v>
+      </c>
+      <c r="I197" s="2">
+        <v>75971</v>
+      </c>
+      <c r="J197" s="2">
+        <v>31998</v>
+      </c>
+      <c r="K197" s="2">
+        <v>801</v>
+      </c>
+      <c r="L197" s="2">
+        <v>721</v>
+      </c>
+      <c r="M197" s="2">
+        <v>10911</v>
+      </c>
+      <c r="N197" s="2">
+        <v>78</v>
+      </c>
+      <c r="O197" s="2">
+        <v>82941</v>
+      </c>
+      <c r="P197" s="2">
+        <v>93167</v>
+      </c>
+      <c r="Q197" s="2">
+        <v>31977</v>
+      </c>
+      <c r="R197" s="2">
+        <v>21751</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
+      <c r="A198" s="3">
+        <v>41814</v>
+      </c>
+      <c r="B198" s="2">
+        <v>101998</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1319</v>
+      </c>
+      <c r="D198" s="2">
+        <v>38262</v>
+      </c>
+      <c r="E198" s="2">
+        <v>72</v>
+      </c>
+      <c r="F198" s="2">
+        <v>2645</v>
+      </c>
+      <c r="G198" s="2">
+        <v>2493</v>
+      </c>
+      <c r="H198" s="2">
+        <v>114</v>
+      </c>
+      <c r="I198" s="2">
+        <v>65126</v>
+      </c>
+      <c r="J198" s="2">
+        <v>27017</v>
+      </c>
+      <c r="K198" s="2">
+        <v>1782</v>
+      </c>
+      <c r="L198" s="2">
+        <v>500</v>
+      </c>
+      <c r="M198" s="2">
+        <v>10294</v>
+      </c>
+      <c r="N198" s="2">
+        <v>80</v>
+      </c>
+      <c r="O198" s="2">
+        <v>71638</v>
+      </c>
+      <c r="P198" s="2">
+        <v>80114</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>30360</v>
+      </c>
+      <c r="R198" s="2">
+        <v>21884</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
+      <c r="A199" s="3">
+        <v>41807</v>
+      </c>
+      <c r="B199" s="2">
+        <v>99400</v>
+      </c>
+      <c r="C199" s="2">
+        <v>2701</v>
+      </c>
+      <c r="D199" s="2">
+        <v>35555</v>
+      </c>
+      <c r="E199" s="2">
+        <v>15</v>
+      </c>
+      <c r="F199" s="2">
+        <v>2605</v>
+      </c>
+      <c r="G199" s="2">
+        <v>2504</v>
+      </c>
+      <c r="H199" s="2">
+        <v>76</v>
+      </c>
+      <c r="I199" s="2">
+        <v>61085</v>
+      </c>
+      <c r="J199" s="2">
+        <v>29534</v>
+      </c>
+      <c r="K199" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L199" s="2">
+        <v>474</v>
+      </c>
+      <c r="M199" s="2">
+        <v>9251</v>
+      </c>
+      <c r="N199" s="2">
+        <v>12</v>
+      </c>
+      <c r="O199" s="2">
+        <v>68342</v>
+      </c>
+      <c r="P199" s="2">
+        <v>78321</v>
+      </c>
+      <c r="Q199" s="2">
+        <v>31058</v>
+      </c>
+      <c r="R199" s="2">
+        <v>21079</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
+      <c r="A200" s="3">
+        <v>41800</v>
+      </c>
+      <c r="B200" s="2">
+        <v>128984</v>
+      </c>
+      <c r="C200" s="2">
+        <v>20845</v>
+      </c>
+      <c r="D200" s="2">
+        <v>59610</v>
+      </c>
+      <c r="E200" s="2">
+        <v>1339</v>
+      </c>
+      <c r="F200" s="2">
+        <v>2101</v>
+      </c>
+      <c r="G200" s="2">
+        <v>3095</v>
+      </c>
+      <c r="H200" s="2">
+        <v>100</v>
+      </c>
+      <c r="I200" s="2">
+        <v>63378</v>
+      </c>
+      <c r="J200" s="2">
+        <v>24671</v>
+      </c>
+      <c r="K200" s="2">
+        <v>6746</v>
+      </c>
+      <c r="L200" s="2">
+        <v>1874</v>
+      </c>
+      <c r="M200" s="2">
+        <v>6754</v>
+      </c>
+      <c r="N200" s="2">
+        <v>2071</v>
+      </c>
+      <c r="O200" s="2">
+        <v>98454</v>
+      </c>
+      <c r="P200" s="2">
+        <v>104386</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>30530</v>
+      </c>
+      <c r="R200" s="2">
+        <v>24598</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
+      <c r="A201" s="3">
+        <v>41793</v>
+      </c>
+      <c r="B201" s="2">
+        <v>110911</v>
+      </c>
+      <c r="C201" s="2">
+        <v>20448</v>
+      </c>
+      <c r="D201" s="2">
+        <v>48746</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1035</v>
+      </c>
+      <c r="F201" s="2">
+        <v>3638</v>
+      </c>
+      <c r="G201" s="2">
+        <v>3462</v>
+      </c>
+      <c r="H201" s="2">
+        <v>75</v>
+      </c>
+      <c r="I201" s="2">
+        <v>59587</v>
+      </c>
+      <c r="J201" s="2">
+        <v>25159</v>
+      </c>
+      <c r="K201" s="2">
+        <v>980</v>
+      </c>
+      <c r="L201" s="2">
+        <v>542</v>
+      </c>
+      <c r="M201" s="2">
+        <v>7577</v>
+      </c>
+      <c r="N201" s="2">
+        <v>483</v>
+      </c>
+      <c r="O201" s="2">
+        <v>86788</v>
+      </c>
+      <c r="P201" s="2">
+        <v>87517</v>
+      </c>
+      <c r="Q201" s="2">
+        <v>24123</v>
+      </c>
+      <c r="R201" s="2">
+        <v>23394</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202" s="3">
+        <v>41786</v>
+      </c>
+      <c r="B202" s="2">
+        <v>109139</v>
+      </c>
+      <c r="C202" s="2">
+        <v>21141</v>
+      </c>
+      <c r="D202" s="2">
+        <v>44350</v>
+      </c>
+      <c r="E202" s="2">
+        <v>1567</v>
+      </c>
+      <c r="F202" s="2">
+        <v>3924</v>
+      </c>
+      <c r="G202" s="2">
+        <v>3751</v>
+      </c>
+      <c r="H202" s="2">
+        <v>75</v>
+      </c>
+      <c r="I202" s="2">
+        <v>54473</v>
+      </c>
+      <c r="J202" s="2">
+        <v>25947</v>
+      </c>
+      <c r="K202" s="2">
+        <v>1520</v>
+      </c>
+      <c r="L202" s="2">
+        <v>656</v>
+      </c>
+      <c r="M202" s="2">
+        <v>6935</v>
+      </c>
+      <c r="N202" s="2">
+        <v>537</v>
+      </c>
+      <c r="O202" s="2">
+        <v>83893</v>
+      </c>
+      <c r="P202" s="2">
+        <v>84682</v>
+      </c>
+      <c r="Q202" s="2">
+        <v>25246</v>
+      </c>
+      <c r="R202" s="2">
+        <v>24457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
+      <c r="A203" s="3">
+        <v>41779</v>
+      </c>
+      <c r="B203" s="2">
+        <v>107613</v>
+      </c>
+      <c r="C203" s="2">
+        <v>19700</v>
+      </c>
+      <c r="D203" s="2">
+        <v>47849</v>
+      </c>
+      <c r="E203" s="2">
+        <v>1204</v>
+      </c>
+      <c r="F203" s="2">
+        <v>4161</v>
+      </c>
+      <c r="G203" s="2">
+        <v>3480</v>
+      </c>
+      <c r="H203" s="2">
+        <v>75</v>
+      </c>
+      <c r="I203" s="2">
+        <v>52948</v>
+      </c>
+      <c r="J203" s="2">
+        <v>20817</v>
+      </c>
+      <c r="K203" s="2">
+        <v>1843</v>
+      </c>
+      <c r="L203" s="2">
+        <v>1391</v>
+      </c>
+      <c r="M203" s="2">
+        <v>6291</v>
+      </c>
+      <c r="N203" s="2">
+        <v>537</v>
+      </c>
+      <c r="O203" s="2">
+        <v>81859</v>
+      </c>
+      <c r="P203" s="2">
+        <v>82096</v>
+      </c>
+      <c r="Q203" s="2">
+        <v>25754</v>
+      </c>
+      <c r="R203" s="2">
+        <v>25517</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
+      <c r="A204" s="3">
+        <v>41772</v>
+      </c>
+      <c r="B204" s="2">
+        <v>107302</v>
+      </c>
+      <c r="C204" s="2">
+        <v>20267</v>
+      </c>
+      <c r="D204" s="2">
+        <v>49482</v>
+      </c>
+      <c r="E204" s="2">
+        <v>472</v>
+      </c>
+      <c r="F204" s="2">
+        <v>5094</v>
+      </c>
+      <c r="G204" s="2">
+        <v>3281</v>
+      </c>
+      <c r="H204" s="2">
+        <v>76</v>
+      </c>
+      <c r="I204" s="2">
+        <v>51927</v>
+      </c>
+      <c r="J204" s="2">
+        <v>22254</v>
+      </c>
+      <c r="K204" s="2">
+        <v>1578</v>
+      </c>
+      <c r="L204" s="2">
+        <v>1213</v>
+      </c>
+      <c r="M204" s="2">
+        <v>6775</v>
+      </c>
+      <c r="N204" s="2">
+        <v>515</v>
+      </c>
+      <c r="O204" s="2">
+        <v>81142</v>
+      </c>
+      <c r="P204" s="2">
+        <v>84433</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>26160</v>
+      </c>
+      <c r="R204" s="2">
+        <v>22869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
+      <c r="A205" s="3">
+        <v>41765</v>
+      </c>
+      <c r="B205" s="2">
+        <v>104936</v>
+      </c>
+      <c r="C205" s="2">
+        <v>21894</v>
+      </c>
+      <c r="D205" s="2">
+        <v>40201</v>
+      </c>
+      <c r="E205" s="2">
+        <v>442</v>
+      </c>
+      <c r="F205" s="2">
+        <v>5522</v>
+      </c>
+      <c r="G205" s="2">
+        <v>3957</v>
+      </c>
+      <c r="H205" s="2">
+        <v>75</v>
+      </c>
+      <c r="I205" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J205" s="2">
+        <v>27119</v>
+      </c>
+      <c r="K205" s="2">
+        <v>1858</v>
+      </c>
+      <c r="L205" s="2">
+        <v>2146</v>
+      </c>
+      <c r="M205" s="2">
+        <v>8019</v>
+      </c>
+      <c r="N205" s="2">
+        <v>463</v>
+      </c>
+      <c r="O205" s="2">
+        <v>78188</v>
+      </c>
+      <c r="P205" s="2">
+        <v>82134</v>
+      </c>
+      <c r="Q205" s="2">
+        <v>26748</v>
+      </c>
+      <c r="R205" s="2">
+        <v>22802</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
+      <c r="A206" s="3">
+        <v>41758</v>
+      </c>
+      <c r="B206" s="2">
+        <v>109934</v>
+      </c>
+      <c r="C206" s="2">
+        <v>22228</v>
+      </c>
+      <c r="D206" s="2">
+        <v>44291</v>
+      </c>
+      <c r="E206" s="2">
+        <v>283</v>
+      </c>
+      <c r="F206" s="2">
+        <v>5423</v>
+      </c>
+      <c r="G206" s="2">
+        <v>3746</v>
+      </c>
+      <c r="H206" s="2">
+        <v>75</v>
+      </c>
+      <c r="I206" s="2">
+        <v>51973</v>
+      </c>
+      <c r="J206" s="2">
+        <v>28927</v>
+      </c>
+      <c r="K206" s="2">
+        <v>2075</v>
+      </c>
+      <c r="L206" s="2">
+        <v>1850</v>
+      </c>
+      <c r="M206" s="2">
+        <v>7128</v>
+      </c>
+      <c r="N206" s="2">
+        <v>323</v>
+      </c>
+      <c r="O206" s="2">
+        <v>84230</v>
+      </c>
+      <c r="P206" s="2">
+        <v>86848</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>25704</v>
+      </c>
+      <c r="R206" s="2">
+        <v>23086</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
+      <c r="A207" s="3">
+        <v>41751</v>
+      </c>
+      <c r="B207" s="2">
+        <v>107696</v>
+      </c>
+      <c r="C207" s="2">
+        <v>18499</v>
+      </c>
+      <c r="D207" s="2">
+        <v>47811</v>
+      </c>
+      <c r="E207" s="2">
+        <v>384</v>
+      </c>
+      <c r="F207" s="2">
+        <v>5498</v>
+      </c>
+      <c r="G207" s="2">
+        <v>3688</v>
+      </c>
+      <c r="H207" s="2">
+        <v>75</v>
+      </c>
+      <c r="I207" s="2">
+        <v>50476</v>
+      </c>
+      <c r="J207" s="2">
+        <v>23298</v>
+      </c>
+      <c r="K207" s="2">
+        <v>1329</v>
+      </c>
+      <c r="L207" s="2">
+        <v>3405</v>
+      </c>
+      <c r="M207" s="2">
+        <v>6691</v>
+      </c>
+      <c r="N207" s="2">
+        <v>323</v>
+      </c>
+      <c r="O207" s="2">
+        <v>79989</v>
+      </c>
+      <c r="P207" s="2">
+        <v>83599</v>
+      </c>
+      <c r="Q207" s="2">
+        <v>27707</v>
+      </c>
+      <c r="R207" s="2">
+        <v>24097</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
+      <c r="A208" s="3">
+        <v>41744</v>
+      </c>
+      <c r="B208" s="2">
+        <v>98933</v>
+      </c>
+      <c r="C208" s="2">
+        <v>20538</v>
+      </c>
+      <c r="D208" s="2">
+        <v>36234</v>
+      </c>
+      <c r="E208" s="2">
+        <v>264</v>
+      </c>
+      <c r="F208" s="2">
+        <v>5528</v>
+      </c>
+      <c r="G208" s="2">
+        <v>3739</v>
+      </c>
+      <c r="H208" s="2">
+        <v>75</v>
+      </c>
+      <c r="I208" s="2">
+        <v>41643</v>
+      </c>
+      <c r="J208" s="2">
+        <v>23397</v>
+      </c>
+      <c r="K208" s="2">
+        <v>1333</v>
+      </c>
+      <c r="L208" s="2">
+        <v>3608</v>
+      </c>
+      <c r="M208" s="2">
+        <v>6777</v>
+      </c>
+      <c r="N208" s="2">
+        <v>323</v>
+      </c>
+      <c r="O208" s="2">
+        <v>73312</v>
+      </c>
+      <c r="P208" s="2">
+        <v>72142</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>25621</v>
+      </c>
+      <c r="R208" s="2">
+        <v>26791</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
+      <c r="A209" s="3">
+        <v>41737</v>
+      </c>
+      <c r="B209" s="2">
+        <v>96887</v>
+      </c>
+      <c r="C209" s="2">
+        <v>21824</v>
+      </c>
+      <c r="D209" s="2">
+        <v>32365</v>
+      </c>
+      <c r="E209" s="2">
+        <v>397</v>
+      </c>
+      <c r="F209" s="2">
+        <v>5654</v>
+      </c>
+      <c r="G209" s="2">
+        <v>3864</v>
+      </c>
+      <c r="H209" s="2">
+        <v>75</v>
+      </c>
+      <c r="I209" s="2">
+        <v>38593</v>
+      </c>
+      <c r="J209" s="2">
+        <v>25557</v>
+      </c>
+      <c r="K209" s="2">
+        <v>1274</v>
+      </c>
+      <c r="L209" s="2">
+        <v>3410</v>
+      </c>
+      <c r="M209" s="2">
+        <v>6489</v>
+      </c>
+      <c r="N209" s="2">
+        <v>271</v>
+      </c>
+      <c r="O209" s="2">
+        <v>71498</v>
+      </c>
+      <c r="P209" s="2">
+        <v>70292</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>25389</v>
+      </c>
+      <c r="R209" s="2">
+        <v>26595</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
+      <c r="A210" s="3">
+        <v>41730</v>
+      </c>
+      <c r="B210" s="2">
+        <v>93999</v>
+      </c>
+      <c r="C210" s="2">
+        <v>22418</v>
+      </c>
+      <c r="D210" s="2">
+        <v>25431</v>
+      </c>
+      <c r="E210" s="2">
+        <v>418</v>
+      </c>
+      <c r="F210" s="2">
+        <v>7513</v>
+      </c>
+      <c r="G210" s="2">
+        <v>3913</v>
+      </c>
+      <c r="H210" s="2">
+        <v>100</v>
+      </c>
+      <c r="I210" s="2">
+        <v>35355</v>
+      </c>
+      <c r="J210" s="2">
+        <v>30372</v>
+      </c>
+      <c r="K210" s="2">
+        <v>612</v>
+      </c>
+      <c r="L210" s="2">
+        <v>2861</v>
+      </c>
+      <c r="M210" s="2">
+        <v>7193</v>
+      </c>
+      <c r="N210" s="2">
+        <v>707</v>
+      </c>
+      <c r="O210" s="2">
+        <v>69984</v>
+      </c>
+      <c r="P210" s="2">
+        <v>68746</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>24015</v>
+      </c>
+      <c r="R210" s="2">
+        <v>25253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
+      <c r="A211" s="3">
+        <v>41723</v>
+      </c>
+      <c r="B211" s="2">
+        <v>84232</v>
+      </c>
+      <c r="C211" s="2">
+        <v>25149</v>
+      </c>
+      <c r="D211" s="2">
+        <v>9343</v>
+      </c>
+      <c r="E211" s="2">
+        <v>19</v>
+      </c>
+      <c r="F211" s="2">
+        <v>6242</v>
+      </c>
+      <c r="G211" s="2">
+        <v>4333</v>
+      </c>
+      <c r="H211" s="2">
+        <v>100</v>
+      </c>
+      <c r="I211" s="2">
+        <v>25739</v>
+      </c>
+      <c r="J211" s="2">
+        <v>35731</v>
+      </c>
+      <c r="K211" s="2">
+        <v>826</v>
+      </c>
+      <c r="L211" s="2">
+        <v>4332</v>
+      </c>
+      <c r="M211" s="2">
+        <v>6547</v>
+      </c>
+      <c r="N211" s="2">
+        <v>147</v>
+      </c>
+      <c r="O211" s="2">
+        <v>62554</v>
+      </c>
+      <c r="P211" s="2">
+        <v>57046</v>
+      </c>
+      <c r="Q211" s="2">
+        <v>21678</v>
+      </c>
+      <c r="R211" s="2">
+        <v>27186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
+      <c r="A212" s="3">
+        <v>41716</v>
+      </c>
+      <c r="B212" s="2">
+        <v>81737</v>
+      </c>
+      <c r="C212" s="2">
+        <v>29741</v>
+      </c>
+      <c r="D212" s="2">
+        <v>5302</v>
+      </c>
+      <c r="E212" s="2">
+        <v>0</v>
+      </c>
+      <c r="F212" s="2">
+        <v>5088</v>
+      </c>
+      <c r="G212" s="2">
+        <v>4767</v>
+      </c>
+      <c r="H212" s="2">
+        <v>75</v>
+      </c>
+      <c r="I212" s="2">
+        <v>21448</v>
+      </c>
+      <c r="J212" s="2">
+        <v>37091</v>
+      </c>
+      <c r="K212" s="2">
+        <v>685</v>
+      </c>
+      <c r="L212" s="2">
+        <v>4264</v>
+      </c>
+      <c r="M212" s="2">
+        <v>7211</v>
+      </c>
+      <c r="N212" s="2">
+        <v>6</v>
+      </c>
+      <c r="O212" s="2">
+        <v>61307</v>
+      </c>
+      <c r="P212" s="2">
+        <v>55137</v>
+      </c>
+      <c r="Q212" s="2">
+        <v>20430</v>
+      </c>
+      <c r="R212" s="2">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
+      <c r="A213" s="3">
+        <v>41709</v>
+      </c>
+      <c r="B213" s="2">
+        <v>122241</v>
+      </c>
+      <c r="C213" s="2">
+        <v>65169</v>
+      </c>
+      <c r="D213" s="2">
+        <v>10038</v>
+      </c>
+      <c r="E213" s="2">
+        <v>2455</v>
+      </c>
+      <c r="F213" s="2">
+        <v>4042</v>
+      </c>
+      <c r="G213" s="2">
+        <v>3976</v>
+      </c>
+      <c r="H213" s="2">
+        <v>74</v>
+      </c>
+      <c r="I213" s="2">
+        <v>7914</v>
+      </c>
+      <c r="J213" s="2">
+        <v>49337</v>
+      </c>
+      <c r="K213" s="2">
+        <v>16486</v>
+      </c>
+      <c r="L213" s="2">
+        <v>7134</v>
+      </c>
+      <c r="M213" s="2">
+        <v>6415</v>
+      </c>
+      <c r="N213" s="2">
+        <v>4</v>
+      </c>
+      <c r="O213" s="2">
+        <v>103278</v>
+      </c>
+      <c r="P213" s="2">
+        <v>88785</v>
+      </c>
+      <c r="Q213" s="2">
+        <v>18963</v>
+      </c>
+      <c r="R213" s="2">
+        <v>33456</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
+      <c r="A214" s="3">
+        <v>41702</v>
+      </c>
+      <c r="B214" s="2">
+        <v>105792</v>
+      </c>
+      <c r="C214" s="2">
+        <v>64120</v>
+      </c>
+      <c r="D214" s="2">
+        <v>6180</v>
+      </c>
+      <c r="E214" s="2">
+        <v>1534</v>
+      </c>
+      <c r="F214" s="2">
+        <v>3367</v>
+      </c>
+      <c r="G214" s="2">
+        <v>5096</v>
+      </c>
+      <c r="H214" s="2">
+        <v>73</v>
+      </c>
+      <c r="I214" s="2">
+        <v>11145</v>
+      </c>
+      <c r="J214" s="2">
+        <v>51536</v>
+      </c>
+      <c r="K214" s="2">
+        <v>2778</v>
+      </c>
+      <c r="L214" s="2">
+        <v>6831</v>
+      </c>
+      <c r="M214" s="2">
+        <v>7399</v>
+      </c>
+      <c r="N214" s="2">
+        <v>72</v>
+      </c>
+      <c r="O214" s="2">
+        <v>89920</v>
+      </c>
+      <c r="P214" s="2">
+        <v>74668</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>15872</v>
+      </c>
+      <c r="R214" s="2">
+        <v>31124</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
+      <c r="A215" s="3">
+        <v>41695</v>
+      </c>
+      <c r="B215" s="2">
+        <v>98643</v>
+      </c>
+      <c r="C215" s="2">
+        <v>63662</v>
+      </c>
+      <c r="D215" s="2">
+        <v>10306</v>
+      </c>
+      <c r="E215" s="2">
+        <v>331</v>
+      </c>
+      <c r="F215" s="2">
+        <v>987</v>
+      </c>
+      <c r="G215" s="2">
+        <v>4644</v>
+      </c>
+      <c r="H215" s="2">
+        <v>72</v>
+      </c>
+      <c r="I215" s="2">
+        <v>9176</v>
+      </c>
+      <c r="J215" s="2">
+        <v>42787</v>
+      </c>
+      <c r="K215" s="2">
+        <v>1496</v>
+      </c>
+      <c r="L215" s="2">
+        <v>6250</v>
+      </c>
+      <c r="M215" s="2">
+        <v>6461</v>
+      </c>
+      <c r="N215" s="2">
+        <v>74</v>
+      </c>
+      <c r="O215" s="2">
+        <v>82048</v>
+      </c>
+      <c r="P215" s="2">
+        <v>66171</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>16595</v>
+      </c>
+      <c r="R215" s="2">
+        <v>32472</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
+      <c r="A216" s="3">
+        <v>41688</v>
+      </c>
+      <c r="B216" s="2">
+        <v>103049</v>
+      </c>
+      <c r="C216" s="2">
+        <v>68397</v>
+      </c>
+      <c r="D216" s="2">
+        <v>9468</v>
+      </c>
+      <c r="E216" s="2">
+        <v>581</v>
+      </c>
+      <c r="F216" s="2">
+        <v>943</v>
+      </c>
+      <c r="G216" s="2">
+        <v>5281</v>
+      </c>
+      <c r="H216" s="2">
+        <v>103</v>
+      </c>
+      <c r="I216" s="2">
+        <v>8330</v>
+      </c>
+      <c r="J216" s="2">
+        <v>46950</v>
+      </c>
+      <c r="K216" s="2">
+        <v>1607</v>
+      </c>
+      <c r="L216" s="2">
+        <v>6059</v>
+      </c>
+      <c r="M216" s="2">
+        <v>7253</v>
+      </c>
+      <c r="N216" s="2">
+        <v>128</v>
+      </c>
+      <c r="O216" s="2">
+        <v>86148</v>
+      </c>
+      <c r="P216" s="2">
+        <v>71371</v>
+      </c>
+      <c r="Q216" s="2">
+        <v>16901</v>
+      </c>
+      <c r="R216" s="2">
+        <v>31678</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
+      <c r="A217" s="3">
+        <v>41681</v>
+      </c>
+      <c r="B217" s="2">
+        <v>110523</v>
+      </c>
+      <c r="C217" s="2">
+        <v>77014</v>
+      </c>
+      <c r="D217" s="2">
+        <v>9071</v>
+      </c>
+      <c r="E217" s="2">
+        <v>527</v>
+      </c>
+      <c r="F217" s="2">
+        <v>953</v>
+      </c>
+      <c r="G217" s="2">
+        <v>5561</v>
+      </c>
+      <c r="H217" s="2">
+        <v>138</v>
+      </c>
+      <c r="I217" s="2">
+        <v>9097</v>
+      </c>
+      <c r="J217" s="2">
+        <v>53108</v>
+      </c>
+      <c r="K217" s="2">
+        <v>1661</v>
+      </c>
+      <c r="L217" s="2">
+        <v>5026</v>
+      </c>
+      <c r="M217" s="2">
+        <v>7007</v>
+      </c>
+      <c r="N217" s="2">
+        <v>155</v>
+      </c>
+      <c r="O217" s="2">
+        <v>94571</v>
+      </c>
+      <c r="P217" s="2">
+        <v>77228</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>15952</v>
+      </c>
+      <c r="R217" s="2">
+        <v>33295</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
+      <c r="A218" s="3">
+        <v>41674</v>
+      </c>
+      <c r="B218" s="2">
+        <v>125394</v>
+      </c>
+      <c r="C218" s="2">
+        <v>92018</v>
+      </c>
+      <c r="D218" s="2">
+        <v>7538</v>
+      </c>
+      <c r="E218" s="2">
+        <v>394</v>
+      </c>
+      <c r="F218" s="2">
+        <v>655</v>
+      </c>
+      <c r="G218" s="2">
+        <v>5566</v>
+      </c>
+      <c r="H218" s="2">
+        <v>237</v>
+      </c>
+      <c r="I218" s="2">
+        <v>9811</v>
+      </c>
+      <c r="J218" s="2">
+        <v>65277</v>
+      </c>
+      <c r="K218" s="2">
+        <v>1917</v>
+      </c>
+      <c r="L218" s="2">
+        <v>4625</v>
+      </c>
+      <c r="M218" s="2">
+        <v>8771</v>
+      </c>
+      <c r="N218" s="2">
+        <v>155</v>
+      </c>
+      <c r="O218" s="2">
+        <v>109812</v>
+      </c>
+      <c r="P218" s="2">
+        <v>89855</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>15582</v>
+      </c>
+      <c r="R218" s="2">
+        <v>35539</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
+      <c r="A219" s="3">
+        <v>41667</v>
+      </c>
+      <c r="B219" s="2">
+        <v>136426</v>
+      </c>
+      <c r="C219" s="2">
+        <v>100898</v>
+      </c>
+      <c r="D219" s="2">
+        <v>5127</v>
+      </c>
+      <c r="E219" s="2">
+        <v>825</v>
+      </c>
+      <c r="F219" s="2">
+        <v>578</v>
+      </c>
+      <c r="G219" s="2">
+        <v>6073</v>
+      </c>
+      <c r="H219" s="2">
+        <v>213</v>
+      </c>
+      <c r="I219" s="2">
+        <v>12068</v>
+      </c>
+      <c r="J219" s="2">
+        <v>77095</v>
+      </c>
+      <c r="K219" s="2">
+        <v>1303</v>
+      </c>
+      <c r="L219" s="2">
+        <v>5384</v>
+      </c>
+      <c r="M219" s="2">
+        <v>7871</v>
+      </c>
+      <c r="N219" s="2">
+        <v>108</v>
+      </c>
+      <c r="O219" s="2">
+        <v>121377</v>
+      </c>
+      <c r="P219" s="2">
+        <v>98615</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>15049</v>
+      </c>
+      <c r="R219" s="2">
+        <v>37811</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
+      <c r="A220" s="3">
+        <v>41660</v>
+      </c>
+      <c r="B220" s="2">
+        <v>137503</v>
+      </c>
+      <c r="C220" s="2">
+        <v>96015</v>
+      </c>
+      <c r="D220" s="2">
+        <v>4731</v>
+      </c>
+      <c r="E220" s="2">
+        <v>728</v>
+      </c>
+      <c r="F220" s="2">
+        <v>612</v>
+      </c>
+      <c r="G220" s="2">
+        <v>5270</v>
+      </c>
+      <c r="H220" s="2">
+        <v>185</v>
+      </c>
+      <c r="I220" s="2">
+        <v>14433</v>
+      </c>
+      <c r="J220" s="2">
+        <v>78250</v>
+      </c>
+      <c r="K220" s="2">
+        <v>1018</v>
+      </c>
+      <c r="L220" s="2">
+        <v>7567</v>
+      </c>
+      <c r="M220" s="2">
+        <v>7261</v>
+      </c>
+      <c r="N220" s="2">
+        <v>84</v>
+      </c>
+      <c r="O220" s="2">
+        <v>120642</v>
+      </c>
+      <c r="P220" s="2">
+        <v>97527</v>
+      </c>
+      <c r="Q220" s="2">
+        <v>16861</v>
+      </c>
+      <c r="R220" s="2">
+        <v>39976</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
+      <c r="A221" s="3">
+        <v>41653</v>
+      </c>
+      <c r="B221" s="2">
+        <v>112341</v>
+      </c>
+      <c r="C221" s="2">
+        <v>73712</v>
+      </c>
+      <c r="D221" s="2">
+        <v>4652</v>
+      </c>
+      <c r="E221" s="2">
+        <v>299</v>
+      </c>
+      <c r="F221" s="2">
+        <v>769</v>
+      </c>
+      <c r="G221" s="2">
+        <v>4402</v>
+      </c>
+      <c r="H221" s="2">
+        <v>168</v>
+      </c>
+      <c r="I221" s="2">
+        <v>9116</v>
+      </c>
+      <c r="J221" s="2">
+        <v>58655</v>
+      </c>
+      <c r="K221" s="2">
+        <v>2197</v>
+      </c>
+      <c r="L221" s="2">
+        <v>8121</v>
+      </c>
+      <c r="M221" s="2">
+        <v>10006</v>
+      </c>
+      <c r="N221" s="2">
+        <v>13</v>
+      </c>
+      <c r="O221" s="2">
+        <v>94395</v>
+      </c>
+      <c r="P221" s="2">
+        <v>80392</v>
+      </c>
+      <c r="Q221" s="2">
+        <v>17946</v>
+      </c>
+      <c r="R221" s="2">
+        <v>31949</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
+      <c r="A222" s="3">
+        <v>41646</v>
+      </c>
+      <c r="B222" s="2">
+        <v>122121</v>
+      </c>
+      <c r="C222" s="2">
+        <v>82150</v>
+      </c>
+      <c r="D222" s="2">
+        <v>3510</v>
+      </c>
+      <c r="E222" s="2">
+        <v>270</v>
+      </c>
+      <c r="F222" s="2">
+        <v>648</v>
+      </c>
+      <c r="G222" s="2">
+        <v>5440</v>
+      </c>
+      <c r="H222" s="2">
+        <v>169</v>
+      </c>
+      <c r="I222" s="2">
+        <v>13382</v>
+      </c>
+      <c r="J222" s="2">
+        <v>66755</v>
+      </c>
+      <c r="K222" s="2">
+        <v>1971</v>
+      </c>
+      <c r="L222" s="2">
+        <v>6534</v>
+      </c>
+      <c r="M222" s="2">
+        <v>10659</v>
+      </c>
+      <c r="N222" s="2">
+        <v>13</v>
+      </c>
+      <c r="O222" s="2">
+        <v>105137</v>
+      </c>
+      <c r="P222" s="2">
+        <v>88787</v>
+      </c>
+      <c r="Q222" s="2">
+        <v>16984</v>
+      </c>
+      <c r="R222" s="2">
+        <v>33334</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
+      <c r="A223" s="3">
+        <v>41639</v>
+      </c>
+      <c r="B223" s="2">
+        <v>120071</v>
+      </c>
+      <c r="C223" s="2">
+        <v>80729</v>
+      </c>
+      <c r="D223" s="2">
+        <v>2074</v>
+      </c>
+      <c r="E223" s="2">
+        <v>77</v>
+      </c>
+      <c r="F223" s="2">
+        <v>655</v>
+      </c>
+      <c r="G223" s="2">
+        <v>6280</v>
+      </c>
+      <c r="H223" s="2">
+        <v>165</v>
+      </c>
+      <c r="I223" s="2">
+        <v>14597</v>
+      </c>
+      <c r="J223" s="2">
+        <v>66928</v>
+      </c>
+      <c r="K223" s="2">
+        <v>959</v>
+      </c>
+      <c r="L223" s="2">
+        <v>6188</v>
+      </c>
+      <c r="M223" s="2">
+        <v>10227</v>
+      </c>
+      <c r="N223" s="2">
+        <v>9</v>
+      </c>
+      <c r="O223" s="2">
+        <v>103379</v>
+      </c>
+      <c r="P223" s="2">
+        <v>86719</v>
+      </c>
+      <c r="Q223" s="2">
+        <v>16692</v>
+      </c>
+      <c r="R223" s="2">
+        <v>33352</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
+      <c r="A224" s="3">
+        <v>41632</v>
+      </c>
+      <c r="B224" s="2">
+        <v>117884</v>
+      </c>
+      <c r="C224" s="2">
+        <v>78897</v>
+      </c>
+      <c r="D224" s="2">
+        <v>2248</v>
+      </c>
+      <c r="E224" s="2">
+        <v>8</v>
+      </c>
+      <c r="F224" s="2">
+        <v>665</v>
+      </c>
+      <c r="G224" s="2">
+        <v>5911</v>
+      </c>
+      <c r="H224" s="2">
+        <v>173</v>
+      </c>
+      <c r="I224" s="2">
+        <v>15010</v>
+      </c>
+      <c r="J224" s="2">
+        <v>63379</v>
+      </c>
+      <c r="K224" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L224" s="2">
+        <v>6197</v>
+      </c>
+      <c r="M224" s="2">
+        <v>11349</v>
+      </c>
+      <c r="N224" s="2">
+        <v>1</v>
+      </c>
+      <c r="O224" s="2">
+        <v>102018</v>
+      </c>
+      <c r="P224" s="2">
+        <v>84136</v>
+      </c>
+      <c r="Q224" s="2">
+        <v>15866</v>
+      </c>
+      <c r="R224" s="2">
+        <v>33748</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
+      <c r="A225" s="3">
+        <v>41625</v>
+      </c>
+      <c r="B225" s="2">
+        <v>113118</v>
+      </c>
+      <c r="C225" s="2">
+        <v>73875</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1669</v>
+      </c>
+      <c r="E225" s="2">
+        <v>150</v>
+      </c>
+      <c r="F225" s="2">
+        <v>968</v>
+      </c>
+      <c r="G225" s="2">
+        <v>6296</v>
+      </c>
+      <c r="H225" s="2">
+        <v>267</v>
+      </c>
+      <c r="I225" s="2">
+        <v>13933</v>
+      </c>
+      <c r="J225" s="2">
+        <v>61370</v>
+      </c>
+      <c r="K225" s="2">
+        <v>970</v>
+      </c>
+      <c r="L225" s="2">
+        <v>5580</v>
+      </c>
+      <c r="M225" s="2">
+        <v>9907</v>
+      </c>
+      <c r="N225" s="2">
+        <v>1</v>
+      </c>
+      <c r="O225" s="2">
+        <v>95744</v>
+      </c>
+      <c r="P225" s="2">
+        <v>80630</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>17374</v>
+      </c>
+      <c r="R225" s="2">
+        <v>32488</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
+      <c r="A226" s="3">
+        <v>41618</v>
+      </c>
+      <c r="B226" s="2">
+        <v>126620</v>
+      </c>
+      <c r="C226" s="2">
+        <v>68253</v>
+      </c>
+      <c r="D226" s="2">
+        <v>12247</v>
+      </c>
+      <c r="E226" s="2">
+        <v>738</v>
+      </c>
+      <c r="F226" s="2">
+        <v>955</v>
+      </c>
+      <c r="G226" s="2">
+        <v>4914</v>
+      </c>
+      <c r="H226" s="2">
+        <v>273</v>
+      </c>
+      <c r="I226" s="2">
+        <v>24655</v>
+      </c>
+      <c r="J226" s="2">
+        <v>60791</v>
+      </c>
+      <c r="K226" s="2">
+        <v>3043</v>
+      </c>
+      <c r="L226" s="2">
+        <v>12234</v>
+      </c>
+      <c r="M226" s="2">
+        <v>10316</v>
+      </c>
+      <c r="N226" s="2">
+        <v>1</v>
+      </c>
+      <c r="O226" s="2">
+        <v>110152</v>
+      </c>
+      <c r="P226" s="2">
+        <v>92323</v>
+      </c>
+      <c r="Q226" s="2">
+        <v>16468</v>
+      </c>
+      <c r="R226" s="2">
+        <v>34297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
+      <c r="A227" s="3">
+        <v>41611</v>
+      </c>
+      <c r="B227" s="2">
+        <v>121078</v>
+      </c>
+      <c r="C227" s="2">
+        <v>64506</v>
+      </c>
+      <c r="D227" s="2">
+        <v>10818</v>
+      </c>
+      <c r="E227" s="2">
+        <v>591</v>
+      </c>
+      <c r="F227" s="2">
+        <v>983</v>
+      </c>
+      <c r="G227" s="2">
+        <v>5927</v>
+      </c>
+      <c r="H227" s="2">
+        <v>169</v>
+      </c>
+      <c r="I227" s="2">
+        <v>25029</v>
+      </c>
+      <c r="J227" s="2">
+        <v>58409</v>
+      </c>
+      <c r="K227" s="2">
+        <v>1757</v>
+      </c>
+      <c r="L227" s="2">
+        <v>12197</v>
+      </c>
+      <c r="M227" s="2">
+        <v>11336</v>
+      </c>
+      <c r="N227" s="2">
+        <v>120</v>
+      </c>
+      <c r="O227" s="2">
+        <v>105352</v>
+      </c>
+      <c r="P227" s="2">
+        <v>89127</v>
+      </c>
+      <c r="Q227" s="2">
+        <v>15726</v>
+      </c>
+      <c r="R227" s="2">
+        <v>31951</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
+      <c r="A228" s="3">
+        <v>41604</v>
+      </c>
+      <c r="B228" s="2">
+        <v>111673</v>
+      </c>
+      <c r="C228" s="2">
+        <v>57027</v>
+      </c>
+      <c r="D228" s="2">
+        <v>17066</v>
+      </c>
+      <c r="E228" s="2">
+        <v>339</v>
+      </c>
+      <c r="F228" s="2">
+        <v>997</v>
+      </c>
+      <c r="G228" s="2">
+        <v>6009</v>
+      </c>
+      <c r="H228" s="2">
+        <v>74</v>
+      </c>
+      <c r="I228" s="2">
+        <v>21535</v>
+      </c>
+      <c r="J228" s="2">
+        <v>46031</v>
+      </c>
+      <c r="K228" s="2">
+        <v>1486</v>
+      </c>
+      <c r="L228" s="2">
+        <v>11514</v>
+      </c>
+      <c r="M228" s="2">
+        <v>10635</v>
+      </c>
+      <c r="N228" s="2">
+        <v>305</v>
+      </c>
+      <c r="O228" s="2">
+        <v>93277</v>
+      </c>
+      <c r="P228" s="2">
+        <v>81945</v>
+      </c>
+      <c r="Q228" s="2">
+        <v>18396</v>
+      </c>
+      <c r="R228" s="2">
+        <v>29728</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
+      <c r="A229" s="3">
+        <v>41597</v>
+      </c>
+      <c r="B229" s="2">
+        <v>136699</v>
+      </c>
+      <c r="C229" s="2">
+        <v>80476</v>
+      </c>
+      <c r="D229" s="2">
+        <v>10324</v>
+      </c>
+      <c r="E229" s="2">
+        <v>142</v>
+      </c>
+      <c r="F229" s="2">
+        <v>58</v>
+      </c>
+      <c r="G229" s="2">
+        <v>35397</v>
+      </c>
+      <c r="H229" s="2">
+        <v>964</v>
+      </c>
+      <c r="I229" s="2">
+        <v>22066</v>
+      </c>
+      <c r="J229" s="2">
+        <v>48843</v>
+      </c>
+      <c r="K229" s="2">
+        <v>1336</v>
+      </c>
+      <c r="L229" s="2">
+        <v>11641</v>
+      </c>
+      <c r="M229" s="2">
+        <v>10961</v>
+      </c>
+      <c r="N229" s="2">
+        <v>315</v>
+      </c>
+      <c r="O229" s="2">
+        <v>116998</v>
+      </c>
+      <c r="P229" s="2">
+        <v>108282</v>
+      </c>
+      <c r="Q229" s="2">
+        <v>19701</v>
+      </c>
+      <c r="R229" s="2">
+        <v>28417</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
+      <c r="A230" s="3">
+        <v>41590</v>
+      </c>
+      <c r="B230" s="2">
+        <v>137241</v>
+      </c>
+      <c r="C230" s="2">
+        <v>77585</v>
+      </c>
+      <c r="D230" s="2">
+        <v>9373</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44</v>
+      </c>
+      <c r="F230" s="2">
+        <v>493</v>
+      </c>
+      <c r="G230" s="2">
+        <v>35627</v>
+      </c>
+      <c r="H230" s="2">
+        <v>882</v>
+      </c>
+      <c r="I230" s="2">
+        <v>23717</v>
+      </c>
+      <c r="J230" s="2">
+        <v>50217</v>
+      </c>
+      <c r="K230" s="2">
+        <v>1541</v>
+      </c>
+      <c r="L230" s="2">
+        <v>13058</v>
+      </c>
+      <c r="M230" s="2">
+        <v>12168</v>
+      </c>
+      <c r="N230" s="2">
+        <v>286</v>
+      </c>
+      <c r="O230" s="2">
+        <v>117606</v>
+      </c>
+      <c r="P230" s="2">
+        <v>110138</v>
+      </c>
+      <c r="Q230" s="2">
+        <v>19635</v>
+      </c>
+      <c r="R230" s="2">
+        <v>27103</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
+      <c r="A231" s="3">
+        <v>41583</v>
+      </c>
+      <c r="B231" s="2">
+        <v>129497</v>
+      </c>
+      <c r="C231" s="2">
+        <v>65585</v>
+      </c>
+      <c r="D231" s="2">
+        <v>12049</v>
+      </c>
+      <c r="E231" s="2">
+        <v>106</v>
+      </c>
+      <c r="F231" s="2">
+        <v>707</v>
+      </c>
+      <c r="G231" s="2">
+        <v>36061</v>
+      </c>
+      <c r="H231" s="2">
+        <v>863</v>
+      </c>
+      <c r="I231" s="2">
+        <v>26250</v>
+      </c>
+      <c r="J231" s="2">
+        <v>41318</v>
+      </c>
+      <c r="K231" s="2">
+        <v>1008</v>
+      </c>
+      <c r="L231" s="2">
+        <v>11140</v>
+      </c>
+      <c r="M231" s="2">
+        <v>11394</v>
+      </c>
+      <c r="N231" s="2">
+        <v>286</v>
+      </c>
+      <c r="O231" s="2">
+        <v>105945</v>
+      </c>
+      <c r="P231" s="2">
+        <v>103085</v>
+      </c>
+      <c r="Q231" s="2">
+        <v>23552</v>
+      </c>
+      <c r="R231" s="2">
+        <v>26412</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
+      <c r="A232" s="3">
+        <v>41576</v>
+      </c>
+      <c r="B232" s="2">
+        <v>129053</v>
+      </c>
+      <c r="C232" s="2">
+        <v>59356</v>
+      </c>
+      <c r="D232" s="2">
+        <v>11789</v>
+      </c>
+      <c r="E232" s="2">
+        <v>315</v>
+      </c>
+      <c r="F232" s="2">
+        <v>924</v>
+      </c>
+      <c r="G232" s="2">
+        <v>36324</v>
+      </c>
+      <c r="H232" s="2">
+        <v>837</v>
+      </c>
+      <c r="I232" s="2">
+        <v>28582</v>
+      </c>
+      <c r="J232" s="2">
+        <v>44285</v>
+      </c>
+      <c r="K232" s="2">
+        <v>909</v>
+      </c>
+      <c r="L232" s="2">
+        <v>11571</v>
+      </c>
+      <c r="M232" s="2">
+        <v>10271</v>
+      </c>
+      <c r="N232" s="2">
+        <v>286</v>
+      </c>
+      <c r="O232" s="2">
+        <v>102780</v>
+      </c>
+      <c r="P232" s="2">
+        <v>105016</v>
+      </c>
+      <c r="Q232" s="2">
+        <v>26273</v>
+      </c>
+      <c r="R232" s="2">
+        <v>24037</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18">
+      <c r="A233" s="3">
+        <v>41569</v>
+      </c>
+      <c r="B233" s="2">
+        <v>125592</v>
+      </c>
+      <c r="C233" s="2">
+        <v>58482</v>
+      </c>
+      <c r="D233" s="2">
+        <v>9849</v>
+      </c>
+      <c r="E233" s="2">
+        <v>250</v>
+      </c>
+      <c r="F233" s="2">
+        <v>1575</v>
+      </c>
+      <c r="G233" s="2">
+        <v>36460</v>
+      </c>
+      <c r="H233" s="2">
+        <v>840</v>
+      </c>
+      <c r="I233" s="2">
+        <v>26626</v>
+      </c>
+      <c r="J233" s="2">
+        <v>40002</v>
+      </c>
+      <c r="K233" s="2">
+        <v>1096</v>
+      </c>
+      <c r="L233" s="2">
+        <v>12430</v>
+      </c>
+      <c r="M233" s="2">
+        <v>10753</v>
+      </c>
+      <c r="N233" s="2">
+        <v>286</v>
+      </c>
+      <c r="O233" s="2">
+        <v>101585</v>
+      </c>
+      <c r="P233" s="2">
+        <v>99536</v>
+      </c>
+      <c r="Q233" s="2">
+        <v>24007</v>
+      </c>
+      <c r="R233" s="2">
+        <v>26056</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18">
+      <c r="A234" s="3">
+        <v>41562</v>
+      </c>
+      <c r="B234" s="2">
+        <v>124276</v>
+      </c>
+      <c r="C234" s="2">
+        <v>66329</v>
+      </c>
+      <c r="D234" s="2">
+        <v>8520</v>
+      </c>
+      <c r="E234" s="2">
+        <v>173</v>
+      </c>
+      <c r="F234" s="2">
+        <v>375</v>
+      </c>
+      <c r="G234" s="2">
+        <v>36726</v>
+      </c>
+      <c r="H234" s="2">
+        <v>833</v>
+      </c>
+      <c r="I234" s="2">
+        <v>22578</v>
+      </c>
+      <c r="J234" s="2">
+        <v>38294</v>
+      </c>
+      <c r="K234" s="2">
+        <v>1659</v>
+      </c>
+      <c r="L234" s="2">
+        <v>10518</v>
+      </c>
+      <c r="M234" s="2">
+        <v>12249</v>
+      </c>
+      <c r="N234" s="2">
+        <v>286</v>
+      </c>
+      <c r="O234" s="2">
+        <v>102751</v>
+      </c>
+      <c r="P234" s="2">
+        <v>98740</v>
+      </c>
+      <c r="Q234" s="2">
+        <v>21525</v>
+      </c>
+      <c r="R234" s="2">
+        <v>25536</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18">
+      <c r="A235" s="3">
+        <v>41555</v>
+      </c>
+      <c r="B235" s="2">
+        <v>117075</v>
+      </c>
+      <c r="C235" s="2">
+        <v>63806</v>
+      </c>
+      <c r="D235" s="2">
+        <v>8109</v>
+      </c>
+      <c r="E235" s="2">
+        <v>586</v>
+      </c>
+      <c r="F235" s="2">
+        <v>153</v>
+      </c>
+      <c r="G235" s="2">
+        <v>36645</v>
+      </c>
+      <c r="H235" s="2">
+        <v>827</v>
+      </c>
+      <c r="I235" s="2">
+        <v>21922</v>
+      </c>
+      <c r="J235" s="2">
+        <v>33166</v>
+      </c>
+      <c r="K235" s="2">
+        <v>1672</v>
+      </c>
+      <c r="L235" s="2">
+        <v>9380</v>
+      </c>
+      <c r="M235" s="2">
+        <v>10576</v>
+      </c>
+      <c r="N235" s="2">
+        <v>1</v>
+      </c>
+      <c r="O235" s="2">
+        <v>98347</v>
+      </c>
+      <c r="P235" s="2">
+        <v>91582</v>
+      </c>
+      <c r="Q235" s="2">
+        <v>18728</v>
+      </c>
+      <c r="R235" s="2">
+        <v>25493</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18">
+      <c r="A236" s="3">
+        <v>41548</v>
+      </c>
+      <c r="B236" s="2">
+        <v>113676</v>
+      </c>
+      <c r="C236" s="2">
+        <v>61608</v>
+      </c>
+      <c r="D236" s="2">
+        <v>7012</v>
+      </c>
+      <c r="E236" s="2">
+        <v>129</v>
+      </c>
+      <c r="F236" s="2">
+        <v>472</v>
+      </c>
+      <c r="G236" s="2">
+        <v>36545</v>
+      </c>
+      <c r="H236" s="2">
+        <v>834</v>
+      </c>
+      <c r="I236" s="2">
+        <v>20063</v>
+      </c>
+      <c r="J236" s="2">
+        <v>32266</v>
+      </c>
+      <c r="K236" s="2">
+        <v>1887</v>
+      </c>
+      <c r="L236" s="2">
+        <v>9467</v>
+      </c>
+      <c r="M236" s="2">
+        <v>11028</v>
+      </c>
+      <c r="N236" s="2">
+        <v>1</v>
+      </c>
+      <c r="O236" s="2">
+        <v>94461</v>
+      </c>
+      <c r="P236" s="2">
+        <v>89702</v>
+      </c>
+      <c r="Q236" s="2">
+        <v>19215</v>
+      </c>
+      <c r="R236" s="2">
+        <v>23974</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18">
+      <c r="A237" s="3">
+        <v>41541</v>
+      </c>
+      <c r="B237" s="2">
+        <v>126462</v>
+      </c>
+      <c r="C237" s="2">
+        <v>71182</v>
+      </c>
+      <c r="D237" s="2">
+        <v>6182</v>
+      </c>
+      <c r="E237" s="2">
+        <v>27</v>
+      </c>
+      <c r="F237" s="2">
+        <v>550</v>
+      </c>
+      <c r="G237" s="2">
+        <v>36574</v>
+      </c>
+      <c r="H237" s="2">
+        <v>987</v>
+      </c>
+      <c r="I237" s="2">
+        <v>25078</v>
+      </c>
+      <c r="J237" s="2">
+        <v>45481</v>
+      </c>
+      <c r="K237" s="2">
+        <v>1322</v>
+      </c>
+      <c r="L237" s="2">
+        <v>9773</v>
+      </c>
+      <c r="M237" s="2">
+        <v>11024</v>
+      </c>
+      <c r="N237" s="2">
+        <v>6</v>
+      </c>
+      <c r="O237" s="2">
+        <v>108925</v>
+      </c>
+      <c r="P237" s="2">
+        <v>101603</v>
+      </c>
+      <c r="Q237" s="2">
+        <v>17537</v>
+      </c>
+      <c r="R237" s="2">
+        <v>24859</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18">
+      <c r="A238" s="3">
+        <v>41534</v>
+      </c>
+      <c r="B238" s="2">
+        <v>129806</v>
+      </c>
+      <c r="C238" s="2">
+        <v>63970</v>
+      </c>
+      <c r="D238" s="2">
+        <v>5115</v>
+      </c>
+      <c r="E238" s="2">
+        <v>1</v>
+      </c>
+      <c r="F238" s="2">
+        <v>402</v>
+      </c>
+      <c r="G238" s="2">
+        <v>36858</v>
+      </c>
+      <c r="H238" s="2">
+        <v>987</v>
+      </c>
+      <c r="I238" s="2">
+        <v>36615</v>
+      </c>
+      <c r="J238" s="2">
+        <v>47346</v>
+      </c>
+      <c r="K238" s="2">
+        <v>1467</v>
+      </c>
+      <c r="L238" s="2">
+        <v>10369</v>
+      </c>
+      <c r="M238" s="2">
+        <v>10456</v>
+      </c>
+      <c r="N238" s="2">
+        <v>1</v>
+      </c>
+      <c r="O238" s="2">
+        <v>113812</v>
+      </c>
+      <c r="P238" s="2">
+        <v>102231</v>
+      </c>
+      <c r="Q238" s="2">
+        <v>15994</v>
+      </c>
+      <c r="R238" s="2">
+        <v>27575</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18">
+      <c r="A239" s="3">
+        <v>41527</v>
+      </c>
+      <c r="B239" s="2">
+        <v>183606</v>
+      </c>
+      <c r="C239" s="2">
+        <v>105754</v>
+      </c>
+      <c r="D239" s="2">
+        <v>27278</v>
+      </c>
+      <c r="E239" s="2">
+        <v>2551</v>
+      </c>
+      <c r="F239" s="2">
+        <v>1504</v>
+      </c>
+      <c r="G239" s="2">
+        <v>36148</v>
+      </c>
+      <c r="H239" s="2">
+        <v>1056</v>
+      </c>
+      <c r="I239" s="2">
+        <v>33618</v>
+      </c>
+      <c r="J239" s="2">
+        <v>61652</v>
+      </c>
+      <c r="K239" s="2">
+        <v>12901</v>
+      </c>
+      <c r="L239" s="2">
+        <v>8893</v>
+      </c>
+      <c r="M239" s="2">
+        <v>9983</v>
+      </c>
+      <c r="N239" s="2">
+        <v>1</v>
+      </c>
+      <c r="O239" s="2">
+        <v>166278</v>
+      </c>
+      <c r="P239" s="2">
+        <v>151570</v>
+      </c>
+      <c r="Q239" s="2">
+        <v>17328</v>
+      </c>
+      <c r="R239" s="2">
+        <v>32036</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18">
+      <c r="A240" s="3">
+        <v>41520</v>
+      </c>
+      <c r="B240" s="2">
+        <v>189334</v>
+      </c>
+      <c r="C240" s="2">
+        <v>122752</v>
+      </c>
+      <c r="D240" s="2">
+        <v>21310</v>
+      </c>
+      <c r="E240" s="2">
+        <v>1625</v>
+      </c>
+      <c r="F240" s="2">
+        <v>667</v>
+      </c>
+      <c r="G240" s="2">
+        <v>37483</v>
+      </c>
+      <c r="H240" s="2">
+        <v>1027</v>
+      </c>
+      <c r="I240" s="2">
+        <v>36945</v>
+      </c>
+      <c r="J240" s="2">
+        <v>79430</v>
+      </c>
+      <c r="K240" s="2">
+        <v>2143</v>
+      </c>
+      <c r="L240" s="2">
+        <v>5555</v>
+      </c>
+      <c r="M240" s="2">
+        <v>10828</v>
+      </c>
+      <c r="N240" s="2">
+        <v>1603</v>
+      </c>
+      <c r="O240" s="2">
+        <v>172317</v>
+      </c>
+      <c r="P240" s="2">
+        <v>155449</v>
+      </c>
+      <c r="Q240" s="2">
+        <v>17017</v>
+      </c>
+      <c r="R240" s="2">
+        <v>33885</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
+      <c r="A241" s="3">
+        <v>41513</v>
+      </c>
+      <c r="B241" s="2">
+        <v>186664</v>
+      </c>
+      <c r="C241" s="2">
+        <v>123452</v>
+      </c>
+      <c r="D241" s="2">
+        <v>20037</v>
+      </c>
+      <c r="E241" s="2">
+        <v>934</v>
+      </c>
+      <c r="F241" s="2">
+        <v>619</v>
+      </c>
+      <c r="G241" s="2">
+        <v>37594</v>
+      </c>
+      <c r="H241" s="2">
+        <v>1058</v>
+      </c>
+      <c r="I241" s="2">
+        <v>36571</v>
+      </c>
+      <c r="J241" s="2">
+        <v>78020</v>
+      </c>
+      <c r="K241" s="2">
+        <v>1474</v>
+      </c>
+      <c r="L241" s="2">
+        <v>6218</v>
+      </c>
+      <c r="M241" s="2">
+        <v>12075</v>
+      </c>
+      <c r="N241" s="2">
+        <v>1682</v>
+      </c>
+      <c r="O241" s="2">
+        <v>172008</v>
+      </c>
+      <c r="P241" s="2">
+        <v>152874</v>
+      </c>
+      <c r="Q241" s="2">
+        <v>14656</v>
+      </c>
+      <c r="R241" s="2">
+        <v>33790</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
+      <c r="A242" s="3">
+        <v>41506</v>
+      </c>
+      <c r="B242" s="2">
+        <v>184178</v>
+      </c>
+      <c r="C242" s="2">
+        <v>121375</v>
+      </c>
+      <c r="D242" s="2">
+        <v>19156</v>
+      </c>
+      <c r="E242" s="2">
+        <v>529</v>
+      </c>
+      <c r="F242" s="2">
+        <v>589</v>
+      </c>
+      <c r="G242" s="2">
+        <v>40090</v>
+      </c>
+      <c r="H242" s="2">
+        <v>1094</v>
+      </c>
+      <c r="I242" s="2">
+        <v>38153</v>
+      </c>
+      <c r="J242" s="2">
+        <v>75298</v>
+      </c>
+      <c r="K242" s="2">
+        <v>1551</v>
+      </c>
+      <c r="L242" s="2">
+        <v>5160</v>
+      </c>
+      <c r="M242" s="2">
+        <v>11367</v>
+      </c>
+      <c r="N242" s="2">
+        <v>1615</v>
+      </c>
+      <c r="O242" s="2">
+        <v>170066</v>
+      </c>
+      <c r="P242" s="2">
+        <v>150700</v>
+      </c>
+      <c r="Q242" s="2">
+        <v>14112</v>
+      </c>
+      <c r="R242" s="2">
+        <v>33478</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
+      <c r="A243" s="3">
+        <v>41499</v>
+      </c>
+      <c r="B243" s="2">
+        <v>184822</v>
+      </c>
+      <c r="C243" s="2">
+        <v>119960</v>
+      </c>
+      <c r="D243" s="2">
+        <v>19586</v>
+      </c>
+      <c r="E243" s="2">
+        <v>261</v>
+      </c>
+      <c r="F243" s="2">
+        <v>589</v>
+      </c>
+      <c r="G243" s="2">
+        <v>39638</v>
+      </c>
+      <c r="H243" s="2">
+        <v>1042</v>
+      </c>
+      <c r="I243" s="2">
+        <v>38724</v>
+      </c>
+      <c r="J243" s="2">
+        <v>74130</v>
+      </c>
+      <c r="K243" s="2">
+        <v>1515</v>
+      </c>
+      <c r="L243" s="2">
+        <v>5316</v>
+      </c>
+      <c r="M243" s="2">
+        <v>11179</v>
+      </c>
+      <c r="N243" s="2">
+        <v>1485</v>
+      </c>
+      <c r="O243" s="2">
+        <v>168892</v>
+      </c>
+      <c r="P243" s="2">
+        <v>148836</v>
+      </c>
+      <c r="Q243" s="2">
+        <v>15930</v>
+      </c>
+      <c r="R243" s="2">
+        <v>35986</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18">
+      <c r="A244" s="3">
+        <v>41492</v>
+      </c>
+      <c r="B244" s="2">
+        <v>201885</v>
+      </c>
+      <c r="C244" s="2">
+        <v>130792</v>
+      </c>
+      <c r="D244" s="2">
+        <v>11794</v>
+      </c>
+      <c r="E244" s="2">
+        <v>1484</v>
+      </c>
+      <c r="F244" s="2">
+        <v>619</v>
+      </c>
+      <c r="G244" s="2">
+        <v>40349</v>
+      </c>
+      <c r="H244" s="2">
+        <v>1015</v>
+      </c>
+      <c r="I244" s="2">
+        <v>43442</v>
+      </c>
+      <c r="J244" s="2">
+        <v>90589</v>
+      </c>
+      <c r="K244" s="2">
+        <v>1083</v>
+      </c>
+      <c r="L244" s="2">
+        <v>5419</v>
+      </c>
+      <c r="M244" s="2">
+        <v>12083</v>
+      </c>
+      <c r="N244" s="2">
+        <v>968</v>
+      </c>
+      <c r="O244" s="2">
+        <v>184822</v>
+      </c>
+      <c r="P244" s="2">
+        <v>159365</v>
+      </c>
+      <c r="Q244" s="2">
+        <v>17063</v>
+      </c>
+      <c r="R244" s="2">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18">
+      <c r="A245" s="3">
+        <v>41485</v>
+      </c>
+      <c r="B245" s="2">
+        <v>198272</v>
+      </c>
+      <c r="C245" s="2">
+        <v>121674</v>
+      </c>
+      <c r="D245" s="2">
+        <v>10213</v>
+      </c>
+      <c r="E245" s="2">
+        <v>1975</v>
+      </c>
+      <c r="F245" s="2">
+        <v>619</v>
+      </c>
+      <c r="G245" s="2">
+        <v>40840</v>
+      </c>
+      <c r="H245" s="2">
+        <v>985</v>
+      </c>
+      <c r="I245" s="2">
+        <v>45708</v>
+      </c>
+      <c r="J245" s="2">
+        <v>91740</v>
+      </c>
+      <c r="K245" s="2">
+        <v>873</v>
+      </c>
+      <c r="L245" s="2">
+        <v>7533</v>
+      </c>
+      <c r="M245" s="2">
+        <v>11433</v>
+      </c>
+      <c r="N245" s="2">
+        <v>417</v>
+      </c>
+      <c r="O245" s="2">
+        <v>179784</v>
+      </c>
+      <c r="P245" s="2">
+        <v>158476</v>
+      </c>
+      <c r="Q245" s="2">
+        <v>18488</v>
+      </c>
+      <c r="R245" s="2">
+        <v>39796</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18">
+      <c r="A246" s="3">
+        <v>41478</v>
+      </c>
+      <c r="B246" s="2">
+        <v>185349</v>
+      </c>
+      <c r="C246" s="2">
+        <v>111862</v>
+      </c>
+      <c r="D246" s="2">
+        <v>12280</v>
+      </c>
+      <c r="E246" s="2">
+        <v>875</v>
+      </c>
+      <c r="F246" s="2">
+        <v>649</v>
+      </c>
+      <c r="G246" s="2">
+        <v>42357</v>
+      </c>
+      <c r="H246" s="2">
+        <v>956</v>
+      </c>
+      <c r="I246" s="2">
+        <v>42822</v>
+      </c>
+      <c r="J246" s="2">
+        <v>80499</v>
+      </c>
+      <c r="K246" s="2">
+        <v>714</v>
+      </c>
+      <c r="L246" s="2">
+        <v>8172</v>
+      </c>
+      <c r="M246" s="2">
+        <v>11175</v>
+      </c>
+      <c r="N246" s="2">
+        <v>225</v>
+      </c>
+      <c r="O246" s="2">
+        <v>166275</v>
+      </c>
+      <c r="P246" s="2">
+        <v>149081</v>
+      </c>
+      <c r="Q246" s="2">
+        <v>19074</v>
+      </c>
+      <c r="R246" s="2">
+        <v>36268</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18">
+      <c r="A247" s="3">
+        <v>41471</v>
+      </c>
+      <c r="B247" s="2">
+        <v>186264</v>
+      </c>
+      <c r="C247" s="2">
+        <v>111534</v>
+      </c>
+      <c r="D247" s="2">
+        <v>8299</v>
+      </c>
+      <c r="E247" s="2">
+        <v>399</v>
+      </c>
+      <c r="F247" s="2">
+        <v>649</v>
+      </c>
+      <c r="G247" s="2">
+        <v>43180</v>
+      </c>
+      <c r="H247" s="2">
+        <v>1006</v>
+      </c>
+      <c r="I247" s="2">
+        <v>47351</v>
+      </c>
+      <c r="J247" s="2">
+        <v>81982</v>
+      </c>
+      <c r="K247" s="2">
+        <v>1326</v>
+      </c>
+      <c r="L247" s="2">
+        <v>7481</v>
+      </c>
+      <c r="M247" s="2">
+        <v>9798</v>
+      </c>
+      <c r="N247" s="2">
+        <v>15</v>
+      </c>
+      <c r="O247" s="2">
+        <v>169761</v>
+      </c>
+      <c r="P247" s="2">
+        <v>146005</v>
+      </c>
+      <c r="Q247" s="2">
+        <v>16503</v>
+      </c>
+      <c r="R247" s="2">
+        <v>40259</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18">
+      <c r="A248" s="3">
+        <v>41464</v>
+      </c>
+      <c r="B248" s="2">
+        <v>178595</v>
+      </c>
+      <c r="C248" s="2">
+        <v>104831</v>
+      </c>
+      <c r="D248" s="2">
+        <v>4090</v>
+      </c>
+      <c r="E248" s="2">
+        <v>323</v>
+      </c>
+      <c r="F248" s="2">
+        <v>649</v>
+      </c>
+      <c r="G248" s="2">
+        <v>43409</v>
+      </c>
+      <c r="H248" s="2">
+        <v>952</v>
+      </c>
+      <c r="I248" s="2">
+        <v>49009</v>
+      </c>
+      <c r="J248" s="2">
+        <v>76994</v>
+      </c>
+      <c r="K248" s="2">
+        <v>998</v>
+      </c>
+      <c r="L248" s="2">
+        <v>6104</v>
+      </c>
+      <c r="M248" s="2">
+        <v>10005</v>
+      </c>
+      <c r="N248" s="2">
+        <v>1</v>
+      </c>
+      <c r="O248" s="2">
+        <v>162867</v>
+      </c>
+      <c r="P248" s="2">
+        <v>136772</v>
+      </c>
+      <c r="Q248" s="2">
+        <v>15728</v>
+      </c>
+      <c r="R248" s="2">
+        <v>41823</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18">
+      <c r="A249" s="3">
+        <v>41457</v>
+      </c>
+      <c r="B249" s="2">
+        <v>182925</v>
+      </c>
+      <c r="C249" s="2">
+        <v>106952</v>
+      </c>
+      <c r="D249" s="2">
+        <v>2187</v>
+      </c>
+      <c r="E249" s="2">
+        <v>229</v>
+      </c>
+      <c r="F249" s="2">
+        <v>632</v>
+      </c>
+      <c r="G249" s="2">
+        <v>43869</v>
+      </c>
+      <c r="H249" s="2">
+        <v>968</v>
+      </c>
+      <c r="I249" s="2">
+        <v>48379</v>
+      </c>
+      <c r="J249" s="2">
+        <v>84220</v>
+      </c>
+      <c r="K249" s="2">
+        <v>1082</v>
+      </c>
+      <c r="L249" s="2">
+        <v>7506</v>
+      </c>
+      <c r="M249" s="2">
+        <v>9000</v>
+      </c>
+      <c r="N249" s="2">
+        <v>78</v>
+      </c>
+      <c r="O249" s="2">
+        <v>165826</v>
+      </c>
+      <c r="P249" s="2">
+        <v>141633</v>
+      </c>
+      <c r="Q249" s="2">
+        <v>17099</v>
+      </c>
+      <c r="R249" s="2">
+        <v>41292</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18">
+      <c r="A250" s="3">
+        <v>41450</v>
+      </c>
+      <c r="B250" s="2">
+        <v>174012</v>
+      </c>
+      <c r="C250" s="2">
+        <v>99601</v>
+      </c>
+      <c r="D250" s="2">
+        <v>1311</v>
+      </c>
+      <c r="E250" s="2">
+        <v>117</v>
+      </c>
+      <c r="F250" s="2">
+        <v>632</v>
+      </c>
+      <c r="G250" s="2">
+        <v>44819</v>
+      </c>
+      <c r="H250" s="2">
+        <v>985</v>
+      </c>
+      <c r="I250" s="2">
+        <v>50697</v>
+      </c>
+      <c r="J250" s="2">
+        <v>75367</v>
+      </c>
+      <c r="K250" s="2">
+        <v>699</v>
+      </c>
+      <c r="L250" s="2">
+        <v>5530</v>
+      </c>
+      <c r="M250" s="2">
+        <v>7479</v>
+      </c>
+      <c r="N250" s="2">
+        <v>0</v>
+      </c>
+      <c r="O250" s="2">
+        <v>158261</v>
+      </c>
+      <c r="P250" s="2">
+        <v>130777</v>
+      </c>
+      <c r="Q250" s="2">
+        <v>15751</v>
+      </c>
+      <c r="R250" s="2">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18">
+      <c r="A251" s="3">
+        <v>41443</v>
+      </c>
+      <c r="B251" s="2">
+        <v>180895</v>
+      </c>
+      <c r="C251" s="2">
+        <v>98730</v>
+      </c>
+      <c r="D251" s="2">
+        <v>0</v>
+      </c>
+      <c r="E251" s="2">
+        <v>20</v>
+      </c>
+      <c r="F251" s="2">
+        <v>0</v>
+      </c>
+      <c r="G251" s="2">
+        <v>44954</v>
+      </c>
+      <c r="H251" s="2">
+        <v>878</v>
+      </c>
+      <c r="I251" s="2">
+        <v>59029</v>
+      </c>
+      <c r="J251" s="2">
+        <v>84269</v>
+      </c>
+      <c r="K251" s="2">
+        <v>681</v>
+      </c>
+      <c r="L251" s="2">
+        <v>6985</v>
+      </c>
+      <c r="M251" s="2">
+        <v>8142</v>
+      </c>
+      <c r="N251" s="2">
+        <v>0</v>
+      </c>
+      <c r="O251" s="2">
+        <v>166323</v>
+      </c>
+      <c r="P251" s="2">
+        <v>138944</v>
+      </c>
+      <c r="Q251" s="2">
+        <v>14572</v>
+      </c>
+      <c r="R251" s="2">
+        <v>41951</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18">
+      <c r="A252" s="3">
+        <v>41436</v>
+      </c>
+      <c r="B252" s="2">
+        <v>240067</v>
+      </c>
+      <c r="C252" s="2">
+        <v>131395</v>
+      </c>
+      <c r="D252" s="2">
+        <v>24651</v>
+      </c>
+      <c r="E252" s="2">
+        <v>19790</v>
+      </c>
+      <c r="F252" s="2">
+        <v>666</v>
+      </c>
+      <c r="G252" s="2">
+        <v>43262</v>
+      </c>
+      <c r="H252" s="2">
+        <v>1375</v>
+      </c>
+      <c r="I252" s="2">
+        <v>39307</v>
+      </c>
+      <c r="J252" s="2">
+        <v>79878</v>
+      </c>
+      <c r="K252" s="2">
+        <v>16560</v>
+      </c>
+      <c r="L252" s="2">
+        <v>10622</v>
+      </c>
+      <c r="M252" s="2">
+        <v>9272</v>
+      </c>
+      <c r="N252" s="2">
+        <v>1375</v>
+      </c>
+      <c r="O252" s="2">
+        <v>221090</v>
+      </c>
+      <c r="P252" s="2">
+        <v>196163</v>
+      </c>
+      <c r="Q252" s="2">
+        <v>18977</v>
+      </c>
+      <c r="R252" s="2">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18">
+      <c r="A253" s="3">
+        <v>41429</v>
+      </c>
+      <c r="B253" s="2">
+        <v>212222</v>
+      </c>
+      <c r="C253" s="2">
+        <v>128426</v>
+      </c>
+      <c r="D253" s="2">
+        <v>21326</v>
+      </c>
+      <c r="E253" s="2">
+        <v>5157</v>
+      </c>
+      <c r="F253" s="2">
+        <v>0</v>
+      </c>
+      <c r="G253" s="2">
+        <v>44437</v>
+      </c>
+      <c r="H253" s="2">
+        <v>1007</v>
+      </c>
+      <c r="I253" s="2">
+        <v>42568</v>
+      </c>
+      <c r="J253" s="2">
+        <v>80539</v>
+      </c>
+      <c r="K253" s="2">
+        <v>2880</v>
+      </c>
+      <c r="L253" s="2">
+        <v>13682</v>
+      </c>
+      <c r="M253" s="2">
+        <v>10731</v>
+      </c>
+      <c r="N253" s="2">
+        <v>0</v>
+      </c>
+      <c r="O253" s="2">
+        <v>193720</v>
+      </c>
+      <c r="P253" s="2">
+        <v>166077</v>
+      </c>
+      <c r="Q253" s="2">
+        <v>18502</v>
+      </c>
+      <c r="R253" s="2">
+        <v>46145</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
+      <c r="A254" s="3">
+        <v>41422</v>
+      </c>
+      <c r="B254" s="2">
+        <v>209027</v>
+      </c>
+      <c r="C254" s="2">
+        <v>115632</v>
+      </c>
+      <c r="D254" s="2">
+        <v>28752</v>
+      </c>
+      <c r="E254" s="2">
+        <v>1909</v>
+      </c>
+      <c r="F254" s="2">
+        <v>0</v>
+      </c>
+      <c r="G254" s="2">
+        <v>44171</v>
+      </c>
+      <c r="H254" s="2">
+        <v>1043</v>
+      </c>
+      <c r="I254" s="2">
+        <v>52671</v>
+      </c>
+      <c r="J254" s="2">
+        <v>72888</v>
+      </c>
+      <c r="K254" s="2">
+        <v>4052</v>
+      </c>
+      <c r="L254" s="2">
+        <v>13689</v>
+      </c>
+      <c r="M254" s="2">
+        <v>11294</v>
+      </c>
+      <c r="N254" s="2">
+        <v>5</v>
+      </c>
+      <c r="O254" s="2">
+        <v>189001</v>
+      </c>
+      <c r="P254" s="2">
+        <v>164114</v>
+      </c>
+      <c r="Q254" s="2">
+        <v>20026</v>
+      </c>
+      <c r="R254" s="2">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18">
+      <c r="A255" s="3">
+        <v>41415</v>
+      </c>
+      <c r="B255" s="2">
+        <v>205301</v>
+      </c>
+      <c r="C255" s="2">
+        <v>106759</v>
+      </c>
+      <c r="D255" s="2">
+        <v>28217</v>
+      </c>
+      <c r="E255" s="2">
+        <v>2087</v>
+      </c>
+      <c r="F255" s="2">
+        <v>0</v>
+      </c>
+      <c r="G255" s="2">
+        <v>42538</v>
+      </c>
+      <c r="H255" s="2">
+        <v>1094</v>
+      </c>
+      <c r="I255" s="2">
+        <v>59641</v>
+      </c>
+      <c r="J255" s="2">
+        <v>72750</v>
+      </c>
+      <c r="K255" s="2">
+        <v>4349</v>
+      </c>
+      <c r="L255" s="2">
+        <v>12023</v>
+      </c>
+      <c r="M255" s="2">
+        <v>10210</v>
+      </c>
+      <c r="N255" s="2">
+        <v>8</v>
+      </c>
+      <c r="O255" s="2">
+        <v>185961</v>
+      </c>
+      <c r="P255" s="2">
+        <v>161253</v>
+      </c>
+      <c r="Q255" s="2">
+        <v>19340</v>
+      </c>
+      <c r="R255" s="2">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18">
+      <c r="A256" s="3">
+        <v>41408</v>
+      </c>
+      <c r="B256" s="2">
+        <v>190884</v>
+      </c>
+      <c r="C256" s="2">
+        <v>80281</v>
+      </c>
+      <c r="D256" s="2">
+        <v>30433</v>
+      </c>
+      <c r="E256" s="2">
+        <v>1737</v>
+      </c>
+      <c r="F256" s="2">
+        <v>0</v>
+      </c>
+      <c r="G256" s="2">
+        <v>41598</v>
+      </c>
+      <c r="H256" s="2">
+        <v>1259</v>
+      </c>
+      <c r="I256" s="2">
+        <v>73455</v>
+      </c>
+      <c r="J256" s="2">
+        <v>68983</v>
+      </c>
+      <c r="K256" s="2">
+        <v>3441</v>
+      </c>
+      <c r="L256" s="2">
+        <v>8875</v>
+      </c>
+      <c r="M256" s="2">
+        <v>5739</v>
+      </c>
+      <c r="N256" s="2">
+        <v>14</v>
+      </c>
+      <c r="O256" s="2">
+        <v>169062</v>
+      </c>
+      <c r="P256" s="2">
+        <v>153204</v>
+      </c>
+      <c r="Q256" s="2">
+        <v>21822</v>
+      </c>
+      <c r="R256" s="2">
+        <v>37680</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
+      <c r="A257" s="3">
+        <v>41401</v>
+      </c>
+      <c r="B257" s="2">
+        <v>157170</v>
+      </c>
+      <c r="C257" s="2">
+        <v>47759</v>
+      </c>
+      <c r="D257" s="2">
+        <v>28544</v>
+      </c>
+      <c r="E257" s="2">
+        <v>716</v>
+      </c>
+      <c r="F257" s="2">
+        <v>1572</v>
+      </c>
+      <c r="G257" s="2">
+        <v>41366</v>
+      </c>
+      <c r="H257" s="2">
+        <v>991</v>
+      </c>
+      <c r="I257" s="2">
+        <v>71495</v>
+      </c>
+      <c r="J257" s="2">
+        <v>51670</v>
+      </c>
+      <c r="K257" s="2">
+        <v>2383</v>
+      </c>
+      <c r="L257" s="2">
+        <v>5404</v>
+      </c>
+      <c r="M257" s="2">
+        <v>3381</v>
+      </c>
+      <c r="N257" s="2">
+        <v>0</v>
+      </c>
+      <c r="O257" s="2">
+        <v>130320</v>
+      </c>
+      <c r="P257" s="2">
+        <v>129051</v>
+      </c>
+      <c r="Q257" s="2">
+        <v>26850</v>
+      </c>
+      <c r="R257" s="2">
+        <v>28119</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18">
+      <c r="A258" s="3">
+        <v>41394</v>
+      </c>
+      <c r="B258" s="2">
+        <v>158954</v>
+      </c>
+      <c r="C258" s="2">
+        <v>33399</v>
+      </c>
+      <c r="D258" s="2">
+        <v>41277</v>
+      </c>
+      <c r="E258" s="2">
+        <v>320</v>
+      </c>
+      <c r="F258" s="2">
+        <v>1929</v>
+      </c>
+      <c r="G258" s="2">
+        <v>40933</v>
+      </c>
+      <c r="H258" s="2">
+        <v>1086</v>
+      </c>
+      <c r="I258" s="2">
+        <v>90817</v>
+      </c>
+      <c r="J258" s="2">
+        <v>46517</v>
+      </c>
+      <c r="K258" s="2">
+        <v>2098</v>
+      </c>
+      <c r="L258" s="2">
+        <v>2589</v>
+      </c>
+      <c r="M258" s="2">
+        <v>3456</v>
+      </c>
+      <c r="N258" s="2">
+        <v>0</v>
+      </c>
+      <c r="O258" s="2">
+        <v>132238</v>
+      </c>
+      <c r="P258" s="2">
+        <v>135687</v>
+      </c>
+      <c r="Q258" s="2">
+        <v>26716</v>
+      </c>
+      <c r="R258" s="2">
+        <v>23267</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
+      <c r="A259" s="3">
+        <v>41387</v>
+      </c>
+      <c r="B259" s="2">
+        <v>161752</v>
+      </c>
+      <c r="C259" s="2">
+        <v>34214</v>
+      </c>
+      <c r="D259" s="2">
+        <v>38962</v>
+      </c>
+      <c r="E259" s="2">
+        <v>886</v>
+      </c>
+      <c r="F259" s="2">
+        <v>1285</v>
+      </c>
+      <c r="G259" s="2">
+        <v>40436</v>
+      </c>
+      <c r="H259" s="2">
+        <v>1612</v>
+      </c>
+      <c r="I259" s="2">
+        <v>93245</v>
+      </c>
+      <c r="J259" s="2">
+        <v>46321</v>
+      </c>
+      <c r="K259" s="2">
+        <v>1768</v>
+      </c>
+      <c r="L259" s="2">
+        <v>3036</v>
+      </c>
+      <c r="M259" s="2">
+        <v>4514</v>
+      </c>
+      <c r="N259" s="2">
+        <v>0</v>
+      </c>
+      <c r="O259" s="2">
+        <v>136046</v>
+      </c>
+      <c r="P259" s="2">
+        <v>134499</v>
+      </c>
+      <c r="Q259" s="2">
+        <v>25706</v>
+      </c>
+      <c r="R259" s="2">
+        <v>27253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
+      <c r="A260" s="3">
+        <v>41380</v>
+      </c>
+      <c r="B260" s="2">
+        <v>169445</v>
+      </c>
+      <c r="C260" s="2">
+        <v>24415</v>
+      </c>
+      <c r="D260" s="2">
+        <v>58636</v>
+      </c>
+      <c r="E260" s="2">
+        <v>1143</v>
+      </c>
+      <c r="F260" s="2">
+        <v>2482</v>
+      </c>
+      <c r="G260" s="2">
+        <v>39999</v>
+      </c>
+      <c r="H260" s="2">
+        <v>1138</v>
+      </c>
+      <c r="I260" s="2">
+        <v>107012</v>
+      </c>
+      <c r="J260" s="2">
+        <v>41637</v>
+      </c>
+      <c r="K260" s="2">
+        <v>750</v>
+      </c>
+      <c r="L260" s="2">
+        <v>925</v>
+      </c>
+      <c r="M260" s="2">
+        <v>3339</v>
+      </c>
+      <c r="N260" s="2">
+        <v>181</v>
+      </c>
+      <c r="O260" s="2">
+        <v>138046</v>
+      </c>
+      <c r="P260" s="2">
+        <v>146823</v>
+      </c>
+      <c r="Q260" s="2">
+        <v>31399</v>
+      </c>
+      <c r="R260" s="2">
+        <v>22622</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18">
+      <c r="A261" s="3">
+        <v>41373</v>
+      </c>
+      <c r="B261" s="2">
+        <v>186911</v>
+      </c>
+      <c r="C261" s="2">
+        <v>17433</v>
+      </c>
+      <c r="D261" s="2">
+        <v>79697</v>
+      </c>
+      <c r="E261" s="2">
+        <v>910</v>
+      </c>
+      <c r="F261" s="2">
+        <v>2535</v>
+      </c>
+      <c r="G261" s="2">
+        <v>39381</v>
+      </c>
+      <c r="H261" s="2">
+        <v>878</v>
+      </c>
+      <c r="I261" s="2">
+        <v>124576</v>
+      </c>
+      <c r="J261" s="2">
+        <v>38390</v>
+      </c>
+      <c r="K261" s="2">
+        <v>737</v>
+      </c>
+      <c r="L261" s="2">
+        <v>662</v>
+      </c>
+      <c r="M261" s="2">
+        <v>2891</v>
+      </c>
+      <c r="N261" s="2">
+        <v>256</v>
+      </c>
+      <c r="O261" s="2">
+        <v>147987</v>
+      </c>
+      <c r="P261" s="2">
+        <v>163140</v>
+      </c>
+      <c r="Q261" s="2">
+        <v>38924</v>
+      </c>
+      <c r="R261" s="2">
+        <v>23771</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18">
+      <c r="A262" s="3">
+        <v>41366</v>
+      </c>
+      <c r="B262" s="2">
+        <v>197264</v>
+      </c>
+      <c r="C262" s="2">
+        <v>15831</v>
+      </c>
+      <c r="D262" s="2">
+        <v>78517</v>
+      </c>
+      <c r="E262" s="2">
+        <v>246</v>
+      </c>
+      <c r="F262" s="2">
+        <v>3355</v>
+      </c>
+      <c r="G262" s="2">
+        <v>39764</v>
+      </c>
+      <c r="H262" s="2">
+        <v>878</v>
+      </c>
+      <c r="I262" s="2">
+        <v>139223</v>
+      </c>
+      <c r="J262" s="2">
+        <v>50686</v>
+      </c>
+      <c r="K262" s="2">
+        <v>789</v>
+      </c>
+      <c r="L262" s="2">
+        <v>492</v>
+      </c>
+      <c r="M262" s="2">
+        <v>2842</v>
+      </c>
+      <c r="N262" s="2">
+        <v>256</v>
+      </c>
+      <c r="O262" s="2">
+        <v>161070</v>
+      </c>
+      <c r="P262" s="2">
+        <v>173978</v>
+      </c>
+      <c r="Q262" s="2">
+        <v>36194</v>
+      </c>
+      <c r="R262" s="2">
+        <v>23286</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18">
+      <c r="A263" s="3">
+        <v>41359</v>
+      </c>
+      <c r="B263" s="2">
+        <v>202150</v>
+      </c>
+      <c r="C263" s="2">
+        <v>15838</v>
+      </c>
+      <c r="D263" s="2">
+        <v>81605</v>
+      </c>
+      <c r="E263" s="2">
+        <v>213</v>
+      </c>
+      <c r="F263" s="2">
+        <v>3337</v>
+      </c>
+      <c r="G263" s="2">
+        <v>40237</v>
+      </c>
+      <c r="H263" s="2">
+        <v>890</v>
+      </c>
+      <c r="I263" s="2">
+        <v>145900</v>
+      </c>
+      <c r="J263" s="2">
+        <v>53821</v>
+      </c>
+      <c r="K263" s="2">
+        <v>814</v>
+      </c>
+      <c r="L263" s="2">
+        <v>492</v>
+      </c>
+      <c r="M263" s="2">
+        <v>2148</v>
+      </c>
+      <c r="N263" s="2">
+        <v>256</v>
+      </c>
+      <c r="O263" s="2">
+        <v>167740</v>
+      </c>
+      <c r="P263" s="2">
+        <v>179984</v>
+      </c>
+      <c r="Q263" s="2">
+        <v>34410</v>
+      </c>
+      <c r="R263" s="2">
+        <v>22166</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
+      <c r="A264" s="3">
+        <v>41352</v>
+      </c>
+      <c r="B264" s="2">
+        <v>158807</v>
+      </c>
+      <c r="C264" s="2">
+        <v>16405</v>
+      </c>
+      <c r="D264" s="2">
+        <v>46091</v>
+      </c>
+      <c r="E264" s="2">
+        <v>0</v>
+      </c>
+      <c r="F264" s="2">
+        <v>1232</v>
+      </c>
+      <c r="G264" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H264" s="2">
+        <v>890</v>
+      </c>
+      <c r="I264" s="2">
+        <v>105678</v>
+      </c>
+      <c r="J264" s="2">
+        <v>45006</v>
+      </c>
+      <c r="K264" s="2">
+        <v>560</v>
+      </c>
+      <c r="L264" s="2">
+        <v>2366</v>
+      </c>
+      <c r="M264" s="2">
+        <v>2992</v>
+      </c>
+      <c r="N264" s="2">
+        <v>0</v>
+      </c>
+      <c r="O264" s="2">
+        <v>127131</v>
+      </c>
+      <c r="P264" s="2">
+        <v>137086</v>
+      </c>
+      <c r="Q264" s="2">
+        <v>31676</v>
+      </c>
+      <c r="R264" s="2">
+        <v>21721</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18">
+      <c r="A265" s="3">
+        <v>41345</v>
+      </c>
+      <c r="B265" s="2">
+        <v>183095</v>
+      </c>
+      <c r="C265" s="2">
+        <v>34175</v>
+      </c>
+      <c r="D265" s="2">
+        <v>28097</v>
+      </c>
+      <c r="E265" s="2">
+        <v>26924</v>
+      </c>
+      <c r="F265" s="2">
+        <v>720</v>
+      </c>
+      <c r="G265" s="2">
+        <v>43197</v>
+      </c>
+      <c r="H265" s="2">
+        <v>1285</v>
+      </c>
+      <c r="I265" s="2">
+        <v>86894</v>
+      </c>
+      <c r="J265" s="2">
+        <v>48509</v>
+      </c>
+      <c r="K265" s="2">
+        <v>1807</v>
+      </c>
+      <c r="L265" s="2">
+        <v>3684</v>
+      </c>
+      <c r="M265" s="2">
+        <v>5715</v>
+      </c>
+      <c r="N265" s="2">
+        <v>687</v>
+      </c>
+      <c r="O265" s="2">
+        <v>156176</v>
+      </c>
+      <c r="P265" s="2">
+        <v>156221</v>
+      </c>
+      <c r="Q265" s="2">
+        <v>26919</v>
+      </c>
+      <c r="R265" s="2">
+        <v>26874</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
+      <c r="A266" s="3">
+        <v>41338</v>
+      </c>
+      <c r="B266" s="2">
+        <v>157595</v>
+      </c>
+      <c r="C266" s="2">
+        <v>51913</v>
+      </c>
+      <c r="D266" s="2">
+        <v>26571</v>
+      </c>
+      <c r="E266" s="2">
+        <v>2369</v>
+      </c>
+      <c r="F266" s="2">
+        <v>354</v>
+      </c>
+      <c r="G266" s="2">
+        <v>43436</v>
+      </c>
+      <c r="H266" s="2">
+        <v>1258</v>
+      </c>
+      <c r="I266" s="2">
+        <v>71134</v>
+      </c>
+      <c r="J266" s="2">
+        <v>49062</v>
+      </c>
+      <c r="K266" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L266" s="2">
+        <v>5942</v>
+      </c>
+      <c r="M266" s="2">
+        <v>5299</v>
+      </c>
+      <c r="N266" s="2">
+        <v>7</v>
+      </c>
+      <c r="O266" s="2">
+        <v>134977</v>
+      </c>
+      <c r="P266" s="2">
+        <v>130002</v>
+      </c>
+      <c r="Q266" s="2">
+        <v>22618</v>
+      </c>
+      <c r="R266" s="2">
+        <v>27593</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18">
+      <c r="A267" s="3">
+        <v>41331</v>
+      </c>
+      <c r="B267" s="2">
+        <v>157363</v>
+      </c>
+      <c r="C267" s="2">
+        <v>43214</v>
+      </c>
+      <c r="D267" s="2">
+        <v>29715</v>
+      </c>
+      <c r="E267" s="2">
+        <v>194</v>
+      </c>
+      <c r="F267" s="2">
+        <v>1657</v>
+      </c>
+      <c r="G267" s="2">
+        <v>44407</v>
+      </c>
+      <c r="H267" s="2">
+        <v>1911</v>
+      </c>
+      <c r="I267" s="2">
+        <v>81887</v>
+      </c>
+      <c r="J267" s="2">
+        <v>46115</v>
+      </c>
+      <c r="K267" s="2">
+        <v>1235</v>
+      </c>
+      <c r="L267" s="2">
+        <v>6260</v>
+      </c>
+      <c r="M267" s="2">
+        <v>6264</v>
+      </c>
+      <c r="N267" s="2">
+        <v>0</v>
+      </c>
+      <c r="O267" s="2">
+        <v>136358</v>
+      </c>
+      <c r="P267" s="2">
+        <v>129841</v>
+      </c>
+      <c r="Q267" s="2">
+        <v>21005</v>
+      </c>
+      <c r="R267" s="2">
+        <v>27522</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18">
+      <c r="A268" s="3">
+        <v>41324</v>
+      </c>
+      <c r="B268" s="2">
+        <v>159346</v>
+      </c>
+      <c r="C268" s="2">
+        <v>34256</v>
+      </c>
+      <c r="D268" s="2">
+        <v>44145</v>
+      </c>
+      <c r="E268" s="2">
+        <v>1215</v>
+      </c>
+      <c r="F268" s="2">
+        <v>2145</v>
+      </c>
+      <c r="G268" s="2">
+        <v>43526</v>
+      </c>
+      <c r="H268" s="2">
+        <v>1487</v>
+      </c>
+      <c r="I268" s="2">
+        <v>86651</v>
+      </c>
+      <c r="J268" s="2">
+        <v>39926</v>
+      </c>
+      <c r="K268" s="2">
+        <v>489</v>
+      </c>
+      <c r="L268" s="2">
+        <v>4506</v>
+      </c>
+      <c r="M268" s="2">
+        <v>3457</v>
+      </c>
+      <c r="N268" s="2">
+        <v>547</v>
+      </c>
+      <c r="O268" s="2">
+        <v>131296</v>
+      </c>
+      <c r="P268" s="2">
+        <v>134792</v>
+      </c>
+      <c r="Q268" s="2">
+        <v>28050</v>
+      </c>
+      <c r="R268" s="2">
+        <v>24554</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18">
+      <c r="A269" s="3">
+        <v>41317</v>
+      </c>
+      <c r="B269" s="2">
+        <v>163745</v>
+      </c>
+      <c r="C269" s="2">
+        <v>29324</v>
+      </c>
+      <c r="D269" s="2">
+        <v>49735</v>
+      </c>
+      <c r="E269" s="2">
+        <v>584</v>
+      </c>
+      <c r="F269" s="2">
+        <v>2116</v>
+      </c>
+      <c r="G269" s="2">
+        <v>43707</v>
+      </c>
+      <c r="H269" s="2">
+        <v>1610</v>
+      </c>
+      <c r="I269" s="2">
+        <v>98957</v>
+      </c>
+      <c r="J269" s="2">
+        <v>40262</v>
+      </c>
+      <c r="K269" s="2">
+        <v>433</v>
+      </c>
+      <c r="L269" s="2">
+        <v>3397</v>
+      </c>
+      <c r="M269" s="2">
+        <v>4125</v>
+      </c>
+      <c r="N269" s="2">
+        <v>0</v>
+      </c>
+      <c r="O269" s="2">
+        <v>136421</v>
+      </c>
+      <c r="P269" s="2">
+        <v>140456</v>
+      </c>
+      <c r="Q269" s="2">
+        <v>27324</v>
+      </c>
+      <c r="R269" s="2">
+        <v>23289</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18">
+      <c r="A270" s="3">
+        <v>41310</v>
+      </c>
+      <c r="B270" s="2">
+        <v>180781</v>
+      </c>
+      <c r="C270" s="2">
+        <v>16856</v>
+      </c>
+      <c r="D270" s="2">
+        <v>74143</v>
+      </c>
+      <c r="E270" s="2">
+        <v>1460</v>
+      </c>
+      <c r="F270" s="2">
+        <v>2873</v>
+      </c>
+      <c r="G270" s="2">
+        <v>43036</v>
+      </c>
+      <c r="H270" s="2">
+        <v>1779</v>
+      </c>
+      <c r="I270" s="2">
+        <v>118027</v>
+      </c>
+      <c r="J270" s="2">
+        <v>37971</v>
+      </c>
+      <c r="K270" s="2">
+        <v>236</v>
+      </c>
+      <c r="L270" s="2">
+        <v>4687</v>
+      </c>
+      <c r="M270" s="2">
+        <v>3821</v>
+      </c>
+      <c r="N270" s="2">
+        <v>260</v>
+      </c>
+      <c r="O270" s="2">
+        <v>146178</v>
+      </c>
+      <c r="P270" s="2">
+        <v>162706</v>
+      </c>
+      <c r="Q270" s="2">
+        <v>34603</v>
+      </c>
+      <c r="R270" s="2">
+        <v>18075</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18">
+      <c r="A271" s="3">
+        <v>41303</v>
+      </c>
+      <c r="B271" s="2">
+        <v>183507</v>
+      </c>
+      <c r="C271" s="2">
+        <v>16622</v>
+      </c>
+      <c r="D271" s="2">
+        <v>79279</v>
+      </c>
+      <c r="E271" s="2">
+        <v>1517</v>
+      </c>
+      <c r="F271" s="2">
+        <v>2808</v>
+      </c>
+      <c r="G271" s="2">
+        <v>42942</v>
+      </c>
+      <c r="H271" s="2">
+        <v>1687</v>
+      </c>
+      <c r="I271" s="2">
+        <v>121116</v>
+      </c>
+      <c r="J271" s="2">
+        <v>36152</v>
+      </c>
+      <c r="K271" s="2">
+        <v>436</v>
+      </c>
+      <c r="L271" s="2">
+        <v>4275</v>
+      </c>
+      <c r="M271" s="2">
+        <v>3752</v>
+      </c>
+      <c r="N271" s="2">
+        <v>260</v>
+      </c>
+      <c r="O271" s="2">
+        <v>148721</v>
+      </c>
+      <c r="P271" s="2">
+        <v>166025</v>
+      </c>
+      <c r="Q271" s="2">
+        <v>34786</v>
+      </c>
+      <c r="R271" s="2">
+        <v>17482</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18">
+      <c r="A272" s="3">
+        <v>41296</v>
+      </c>
+      <c r="B272" s="2">
+        <v>208776</v>
+      </c>
+      <c r="C272" s="2">
+        <v>14616</v>
+      </c>
+      <c r="D272" s="2">
+        <v>94293</v>
+      </c>
+      <c r="E272" s="2">
+        <v>1072</v>
+      </c>
+      <c r="F272" s="2">
+        <v>3182</v>
+      </c>
+      <c r="G272" s="2">
+        <v>42436</v>
+      </c>
+      <c r="H272" s="2">
+        <v>1403</v>
+      </c>
+      <c r="I272" s="2">
+        <v>140758</v>
+      </c>
+      <c r="J272" s="2">
+        <v>43223</v>
+      </c>
+      <c r="K272" s="2">
+        <v>645</v>
+      </c>
+      <c r="L272" s="2">
+        <v>3749</v>
+      </c>
+      <c r="M272" s="2">
+        <v>5661</v>
+      </c>
+      <c r="N272" s="2">
+        <v>260</v>
+      </c>
+      <c r="O272" s="2">
+        <v>165685</v>
+      </c>
+      <c r="P272" s="2">
+        <v>188993</v>
+      </c>
+      <c r="Q272" s="2">
+        <v>43091</v>
+      </c>
+      <c r="R272" s="2">
+        <v>19783</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
+      <c r="A273" s="3">
+        <v>41289</v>
+      </c>
+      <c r="B273" s="2">
+        <v>203425</v>
+      </c>
+      <c r="C273" s="2">
+        <v>14785</v>
+      </c>
+      <c r="D273" s="2">
+        <v>88908</v>
+      </c>
+      <c r="E273" s="2">
+        <v>772</v>
+      </c>
+      <c r="F273" s="2">
+        <v>3770</v>
+      </c>
+      <c r="G273" s="2">
+        <v>42693</v>
+      </c>
+      <c r="H273" s="2">
+        <v>1403</v>
+      </c>
+      <c r="I273" s="2">
+        <v>133828</v>
+      </c>
+      <c r="J273" s="2">
+        <v>42770</v>
+      </c>
+      <c r="K273" s="2">
+        <v>159</v>
+      </c>
+      <c r="L273" s="2">
+        <v>4127</v>
+      </c>
+      <c r="M273" s="2">
+        <v>7654</v>
+      </c>
+      <c r="N273" s="2">
+        <v>271</v>
+      </c>
+      <c r="O273" s="2">
+        <v>159115</v>
+      </c>
+      <c r="P273" s="2">
+        <v>184630</v>
+      </c>
+      <c r="Q273" s="2">
+        <v>44310</v>
+      </c>
+      <c r="R273" s="2">
+        <v>18795</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18">
+      <c r="A274" s="3">
+        <v>41282</v>
+      </c>
+      <c r="B274" s="2">
+        <v>184083</v>
+      </c>
+      <c r="C274" s="2">
+        <v>14724</v>
+      </c>
+      <c r="D274" s="2">
+        <v>75055</v>
+      </c>
+      <c r="E274" s="2">
+        <v>726</v>
+      </c>
+      <c r="F274" s="2">
+        <v>2911</v>
+      </c>
+      <c r="G274" s="2">
+        <v>43289</v>
+      </c>
+      <c r="H274" s="2">
+        <v>1425</v>
+      </c>
+      <c r="I274" s="2">
+        <v>120831</v>
+      </c>
+      <c r="J274" s="2">
+        <v>37175</v>
+      </c>
+      <c r="K274" s="2">
+        <v>12</v>
+      </c>
+      <c r="L274" s="2">
+        <v>4034</v>
+      </c>
+      <c r="M274" s="2">
+        <v>5683</v>
+      </c>
+      <c r="N274" s="2">
+        <v>260</v>
+      </c>
+      <c r="O274" s="2">
+        <v>144923</v>
+      </c>
+      <c r="P274" s="2">
+        <v>163625</v>
+      </c>
+      <c r="Q274" s="2">
+        <v>39160</v>
+      </c>
+      <c r="R274" s="2">
+        <v>20458</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18">
+      <c r="A275" s="3">
+        <v>41274</v>
+      </c>
+      <c r="B275" s="2">
+        <v>170157</v>
+      </c>
+      <c r="C275" s="2">
+        <v>13537</v>
+      </c>
+      <c r="D275" s="2">
+        <v>66433</v>
+      </c>
+      <c r="E275" s="2">
+        <v>73</v>
+      </c>
+      <c r="F275" s="2">
+        <v>3373</v>
+      </c>
+      <c r="G275" s="2">
+        <v>44168</v>
+      </c>
+      <c r="H275" s="2">
+        <v>1720</v>
+      </c>
+      <c r="I275" s="2">
+        <v>116805</v>
+      </c>
+      <c r="J275" s="2">
+        <v>34670</v>
+      </c>
+      <c r="K275" s="2">
+        <v>404</v>
+      </c>
+      <c r="L275" s="2">
+        <v>1421</v>
+      </c>
+      <c r="M275" s="2">
+        <v>3548</v>
+      </c>
+      <c r="N275" s="2">
+        <v>744</v>
+      </c>
+      <c r="O275" s="2">
+        <v>138077</v>
+      </c>
+      <c r="P275" s="2">
+        <v>151760</v>
+      </c>
+      <c r="Q275" s="2">
+        <v>32080</v>
+      </c>
+      <c r="R275" s="2">
+        <v>18397</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
+      <c r="A276" s="3">
+        <v>41267</v>
+      </c>
+      <c r="B276" s="2">
+        <v>173118</v>
+      </c>
+      <c r="C276" s="2">
+        <v>12874</v>
+      </c>
+      <c r="D276" s="2">
+        <v>67335</v>
+      </c>
+      <c r="E276" s="2">
+        <v>79</v>
+      </c>
+      <c r="F276" s="2">
+        <v>3820</v>
+      </c>
+      <c r="G276" s="2">
+        <v>44217</v>
+      </c>
+      <c r="H276" s="2">
+        <v>1340</v>
+      </c>
+      <c r="I276" s="2">
+        <v>115463</v>
+      </c>
+      <c r="J276" s="2">
+        <v>36486</v>
+      </c>
+      <c r="K276" s="2">
+        <v>402</v>
+      </c>
+      <c r="L276" s="2">
+        <v>2082</v>
+      </c>
+      <c r="M276" s="2">
+        <v>5202</v>
+      </c>
+      <c r="N276" s="2">
+        <v>360</v>
+      </c>
+      <c r="O276" s="2">
+        <v>136420</v>
+      </c>
+      <c r="P276" s="2">
+        <v>155421</v>
+      </c>
+      <c r="Q276" s="2">
+        <v>36698</v>
+      </c>
+      <c r="R276" s="2">
+        <v>17697</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
+      <c r="A277" s="3">
+        <v>41261</v>
+      </c>
+      <c r="B277" s="2">
+        <v>204312</v>
+      </c>
+      <c r="C277" s="2">
+        <v>11164</v>
+      </c>
+      <c r="D277" s="2">
+        <v>83334</v>
+      </c>
+      <c r="E277" s="2">
+        <v>35</v>
+      </c>
+      <c r="F277" s="2">
+        <v>4412</v>
+      </c>
+      <c r="G277" s="2">
+        <v>44414</v>
+      </c>
+      <c r="H277" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I277" s="2">
+        <v>143599</v>
+      </c>
+      <c r="J277" s="2">
+        <v>43891</v>
+      </c>
+      <c r="K277" s="2">
+        <v>436</v>
+      </c>
+      <c r="L277" s="2">
+        <v>1413</v>
+      </c>
+      <c r="M277" s="2">
+        <v>10152</v>
+      </c>
+      <c r="N277" s="2">
+        <v>1135</v>
+      </c>
+      <c r="O277" s="2">
+        <v>163294</v>
+      </c>
+      <c r="P277" s="2">
+        <v>184497</v>
+      </c>
+      <c r="Q277" s="2">
+        <v>41018</v>
+      </c>
+      <c r="R277" s="2">
+        <v>19815</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18">
+      <c r="A278" s="3">
+        <v>41254</v>
+      </c>
+      <c r="B278" s="2">
+        <v>229394</v>
+      </c>
+      <c r="C278" s="2">
+        <v>20817</v>
+      </c>
+      <c r="D278" s="2">
+        <v>68616</v>
+      </c>
+      <c r="E278" s="2">
+        <v>11664</v>
+      </c>
+      <c r="F278" s="2">
+        <v>4375</v>
+      </c>
+      <c r="G278" s="2">
+        <v>43713</v>
+      </c>
+      <c r="H278" s="2">
+        <v>1865</v>
+      </c>
+      <c r="I278" s="2">
+        <v>136641</v>
+      </c>
+      <c r="J278" s="2">
+        <v>58324</v>
+      </c>
+      <c r="K278" s="2">
+        <v>12258</v>
+      </c>
+      <c r="L278" s="2">
+        <v>1845</v>
+      </c>
+      <c r="M278" s="2">
+        <v>7859</v>
+      </c>
+      <c r="N278" s="2">
+        <v>1375</v>
+      </c>
+      <c r="O278" s="2">
+        <v>190840</v>
+      </c>
+      <c r="P278" s="2">
+        <v>205674</v>
+      </c>
+      <c r="Q278" s="2">
+        <v>38554</v>
+      </c>
+      <c r="R278" s="2">
+        <v>23720</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
+      <c r="A279" s="3">
+        <v>41247</v>
+      </c>
+      <c r="B279" s="2">
+        <v>212072</v>
+      </c>
+      <c r="C279" s="2">
+        <v>20722</v>
+      </c>
+      <c r="D279" s="2">
+        <v>59065</v>
+      </c>
+      <c r="E279" s="2">
+        <v>10810</v>
+      </c>
+      <c r="F279" s="2">
+        <v>4364</v>
+      </c>
+      <c r="G279" s="2">
+        <v>43367</v>
+      </c>
+      <c r="H279" s="2">
+        <v>1277</v>
+      </c>
+      <c r="I279" s="2">
+        <v>132421</v>
+      </c>
+      <c r="J279" s="2">
+        <v>67119</v>
+      </c>
+      <c r="K279" s="2">
+        <v>448</v>
+      </c>
+      <c r="L279" s="2">
+        <v>2824</v>
+      </c>
+      <c r="M279" s="2">
+        <v>4425</v>
+      </c>
+      <c r="N279" s="2">
+        <v>1838</v>
+      </c>
+      <c r="O279" s="2">
+        <v>174704</v>
+      </c>
+      <c r="P279" s="2">
+        <v>188349</v>
+      </c>
+      <c r="Q279" s="2">
+        <v>37368</v>
+      </c>
+      <c r="R279" s="2">
+        <v>23723</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18">
+      <c r="A280" s="3">
+        <v>41240</v>
+      </c>
+      <c r="B280" s="2">
+        <v>196520</v>
+      </c>
+      <c r="C280" s="2">
+        <v>28065</v>
+      </c>
+      <c r="D280" s="2">
+        <v>54698</v>
+      </c>
+      <c r="E280" s="2">
+        <v>114</v>
+      </c>
+      <c r="F280" s="2">
+        <v>4480</v>
+      </c>
+      <c r="G280" s="2">
+        <v>44175</v>
+      </c>
+      <c r="H280" s="2">
+        <v>1073</v>
+      </c>
+      <c r="I280" s="2">
+        <v>119338</v>
+      </c>
+      <c r="J280" s="2">
+        <v>66816</v>
+      </c>
+      <c r="K280" s="2">
+        <v>918</v>
+      </c>
+      <c r="L280" s="2">
+        <v>3366</v>
+      </c>
+      <c r="M280" s="2">
+        <v>3934</v>
+      </c>
+      <c r="N280" s="2">
+        <v>1092</v>
+      </c>
+      <c r="O280" s="2">
+        <v>158446</v>
+      </c>
+      <c r="P280" s="2">
+        <v>172820</v>
+      </c>
+      <c r="Q280" s="2">
+        <v>38074</v>
+      </c>
+      <c r="R280" s="2">
+        <v>23700</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18">
+      <c r="A281" s="3">
+        <v>41233</v>
+      </c>
+      <c r="B281" s="2">
+        <v>180364</v>
+      </c>
+      <c r="C281" s="2">
+        <v>34824</v>
+      </c>
+      <c r="D281" s="2">
+        <v>48396</v>
+      </c>
+      <c r="E281" s="2">
+        <v>65</v>
+      </c>
+      <c r="F281" s="2">
+        <v>3106</v>
+      </c>
+      <c r="G281" s="2">
+        <v>43621</v>
+      </c>
+      <c r="H281" s="2">
+        <v>1059</v>
+      </c>
+      <c r="I281" s="2">
+        <v>101482</v>
+      </c>
+      <c r="J281" s="2">
+        <v>59754</v>
+      </c>
+      <c r="K281" s="2">
+        <v>795</v>
+      </c>
+      <c r="L281" s="2">
+        <v>4612</v>
+      </c>
+      <c r="M281" s="2">
+        <v>3111</v>
+      </c>
+      <c r="N281" s="2">
+        <v>1339</v>
+      </c>
+      <c r="O281" s="2">
+        <v>147282</v>
+      </c>
+      <c r="P281" s="2">
+        <v>158140</v>
+      </c>
+      <c r="Q281" s="2">
+        <v>33082</v>
+      </c>
+      <c r="R281" s="2">
+        <v>22224</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18">
+      <c r="A282" s="3">
+        <v>41226</v>
+      </c>
+      <c r="B282" s="2">
+        <v>183439</v>
+      </c>
+      <c r="C282" s="2">
+        <v>35226</v>
+      </c>
+      <c r="D282" s="2">
+        <v>51798</v>
+      </c>
+      <c r="E282" s="2">
+        <v>77</v>
+      </c>
+      <c r="F282" s="2">
+        <v>3177</v>
+      </c>
+      <c r="G282" s="2">
+        <v>43318</v>
+      </c>
+      <c r="H282" s="2">
+        <v>1066</v>
+      </c>
+      <c r="I282" s="2">
+        <v>102457</v>
+      </c>
+      <c r="J282" s="2">
+        <v>57604</v>
+      </c>
+      <c r="K282" s="2">
+        <v>736</v>
+      </c>
+      <c r="L282" s="2">
+        <v>5572</v>
+      </c>
+      <c r="M282" s="2">
+        <v>3560</v>
+      </c>
+      <c r="N282" s="2">
+        <v>530</v>
+      </c>
+      <c r="O282" s="2">
+        <v>148841</v>
+      </c>
+      <c r="P282" s="2">
+        <v>158689</v>
+      </c>
+      <c r="Q282" s="2">
+        <v>34598</v>
+      </c>
+      <c r="R282" s="2">
+        <v>24750</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
+      <c r="A283" s="3">
+        <v>41219</v>
+      </c>
+      <c r="B283" s="2">
+        <v>178421</v>
+      </c>
+      <c r="C283" s="2">
+        <v>34929</v>
+      </c>
+      <c r="D283" s="2">
+        <v>52864</v>
+      </c>
+      <c r="E283" s="2">
+        <v>71</v>
+      </c>
+      <c r="F283" s="2">
+        <v>3728</v>
+      </c>
+      <c r="G283" s="2">
+        <v>43453</v>
+      </c>
+      <c r="H283" s="2">
+        <v>1066</v>
+      </c>
+      <c r="I283" s="2">
+        <v>95548</v>
+      </c>
+      <c r="J283" s="2">
+        <v>55835</v>
+      </c>
+      <c r="K283" s="2">
+        <v>651</v>
+      </c>
+      <c r="L283" s="2">
+        <v>4767</v>
+      </c>
+      <c r="M283" s="2">
+        <v>2616</v>
+      </c>
+      <c r="N283" s="2">
+        <v>530</v>
+      </c>
+      <c r="O283" s="2">
+        <v>141290</v>
+      </c>
+      <c r="P283" s="2">
+        <v>157086</v>
+      </c>
+      <c r="Q283" s="2">
+        <v>37131</v>
+      </c>
+      <c r="R283" s="2">
+        <v>21335</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
+      <c r="A284" s="3">
+        <v>41212</v>
+      </c>
+      <c r="B284" s="2">
+        <v>174957</v>
+      </c>
+      <c r="C284" s="2">
+        <v>43651</v>
+      </c>
+      <c r="D284" s="2">
+        <v>46548</v>
+      </c>
+      <c r="E284" s="2">
+        <v>93</v>
+      </c>
+      <c r="F284" s="2">
+        <v>3294</v>
+      </c>
+      <c r="G284" s="2">
+        <v>43460</v>
+      </c>
+      <c r="H284" s="2">
+        <v>1061</v>
+      </c>
+      <c r="I284" s="2">
+        <v>88207</v>
+      </c>
+      <c r="J284" s="2">
+        <v>57737</v>
+      </c>
+      <c r="K284" s="2">
+        <v>829</v>
+      </c>
+      <c r="L284" s="2">
+        <v>4736</v>
+      </c>
+      <c r="M284" s="2">
+        <v>2496</v>
+      </c>
+      <c r="N284" s="2">
+        <v>558</v>
+      </c>
+      <c r="O284" s="2">
+        <v>142429</v>
+      </c>
+      <c r="P284" s="2">
+        <v>152782</v>
+      </c>
+      <c r="Q284" s="2">
+        <v>32528</v>
+      </c>
+      <c r="R284" s="2">
+        <v>22175</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18">
+      <c r="A285" s="3">
+        <v>41205</v>
+      </c>
+      <c r="B285" s="2">
+        <v>168663</v>
+      </c>
+      <c r="C285" s="2">
+        <v>50480</v>
+      </c>
+      <c r="D285" s="2">
+        <v>40898</v>
+      </c>
+      <c r="E285" s="2">
+        <v>195</v>
+      </c>
+      <c r="F285" s="2">
+        <v>2693</v>
+      </c>
+      <c r="G285" s="2">
+        <v>43615</v>
+      </c>
+      <c r="H285" s="2">
+        <v>1222</v>
+      </c>
+      <c r="I285" s="2">
+        <v>79995</v>
+      </c>
+      <c r="J285" s="2">
+        <v>55509</v>
+      </c>
+      <c r="K285" s="2">
+        <v>826</v>
+      </c>
+      <c r="L285" s="2">
+        <v>5197</v>
+      </c>
+      <c r="M285" s="2">
+        <v>2282</v>
+      </c>
+      <c r="N285" s="2">
+        <v>1410</v>
+      </c>
+      <c r="O285" s="2">
+        <v>142018</v>
+      </c>
+      <c r="P285" s="2">
+        <v>145957</v>
+      </c>
+      <c r="Q285" s="2">
+        <v>26645</v>
+      </c>
+      <c r="R285" s="2">
+        <v>22706</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18">
+      <c r="A286" s="3">
+        <v>41198</v>
+      </c>
+      <c r="B286" s="2">
+        <v>162167</v>
+      </c>
+      <c r="C286" s="2">
+        <v>49705</v>
+      </c>
+      <c r="D286" s="2">
+        <v>35179</v>
+      </c>
+      <c r="E286" s="2">
+        <v>35</v>
+      </c>
+      <c r="F286" s="2">
+        <v>2764</v>
+      </c>
+      <c r="G286" s="2">
+        <v>43219</v>
+      </c>
+      <c r="H286" s="2">
+        <v>1105</v>
+      </c>
+      <c r="I286" s="2">
+        <v>77809</v>
+      </c>
+      <c r="J286" s="2">
+        <v>55550</v>
+      </c>
+      <c r="K286" s="2">
+        <v>484</v>
+      </c>
+      <c r="L286" s="2">
+        <v>2307</v>
+      </c>
+      <c r="M286" s="2">
+        <v>2883</v>
+      </c>
+      <c r="N286" s="2">
+        <v>558</v>
+      </c>
+      <c r="O286" s="2">
+        <v>134767</v>
+      </c>
+      <c r="P286" s="2">
+        <v>139013</v>
+      </c>
+      <c r="Q286" s="2">
+        <v>27400</v>
+      </c>
+      <c r="R286" s="2">
+        <v>23154</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18">
+      <c r="A287" s="3">
+        <v>41191</v>
+      </c>
+      <c r="B287" s="2">
+        <v>162802</v>
+      </c>
+      <c r="C287" s="2">
+        <v>49383</v>
+      </c>
+      <c r="D287" s="2">
+        <v>35094</v>
+      </c>
+      <c r="E287" s="2">
+        <v>25</v>
+      </c>
+      <c r="F287" s="2">
+        <v>2772</v>
+      </c>
+      <c r="G287" s="2">
+        <v>43532</v>
+      </c>
+      <c r="H287" s="2">
+        <v>1141</v>
+      </c>
+      <c r="I287" s="2">
+        <v>78854</v>
+      </c>
+      <c r="J287" s="2">
+        <v>54595</v>
+      </c>
+      <c r="K287" s="2">
+        <v>640</v>
+      </c>
+      <c r="L287" s="2">
+        <v>512</v>
+      </c>
+      <c r="M287" s="2">
+        <v>2505</v>
+      </c>
+      <c r="N287" s="2">
+        <v>922</v>
+      </c>
+      <c r="O287" s="2">
+        <v>134249</v>
+      </c>
+      <c r="P287" s="2">
+        <v>138454</v>
+      </c>
+      <c r="Q287" s="2">
+        <v>28553</v>
+      </c>
+      <c r="R287" s="2">
+        <v>24348</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18">
+      <c r="A288" s="3">
+        <v>41184</v>
+      </c>
+      <c r="B288" s="2">
+        <v>162699</v>
+      </c>
+      <c r="C288" s="2">
+        <v>26886</v>
+      </c>
+      <c r="D288" s="2">
+        <v>42578</v>
+      </c>
+      <c r="E288" s="2">
+        <v>75</v>
+      </c>
+      <c r="F288" s="2">
+        <v>3167</v>
+      </c>
+      <c r="G288" s="2">
+        <v>42525</v>
+      </c>
+      <c r="H288" s="2">
+        <v>1236</v>
+      </c>
+      <c r="I288" s="2">
+        <v>98108</v>
+      </c>
+      <c r="J288" s="2">
+        <v>52005</v>
+      </c>
+      <c r="K288" s="2">
+        <v>541</v>
+      </c>
+      <c r="L288" s="2">
+        <v>1076</v>
+      </c>
+      <c r="M288" s="2">
+        <v>3582</v>
+      </c>
+      <c r="N288" s="2">
+        <v>127</v>
+      </c>
+      <c r="O288" s="2">
+        <v>131216</v>
+      </c>
+      <c r="P288" s="2">
+        <v>142669</v>
+      </c>
+      <c r="Q288" s="2">
+        <v>31483</v>
+      </c>
+      <c r="R288" s="2">
+        <v>20030</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18">
+      <c r="A289" s="3">
+        <v>41177</v>
+      </c>
+      <c r="B289" s="2">
+        <v>178886</v>
+      </c>
+      <c r="C289" s="2">
+        <v>18198</v>
+      </c>
+      <c r="D289" s="2">
+        <v>58300</v>
+      </c>
+      <c r="E289" s="2">
+        <v>53</v>
+      </c>
+      <c r="F289" s="2">
+        <v>3065</v>
+      </c>
+      <c r="G289" s="2">
+        <v>42549</v>
+      </c>
+      <c r="H289" s="2">
+        <v>1065</v>
+      </c>
+      <c r="I289" s="2">
+        <v>119230</v>
+      </c>
+      <c r="J289" s="2">
+        <v>50185</v>
+      </c>
+      <c r="K289" s="2">
+        <v>176</v>
+      </c>
+      <c r="L289" s="2">
+        <v>1229</v>
+      </c>
+      <c r="M289" s="2">
+        <v>3710</v>
+      </c>
+      <c r="N289" s="2">
+        <v>865</v>
+      </c>
+      <c r="O289" s="2">
+        <v>143881</v>
+      </c>
+      <c r="P289" s="2">
+        <v>156903</v>
+      </c>
+      <c r="Q289" s="2">
+        <v>35005</v>
+      </c>
+      <c r="R289" s="2">
+        <v>21983</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
+      <c r="A290" s="3">
+        <v>41170</v>
+      </c>
+      <c r="B290" s="2">
+        <v>174458</v>
+      </c>
+      <c r="C290" s="2">
+        <v>18203</v>
+      </c>
+      <c r="D290" s="2">
+        <v>52570</v>
+      </c>
+      <c r="E290" s="2">
+        <v>53</v>
+      </c>
+      <c r="F290" s="2">
+        <v>3670</v>
+      </c>
+      <c r="G290" s="2">
+        <v>43622</v>
+      </c>
+      <c r="H290" s="2">
+        <v>1065</v>
+      </c>
+      <c r="I290" s="2">
+        <v>117199</v>
+      </c>
+      <c r="J290" s="2">
+        <v>51806</v>
+      </c>
+      <c r="K290" s="2">
+        <v>24</v>
+      </c>
+      <c r="L290" s="2">
+        <v>987</v>
+      </c>
+      <c r="M290" s="2">
+        <v>4065</v>
+      </c>
+      <c r="N290" s="2">
+        <v>763</v>
+      </c>
+      <c r="O290" s="2">
+        <v>141964</v>
+      </c>
+      <c r="P290" s="2">
+        <v>153968</v>
+      </c>
+      <c r="Q290" s="2">
+        <v>32494</v>
+      </c>
+      <c r="R290" s="2">
+        <v>20490</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18">
+      <c r="A291" s="3">
+        <v>41163</v>
+      </c>
+      <c r="B291" s="2">
+        <v>218910</v>
+      </c>
+      <c r="C291" s="2">
+        <v>21547</v>
+      </c>
+      <c r="D291" s="2">
+        <v>65103</v>
+      </c>
+      <c r="E291" s="2">
+        <v>36984</v>
+      </c>
+      <c r="F291" s="2">
+        <v>3477</v>
+      </c>
+      <c r="G291" s="2">
+        <v>44329</v>
+      </c>
+      <c r="H291" s="2">
+        <v>1611</v>
+      </c>
+      <c r="I291" s="2">
+        <v>117027</v>
+      </c>
+      <c r="J291" s="2">
+        <v>34974</v>
+      </c>
+      <c r="K291" s="2">
+        <v>8098</v>
+      </c>
+      <c r="L291" s="2">
+        <v>490</v>
+      </c>
+      <c r="M291" s="2">
+        <v>4645</v>
+      </c>
+      <c r="N291" s="2">
+        <v>0</v>
+      </c>
+      <c r="O291" s="2">
+        <v>189234</v>
+      </c>
+      <c r="P291" s="2">
+        <v>195744</v>
+      </c>
+      <c r="Q291" s="2">
+        <v>29676</v>
+      </c>
+      <c r="R291" s="2">
+        <v>23166</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18">
+      <c r="A292" s="3">
+        <v>41156</v>
+      </c>
+      <c r="B292" s="2">
+        <v>189241</v>
+      </c>
+      <c r="C292" s="2">
+        <v>28476</v>
+      </c>
+      <c r="D292" s="2">
+        <v>68660</v>
+      </c>
+      <c r="E292" s="2">
+        <v>3561</v>
+      </c>
+      <c r="F292" s="2">
+        <v>3656</v>
+      </c>
+      <c r="G292" s="2">
+        <v>44192</v>
+      </c>
+      <c r="H292" s="2">
+        <v>1300</v>
+      </c>
+      <c r="I292" s="2">
+        <v>121081</v>
+      </c>
+      <c r="J292" s="2">
+        <v>44085</v>
+      </c>
+      <c r="K292" s="2">
+        <v>320</v>
+      </c>
+      <c r="L292" s="2">
+        <v>2109</v>
+      </c>
+      <c r="M292" s="2">
+        <v>4392</v>
+      </c>
+      <c r="N292" s="2">
+        <v>98</v>
+      </c>
+      <c r="O292" s="2">
+        <v>160601</v>
+      </c>
+      <c r="P292" s="2">
+        <v>166608</v>
+      </c>
+      <c r="Q292" s="2">
+        <v>28640</v>
+      </c>
+      <c r="R292" s="2">
+        <v>22633</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
+      <c r="A293" s="3">
+        <v>41149</v>
+      </c>
+      <c r="B293" s="2">
+        <v>190631</v>
+      </c>
+      <c r="C293" s="2">
+        <v>22297</v>
+      </c>
+      <c r="D293" s="2">
+        <v>79482</v>
+      </c>
+      <c r="E293" s="2">
+        <v>476</v>
+      </c>
+      <c r="F293" s="2">
+        <v>3913</v>
+      </c>
+      <c r="G293" s="2">
+        <v>44300</v>
+      </c>
+      <c r="H293" s="2">
+        <v>1121</v>
+      </c>
+      <c r="I293" s="2">
+        <v>131215</v>
+      </c>
+      <c r="J293" s="2">
+        <v>40156</v>
+      </c>
+      <c r="K293" s="2">
+        <v>108</v>
+      </c>
+      <c r="L293" s="2">
+        <v>1021</v>
+      </c>
+      <c r="M293" s="2">
+        <v>4693</v>
+      </c>
+      <c r="N293" s="2">
+        <v>147</v>
+      </c>
+      <c r="O293" s="2">
+        <v>160298</v>
+      </c>
+      <c r="P293" s="2">
+        <v>170483</v>
+      </c>
+      <c r="Q293" s="2">
+        <v>30333</v>
+      </c>
+      <c r="R293" s="2">
+        <v>20148</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18">
+      <c r="A294" s="3">
+        <v>41142</v>
+      </c>
+      <c r="B294" s="2">
+        <v>195293</v>
+      </c>
+      <c r="C294" s="2">
+        <v>20577</v>
+      </c>
+      <c r="D294" s="2">
+        <v>85232</v>
+      </c>
+      <c r="E294" s="2">
+        <v>448</v>
+      </c>
+      <c r="F294" s="2">
+        <v>5163</v>
+      </c>
+      <c r="G294" s="2">
+        <v>43029</v>
+      </c>
+      <c r="H294" s="2">
+        <v>1070</v>
+      </c>
+      <c r="I294" s="2">
+        <v>133075</v>
+      </c>
+      <c r="J294" s="2">
+        <v>35473</v>
+      </c>
+      <c r="K294" s="2">
+        <v>257</v>
+      </c>
+      <c r="L294" s="2">
+        <v>700</v>
+      </c>
+      <c r="M294" s="2">
+        <v>7829</v>
+      </c>
+      <c r="N294" s="2">
+        <v>1061</v>
+      </c>
+      <c r="O294" s="2">
+        <v>162351</v>
+      </c>
+      <c r="P294" s="2">
+        <v>174399</v>
+      </c>
+      <c r="Q294" s="2">
+        <v>32942</v>
+      </c>
+      <c r="R294" s="2">
+        <v>20894</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18">
+      <c r="A295" s="3">
+        <v>41135</v>
+      </c>
+      <c r="B295" s="2">
+        <v>176287</v>
+      </c>
+      <c r="C295" s="2">
+        <v>21358</v>
+      </c>
+      <c r="D295" s="2">
+        <v>65432</v>
+      </c>
+      <c r="E295" s="2">
+        <v>163</v>
+      </c>
+      <c r="F295" s="2">
+        <v>3669</v>
+      </c>
+      <c r="G295" s="2">
+        <v>42553</v>
+      </c>
+      <c r="H295" s="2">
+        <v>1038</v>
+      </c>
+      <c r="I295" s="2">
+        <v>117372</v>
+      </c>
+      <c r="J295" s="2">
+        <v>36952</v>
+      </c>
+      <c r="K295" s="2">
+        <v>395</v>
+      </c>
+      <c r="L295" s="2">
+        <v>520</v>
+      </c>
+      <c r="M295" s="2">
+        <v>8033</v>
+      </c>
+      <c r="N295" s="2">
+        <v>0</v>
+      </c>
+      <c r="O295" s="2">
+        <v>144515</v>
+      </c>
+      <c r="P295" s="2">
+        <v>154566</v>
+      </c>
+      <c r="Q295" s="2">
+        <v>31772</v>
+      </c>
+      <c r="R295" s="2">
+        <v>21721</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18">
+      <c r="A296" s="3">
+        <v>41128</v>
+      </c>
+      <c r="B296" s="2">
+        <v>162436</v>
+      </c>
+      <c r="C296" s="2">
+        <v>22049</v>
+      </c>
+      <c r="D296" s="2">
+        <v>54161</v>
+      </c>
+      <c r="E296" s="2">
+        <v>160</v>
+      </c>
+      <c r="F296" s="2">
+        <v>3353</v>
+      </c>
+      <c r="G296" s="2">
+        <v>42715</v>
+      </c>
+      <c r="H296" s="2">
+        <v>1037</v>
+      </c>
+      <c r="I296" s="2">
+        <v>103870</v>
+      </c>
+      <c r="J296" s="2">
+        <v>34569</v>
+      </c>
+      <c r="K296" s="2">
+        <v>379</v>
+      </c>
+      <c r="L296" s="2">
+        <v>500</v>
+      </c>
+      <c r="M296" s="2">
+        <v>7637</v>
+      </c>
+      <c r="N296" s="2">
+        <v>0</v>
+      </c>
+      <c r="O296" s="2">
+        <v>131348</v>
+      </c>
+      <c r="P296" s="2">
+        <v>140658</v>
+      </c>
+      <c r="Q296" s="2">
+        <v>31088</v>
+      </c>
+      <c r="R296" s="2">
+        <v>21778</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18">
+      <c r="A297" s="3">
+        <v>41121</v>
+      </c>
+      <c r="B297" s="2">
+        <v>144498</v>
+      </c>
+      <c r="C297" s="2">
+        <v>21855</v>
+      </c>
+      <c r="D297" s="2">
+        <v>36652</v>
+      </c>
+      <c r="E297" s="2">
+        <v>220</v>
+      </c>
+      <c r="F297" s="2">
+        <v>3018</v>
+      </c>
+      <c r="G297" s="2">
+        <v>43270</v>
+      </c>
+      <c r="H297" s="2">
+        <v>1028</v>
+      </c>
+      <c r="I297" s="2">
+        <v>88730</v>
+      </c>
+      <c r="J297" s="2">
+        <v>36029</v>
+      </c>
+      <c r="K297" s="2">
+        <v>389</v>
+      </c>
+      <c r="L297" s="2">
+        <v>1387</v>
+      </c>
+      <c r="M297" s="2">
+        <v>5534</v>
+      </c>
+      <c r="N297" s="2">
+        <v>364</v>
+      </c>
+      <c r="O297" s="2">
+        <v>116991</v>
+      </c>
+      <c r="P297" s="2">
+        <v>123486</v>
+      </c>
+      <c r="Q297" s="2">
+        <v>27507</v>
+      </c>
+      <c r="R297" s="2">
+        <v>21012</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18">
+      <c r="A298" s="3">
+        <v>41114</v>
+      </c>
+      <c r="B298" s="2">
+        <v>131295</v>
+      </c>
+      <c r="C298" s="2">
+        <v>25047</v>
+      </c>
+      <c r="D298" s="2">
+        <v>23858</v>
+      </c>
+      <c r="E298" s="2">
+        <v>219</v>
+      </c>
+      <c r="F298" s="2">
+        <v>2864</v>
+      </c>
+      <c r="G298" s="2">
+        <v>43740</v>
+      </c>
+      <c r="H298" s="2">
+        <v>1031</v>
+      </c>
+      <c r="I298" s="2">
+        <v>76021</v>
+      </c>
+      <c r="J298" s="2">
+        <v>34427</v>
+      </c>
+      <c r="K298" s="2">
+        <v>120</v>
+      </c>
+      <c r="L298" s="2">
+        <v>3117</v>
+      </c>
+      <c r="M298" s="2">
+        <v>4774</v>
+      </c>
+      <c r="N298" s="2">
+        <v>452</v>
+      </c>
+      <c r="O298" s="2">
+        <v>108871</v>
+      </c>
+      <c r="P298" s="2">
+        <v>108621</v>
+      </c>
+      <c r="Q298" s="2">
+        <v>22424</v>
+      </c>
+      <c r="R298" s="2">
+        <v>22674</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18">
+      <c r="A299" s="3">
+        <v>41107</v>
+      </c>
+      <c r="B299" s="2">
+        <v>122934</v>
+      </c>
+      <c r="C299" s="2">
+        <v>33658</v>
+      </c>
+      <c r="D299" s="2">
+        <v>15945</v>
+      </c>
+      <c r="E299" s="2">
+        <v>762</v>
+      </c>
+      <c r="F299" s="2">
+        <v>2598</v>
+      </c>
+      <c r="G299" s="2">
+        <v>43810</v>
+      </c>
+      <c r="H299" s="2">
+        <v>1031</v>
+      </c>
+      <c r="I299" s="2">
+        <v>60611</v>
+      </c>
+      <c r="J299" s="2">
+        <v>33858</v>
+      </c>
+      <c r="K299" s="2">
+        <v>100</v>
+      </c>
+      <c r="L299" s="2">
+        <v>2866</v>
+      </c>
+      <c r="M299" s="2">
+        <v>3129</v>
+      </c>
+      <c r="N299" s="2">
+        <v>367</v>
+      </c>
+      <c r="O299" s="2">
+        <v>101993</v>
+      </c>
+      <c r="P299" s="2">
+        <v>99002</v>
+      </c>
+      <c r="Q299" s="2">
+        <v>20941</v>
+      </c>
+      <c r="R299" s="2">
+        <v>23932</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
+      <c r="A300" s="3">
+        <v>41100</v>
+      </c>
+      <c r="B300" s="2">
+        <v>121235</v>
+      </c>
+      <c r="C300" s="2">
+        <v>31839</v>
+      </c>
+      <c r="D300" s="2">
+        <v>16217</v>
+      </c>
+      <c r="E300" s="2">
+        <v>1063</v>
+      </c>
+      <c r="F300" s="2">
+        <v>2473</v>
+      </c>
+      <c r="G300" s="2">
+        <v>43553</v>
+      </c>
+      <c r="H300" s="2">
+        <v>1037</v>
+      </c>
+      <c r="I300" s="2">
+        <v>63571</v>
+      </c>
+      <c r="J300" s="2">
+        <v>31931</v>
+      </c>
+      <c r="K300" s="2">
+        <v>106</v>
+      </c>
+      <c r="L300" s="2">
+        <v>2609</v>
+      </c>
+      <c r="M300" s="2">
+        <v>3070</v>
+      </c>
+      <c r="N300" s="2">
+        <v>502</v>
+      </c>
+      <c r="O300" s="2">
+        <v>103200</v>
+      </c>
+      <c r="P300" s="2">
+        <v>97479</v>
+      </c>
+      <c r="Q300" s="2">
+        <v>18035</v>
+      </c>
+      <c r="R300" s="2">
+        <v>23756</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18">
+      <c r="A301" s="3">
+        <v>41093</v>
+      </c>
+      <c r="B301" s="2">
+        <v>125706</v>
+      </c>
+      <c r="C301" s="2">
+        <v>40663</v>
+      </c>
+      <c r="D301" s="2">
+        <v>14869</v>
+      </c>
+      <c r="E301" s="2">
+        <v>1662</v>
+      </c>
+      <c r="F301" s="2">
+        <v>2440</v>
+      </c>
+      <c r="G301" s="2">
+        <v>44438</v>
+      </c>
+      <c r="H301" s="2">
+        <v>1028</v>
+      </c>
+      <c r="I301" s="2">
+        <v>58816</v>
+      </c>
+      <c r="J301" s="2">
+        <v>38531</v>
+      </c>
+      <c r="K301" s="2">
+        <v>168</v>
+      </c>
+      <c r="L301" s="2">
+        <v>3516</v>
+      </c>
+      <c r="M301" s="2">
+        <v>2427</v>
+      </c>
+      <c r="N301" s="2">
+        <v>22</v>
+      </c>
+      <c r="O301" s="2">
+        <v>108315</v>
+      </c>
+      <c r="P301" s="2">
+        <v>103145</v>
+      </c>
+      <c r="Q301" s="2">
+        <v>17391</v>
+      </c>
+      <c r="R301" s="2">
+        <v>22561</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
+      <c r="A302" s="3">
+        <v>41086</v>
+      </c>
+      <c r="B302" s="2">
+        <v>122384</v>
+      </c>
+      <c r="C302" s="2">
+        <v>47805</v>
+      </c>
+      <c r="D302" s="2">
+        <v>12551</v>
+      </c>
+      <c r="E302" s="2">
+        <v>281</v>
+      </c>
+      <c r="F302" s="2">
+        <v>2139</v>
+      </c>
+      <c r="G302" s="2">
+        <v>45120</v>
+      </c>
+      <c r="H302" s="2">
+        <v>915</v>
+      </c>
+      <c r="I302" s="2">
+        <v>49167</v>
+      </c>
+      <c r="J302" s="2">
+        <v>39979</v>
+      </c>
+      <c r="K302" s="2">
+        <v>37</v>
+      </c>
+      <c r="L302" s="2">
+        <v>4219</v>
+      </c>
+      <c r="M302" s="2">
+        <v>2269</v>
+      </c>
+      <c r="N302" s="2">
+        <v>0</v>
+      </c>
+      <c r="O302" s="2">
+        <v>104563</v>
+      </c>
+      <c r="P302" s="2">
+        <v>101152</v>
+      </c>
+      <c r="Q302" s="2">
+        <v>17821</v>
+      </c>
+      <c r="R302" s="2">
+        <v>21232</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18">
+      <c r="A303" s="3">
+        <v>41079</v>
+      </c>
+      <c r="B303" s="2">
+        <v>130234</v>
+      </c>
+      <c r="C303" s="2">
+        <v>56667</v>
+      </c>
+      <c r="D303" s="2">
+        <v>14879</v>
+      </c>
+      <c r="E303" s="2">
+        <v>151</v>
+      </c>
+      <c r="F303" s="2">
+        <v>2144</v>
+      </c>
+      <c r="G303" s="2">
+        <v>44680</v>
+      </c>
+      <c r="H303" s="2">
+        <v>910</v>
+      </c>
+      <c r="I303" s="2">
+        <v>50151</v>
+      </c>
+      <c r="J303" s="2">
+        <v>42157</v>
+      </c>
+      <c r="K303" s="2">
+        <v>110</v>
+      </c>
+      <c r="L303" s="2">
+        <v>5133</v>
+      </c>
+      <c r="M303" s="2">
+        <v>2810</v>
+      </c>
+      <c r="N303" s="2">
+        <v>0</v>
+      </c>
+      <c r="O303" s="2">
+        <v>115266</v>
+      </c>
+      <c r="P303" s="2">
+        <v>105697</v>
+      </c>
+      <c r="Q303" s="2">
+        <v>14968</v>
+      </c>
+      <c r="R303" s="2">
+        <v>24537</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18">
+      <c r="A304" s="3">
+        <v>41072</v>
+      </c>
+      <c r="B304" s="2">
+        <v>195475</v>
+      </c>
+      <c r="C304" s="2">
+        <v>117637</v>
+      </c>
+      <c r="D304" s="2">
+        <v>9685</v>
+      </c>
+      <c r="E304" s="2">
+        <v>15887</v>
+      </c>
+      <c r="F304" s="2">
+        <v>2144</v>
+      </c>
+      <c r="G304" s="2">
+        <v>45157</v>
+      </c>
+      <c r="H304" s="2">
+        <v>906</v>
+      </c>
+      <c r="I304" s="2">
+        <v>19713</v>
+      </c>
+      <c r="J304" s="2">
+        <v>70717</v>
+      </c>
+      <c r="K304" s="2">
+        <v>21746</v>
+      </c>
+      <c r="L304" s="2">
+        <v>3265</v>
+      </c>
+      <c r="M304" s="2">
+        <v>2627</v>
+      </c>
+      <c r="N304" s="2">
+        <v>9</v>
+      </c>
+      <c r="O304" s="2">
+        <v>181307</v>
+      </c>
+      <c r="P304" s="2">
+        <v>166734</v>
+      </c>
+      <c r="Q304" s="2">
+        <v>14168</v>
+      </c>
+      <c r="R304" s="2">
+        <v>28741</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18">
+      <c r="A305" s="3">
+        <v>41065</v>
+      </c>
+      <c r="B305" s="2">
+        <v>158833</v>
+      </c>
+      <c r="C305" s="2">
+        <v>122667</v>
+      </c>
+      <c r="D305" s="2">
+        <v>9393</v>
+      </c>
+      <c r="E305" s="2">
+        <v>698</v>
+      </c>
+      <c r="F305" s="2">
+        <v>2396</v>
+      </c>
+      <c r="G305" s="2">
+        <v>44816</v>
+      </c>
+      <c r="H305" s="2">
+        <v>894</v>
+      </c>
+      <c r="I305" s="2">
+        <v>10509</v>
+      </c>
+      <c r="J305" s="2">
+        <v>68429</v>
+      </c>
+      <c r="K305" s="2">
+        <v>4400</v>
+      </c>
+      <c r="L305" s="2">
+        <v>4216</v>
+      </c>
+      <c r="M305" s="2">
+        <v>2448</v>
+      </c>
+      <c r="N305" s="2">
+        <v>26</v>
+      </c>
+      <c r="O305" s="2">
+        <v>145806</v>
+      </c>
+      <c r="P305" s="2">
+        <v>131104</v>
+      </c>
+      <c r="Q305" s="2">
+        <v>13027</v>
+      </c>
+      <c r="R305" s="2">
+        <v>27729</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
+      <c r="A306" s="3">
+        <v>41058</v>
+      </c>
+      <c r="B306" s="2">
+        <v>142616</v>
+      </c>
+      <c r="C306" s="2">
+        <v>106916</v>
+      </c>
+      <c r="D306" s="2">
+        <v>8967</v>
+      </c>
+      <c r="E306" s="2">
+        <v>292</v>
+      </c>
+      <c r="F306" s="2">
+        <v>1824</v>
+      </c>
+      <c r="G306" s="2">
+        <v>44995</v>
+      </c>
+      <c r="H306" s="2">
+        <v>887</v>
+      </c>
+      <c r="I306" s="2">
+        <v>14045</v>
+      </c>
+      <c r="J306" s="2">
+        <v>55860</v>
+      </c>
+      <c r="K306" s="2">
+        <v>484</v>
+      </c>
+      <c r="L306" s="2">
+        <v>3642</v>
+      </c>
+      <c r="M306" s="2">
+        <v>2063</v>
+      </c>
+      <c r="N306" s="2">
+        <v>0</v>
+      </c>
+      <c r="O306" s="2">
+        <v>128090</v>
+      </c>
+      <c r="P306" s="2">
+        <v>113548</v>
+      </c>
+      <c r="Q306" s="2">
+        <v>14526</v>
+      </c>
+      <c r="R306" s="2">
+        <v>29068</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18">
+      <c r="A307" s="3">
+        <v>41051</v>
+      </c>
+      <c r="B307" s="2">
+        <v>139963</v>
+      </c>
+      <c r="C307" s="2">
+        <v>85293</v>
+      </c>
+      <c r="D307" s="2">
+        <v>11727</v>
+      </c>
+      <c r="E307" s="2">
+        <v>372</v>
+      </c>
+      <c r="F307" s="2">
+        <v>1659</v>
+      </c>
+      <c r="G307" s="2">
+        <v>45270</v>
+      </c>
+      <c r="H307" s="2">
+        <v>887</v>
+      </c>
+      <c r="I307" s="2">
+        <v>29340</v>
+      </c>
+      <c r="J307" s="2">
+        <v>52448</v>
+      </c>
+      <c r="K307" s="2">
+        <v>142</v>
+      </c>
+      <c r="L307" s="2">
+        <v>3277</v>
+      </c>
+      <c r="M307" s="2">
+        <v>1851</v>
+      </c>
+      <c r="N307" s="2">
+        <v>0</v>
+      </c>
+      <c r="O307" s="2">
+        <v>120970</v>
+      </c>
+      <c r="P307" s="2">
+        <v>112697</v>
+      </c>
+      <c r="Q307" s="2">
+        <v>18993</v>
+      </c>
+      <c r="R307" s="2">
+        <v>27266</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
+      <c r="A308" s="3">
+        <v>41044</v>
+      </c>
+      <c r="B308" s="2">
+        <v>144001</v>
+      </c>
+      <c r="C308" s="2">
+        <v>68956</v>
+      </c>
+      <c r="D308" s="2">
+        <v>16526</v>
+      </c>
+      <c r="E308" s="2">
+        <v>452</v>
+      </c>
+      <c r="F308" s="2">
+        <v>1935</v>
+      </c>
+      <c r="G308" s="2">
+        <v>43535</v>
+      </c>
+      <c r="H308" s="2">
+        <v>1162</v>
+      </c>
+      <c r="I308" s="2">
+        <v>50390</v>
+      </c>
+      <c r="J308" s="2">
+        <v>55604</v>
+      </c>
+      <c r="K308" s="2">
+        <v>170</v>
+      </c>
+      <c r="L308" s="2">
+        <v>2115</v>
+      </c>
+      <c r="M308" s="2">
+        <v>1382</v>
+      </c>
+      <c r="N308" s="2">
+        <v>6</v>
+      </c>
+      <c r="O308" s="2">
+        <v>125186</v>
+      </c>
+      <c r="P308" s="2">
+        <v>118837</v>
+      </c>
+      <c r="Q308" s="2">
+        <v>18815</v>
+      </c>
+      <c r="R308" s="2">
+        <v>25164</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18">
+      <c r="A309" s="3">
+        <v>41037</v>
+      </c>
+      <c r="B309" s="2">
+        <v>152108</v>
+      </c>
+      <c r="C309" s="2">
+        <v>54157</v>
+      </c>
+      <c r="D309" s="2">
+        <v>21273</v>
+      </c>
+      <c r="E309" s="2">
+        <v>521</v>
+      </c>
+      <c r="F309" s="2">
+        <v>2183</v>
+      </c>
+      <c r="G309" s="2">
+        <v>42837</v>
+      </c>
+      <c r="H309" s="2">
+        <v>906</v>
+      </c>
+      <c r="I309" s="2">
+        <v>70182</v>
+      </c>
+      <c r="J309" s="2">
+        <v>60528</v>
+      </c>
+      <c r="K309" s="2">
+        <v>242</v>
+      </c>
+      <c r="L309" s="2">
+        <v>1995</v>
+      </c>
+      <c r="M309" s="2">
+        <v>1142</v>
+      </c>
+      <c r="N309" s="2">
+        <v>278</v>
+      </c>
+      <c r="O309" s="2">
+        <v>130464</v>
+      </c>
+      <c r="P309" s="2">
+        <v>127727</v>
+      </c>
+      <c r="Q309" s="2">
+        <v>21644</v>
+      </c>
+      <c r="R309" s="2">
+        <v>24381</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18">
+      <c r="A310" s="3">
+        <v>41030</v>
+      </c>
+      <c r="B310" s="2">
+        <v>147749</v>
+      </c>
+      <c r="C310" s="2">
+        <v>25998</v>
+      </c>
+      <c r="D310" s="2">
+        <v>32554</v>
+      </c>
+      <c r="E310" s="2">
+        <v>1417</v>
+      </c>
+      <c r="F310" s="2">
+        <v>2875</v>
+      </c>
+      <c r="G310" s="2">
+        <v>42417</v>
+      </c>
+      <c r="H310" s="2">
+        <v>901</v>
+      </c>
+      <c r="I310" s="2">
+        <v>85821</v>
+      </c>
+      <c r="J310" s="2">
+        <v>48911</v>
+      </c>
+      <c r="K310" s="2">
+        <v>240</v>
+      </c>
+      <c r="L310" s="2">
+        <v>1098</v>
+      </c>
+      <c r="M310" s="2">
+        <v>2408</v>
+      </c>
+      <c r="N310" s="2">
+        <v>50</v>
+      </c>
+      <c r="O310" s="2">
+        <v>118400</v>
+      </c>
+      <c r="P310" s="2">
+        <v>128898</v>
+      </c>
+      <c r="Q310" s="2">
+        <v>29349</v>
+      </c>
+      <c r="R310" s="2">
+        <v>18851</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18">
+      <c r="A311" s="3">
+        <v>41023</v>
+      </c>
+      <c r="B311" s="2">
+        <v>146739</v>
+      </c>
+      <c r="C311" s="2">
+        <v>36843</v>
+      </c>
+      <c r="D311" s="2">
+        <v>30853</v>
+      </c>
+      <c r="E311" s="2">
+        <v>1026</v>
+      </c>
+      <c r="F311" s="2">
+        <v>2638</v>
+      </c>
+      <c r="G311" s="2">
+        <v>42808</v>
+      </c>
+      <c r="H311" s="2">
+        <v>984</v>
+      </c>
+      <c r="I311" s="2">
+        <v>78241</v>
+      </c>
+      <c r="J311" s="2">
+        <v>49136</v>
+      </c>
+      <c r="K311" s="2">
+        <v>231</v>
+      </c>
+      <c r="L311" s="2">
+        <v>1618</v>
+      </c>
+      <c r="M311" s="2">
+        <v>630</v>
+      </c>
+      <c r="N311" s="2">
+        <v>72</v>
+      </c>
+      <c r="O311" s="2">
+        <v>121653</v>
+      </c>
+      <c r="P311" s="2">
+        <v>125740</v>
+      </c>
+      <c r="Q311" s="2">
+        <v>25086</v>
+      </c>
+      <c r="R311" s="2">
+        <v>20999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18">
+      <c r="A312" s="3">
+        <v>41016</v>
+      </c>
+      <c r="B312" s="2">
+        <v>148796</v>
+      </c>
+      <c r="C312" s="2">
+        <v>32607</v>
+      </c>
+      <c r="D312" s="2">
+        <v>34039</v>
+      </c>
+      <c r="E312" s="2">
+        <v>1173</v>
+      </c>
+      <c r="F312" s="2">
+        <v>2640</v>
+      </c>
+      <c r="G312" s="2">
+        <v>42570</v>
+      </c>
+      <c r="H312" s="2">
+        <v>982</v>
+      </c>
+      <c r="I312" s="2">
+        <v>81975</v>
+      </c>
+      <c r="J312" s="2">
+        <v>49918</v>
+      </c>
+      <c r="K312" s="2">
+        <v>167</v>
+      </c>
+      <c r="L312" s="2">
+        <v>992</v>
+      </c>
+      <c r="M312" s="2">
+        <v>898</v>
+      </c>
+      <c r="N312" s="2">
+        <v>0</v>
+      </c>
+      <c r="O312" s="2">
+        <v>120536</v>
+      </c>
+      <c r="P312" s="2">
+        <v>129747</v>
+      </c>
+      <c r="Q312" s="2">
+        <v>28260</v>
+      </c>
+      <c r="R312" s="2">
+        <v>19049</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18">
+      <c r="A313" s="3">
+        <v>41009</v>
+      </c>
+      <c r="B313" s="2">
+        <v>154070</v>
+      </c>
+      <c r="C313" s="2">
+        <v>42402</v>
+      </c>
+      <c r="D313" s="2">
+        <v>31160</v>
+      </c>
+      <c r="E313" s="2">
+        <v>1173</v>
+      </c>
+      <c r="F313" s="2">
+        <v>2841</v>
+      </c>
+      <c r="G313" s="2">
+        <v>41856</v>
+      </c>
+      <c r="H313" s="2">
+        <v>858</v>
+      </c>
+      <c r="I313" s="2">
+        <v>77962</v>
+      </c>
+      <c r="J313" s="2">
+        <v>56100</v>
+      </c>
+      <c r="K313" s="2">
+        <v>236</v>
+      </c>
+      <c r="L313" s="2">
+        <v>978</v>
+      </c>
+      <c r="M313" s="2">
+        <v>720</v>
+      </c>
+      <c r="N313" s="2">
+        <v>0</v>
+      </c>
+      <c r="O313" s="2">
+        <v>126450</v>
+      </c>
+      <c r="P313" s="2">
+        <v>132103</v>
+      </c>
+      <c r="Q313" s="2">
+        <v>27620</v>
+      </c>
+      <c r="R313" s="2">
+        <v>21967</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18">
+      <c r="A314" s="3">
+        <v>41002</v>
+      </c>
+      <c r="B314" s="2">
+        <v>151825</v>
+      </c>
+      <c r="C314" s="2">
+        <v>33119</v>
+      </c>
+      <c r="D314" s="2">
+        <v>35523</v>
+      </c>
+      <c r="E314" s="2">
+        <v>328</v>
+      </c>
+      <c r="F314" s="2">
+        <v>3271</v>
+      </c>
+      <c r="G314" s="2">
+        <v>41374</v>
+      </c>
+      <c r="H314" s="2">
+        <v>851</v>
+      </c>
+      <c r="I314" s="2">
+        <v>84020</v>
+      </c>
+      <c r="J314" s="2">
+        <v>51935</v>
+      </c>
+      <c r="K314" s="2">
+        <v>1092</v>
+      </c>
+      <c r="L314" s="2">
+        <v>1516</v>
+      </c>
+      <c r="M314" s="2">
+        <v>696</v>
+      </c>
+      <c r="N314" s="2">
+        <v>12</v>
+      </c>
+      <c r="O314" s="2">
+        <v>124209</v>
+      </c>
+      <c r="P314" s="2">
+        <v>131811</v>
+      </c>
+      <c r="Q314" s="2">
+        <v>27616</v>
+      </c>
+      <c r="R314" s="2">
+        <v>20014</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18">
+      <c r="A315" s="3">
+        <v>40995</v>
+      </c>
+      <c r="B315" s="2">
+        <v>147373</v>
+      </c>
+      <c r="C315" s="2">
+        <v>20145</v>
+      </c>
+      <c r="D315" s="2">
+        <v>37979</v>
+      </c>
+      <c r="E315" s="2">
+        <v>254</v>
+      </c>
+      <c r="F315" s="2">
+        <v>3903</v>
+      </c>
+      <c r="G315" s="2">
+        <v>40375</v>
+      </c>
+      <c r="H315" s="2">
+        <v>737</v>
+      </c>
+      <c r="I315" s="2">
+        <v>93022</v>
+      </c>
+      <c r="J315" s="2">
+        <v>47718</v>
+      </c>
+      <c r="K315" s="2">
+        <v>882</v>
+      </c>
+      <c r="L315" s="2">
+        <v>1046</v>
+      </c>
+      <c r="M315" s="2">
+        <v>708</v>
+      </c>
+      <c r="N315" s="2">
+        <v>12</v>
+      </c>
+      <c r="O315" s="2">
+        <v>120001</v>
+      </c>
+      <c r="P315" s="2">
+        <v>128665</v>
+      </c>
+      <c r="Q315" s="2">
+        <v>27372</v>
+      </c>
+      <c r="R315" s="2">
+        <v>18708</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18">
+      <c r="A316" s="3">
+        <v>40988</v>
+      </c>
+      <c r="B316" s="2">
+        <v>160387</v>
+      </c>
+      <c r="C316" s="2">
+        <v>26263</v>
+      </c>
+      <c r="D316" s="2">
+        <v>42592</v>
+      </c>
+      <c r="E316" s="2">
+        <v>479</v>
+      </c>
+      <c r="F316" s="2">
+        <v>4015</v>
+      </c>
+      <c r="G316" s="2">
+        <v>40536</v>
+      </c>
+      <c r="H316" s="2">
+        <v>737</v>
+      </c>
+      <c r="I316" s="2">
+        <v>97566</v>
+      </c>
+      <c r="J316" s="2">
+        <v>55235</v>
+      </c>
+      <c r="K316" s="2">
+        <v>175</v>
+      </c>
+      <c r="L316" s="2">
+        <v>1004</v>
+      </c>
+      <c r="M316" s="2">
+        <v>734</v>
+      </c>
+      <c r="N316" s="2">
+        <v>12</v>
+      </c>
+      <c r="O316" s="2">
+        <v>130251</v>
+      </c>
+      <c r="P316" s="2">
+        <v>140500</v>
+      </c>
+      <c r="Q316" s="2">
+        <v>30136</v>
+      </c>
+      <c r="R316" s="2">
+        <v>19887</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18">
+      <c r="A317" s="3">
+        <v>40981</v>
+      </c>
+      <c r="B317" s="2">
+        <v>200719</v>
+      </c>
+      <c r="C317" s="2">
+        <v>15988</v>
+      </c>
+      <c r="D317" s="2">
+        <v>45119</v>
+      </c>
+      <c r="E317" s="2">
+        <v>31580</v>
+      </c>
+      <c r="F317" s="2">
+        <v>3962</v>
+      </c>
+      <c r="G317" s="2">
+        <v>40647</v>
+      </c>
+      <c r="H317" s="2">
+        <v>737</v>
+      </c>
+      <c r="I317" s="2">
+        <v>100252</v>
+      </c>
+      <c r="J317" s="2">
+        <v>45001</v>
+      </c>
+      <c r="K317" s="2">
+        <v>15875</v>
+      </c>
+      <c r="L317" s="2">
+        <v>975</v>
+      </c>
+      <c r="M317" s="2">
+        <v>756</v>
+      </c>
+      <c r="N317" s="2">
+        <v>36</v>
+      </c>
+      <c r="O317" s="2">
+        <v>169405</v>
+      </c>
+      <c r="P317" s="2">
+        <v>179751</v>
+      </c>
+      <c r="Q317" s="2">
+        <v>31314</v>
+      </c>
+      <c r="R317" s="2">
+        <v>20968</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18">
+      <c r="A318" s="3">
+        <v>40974</v>
+      </c>
+      <c r="B318" s="2">
+        <v>164007</v>
+      </c>
+      <c r="C318" s="2">
+        <v>15603</v>
+      </c>
+      <c r="D318" s="2">
+        <v>40615</v>
+      </c>
+      <c r="E318" s="2">
+        <v>9702</v>
+      </c>
+      <c r="F318" s="2">
+        <v>5150</v>
+      </c>
+      <c r="G318" s="2">
+        <v>40565</v>
+      </c>
+      <c r="H318" s="2">
+        <v>741</v>
+      </c>
+      <c r="I318" s="2">
+        <v>95007</v>
+      </c>
+      <c r="J318" s="2">
+        <v>43298</v>
+      </c>
+      <c r="K318" s="2">
+        <v>3202</v>
+      </c>
+      <c r="L318" s="2">
+        <v>1829</v>
+      </c>
+      <c r="M318" s="2">
+        <v>3249</v>
+      </c>
+      <c r="N318" s="2">
+        <v>12</v>
+      </c>
+      <c r="O318" s="2">
+        <v>131246</v>
+      </c>
+      <c r="P318" s="2">
+        <v>141384</v>
+      </c>
+      <c r="Q318" s="2">
+        <v>32761</v>
+      </c>
+      <c r="R318" s="2">
+        <v>22623</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18">
+      <c r="A319" s="3">
+        <v>40967</v>
+      </c>
+      <c r="B319" s="2">
+        <v>161219</v>
+      </c>
+      <c r="C319" s="2">
+        <v>12441</v>
+      </c>
+      <c r="D319" s="2">
+        <v>57624</v>
+      </c>
+      <c r="E319" s="2">
+        <v>3273</v>
+      </c>
+      <c r="F319" s="2">
+        <v>5957</v>
+      </c>
+      <c r="G319" s="2">
+        <v>40323</v>
+      </c>
+      <c r="H319" s="2">
+        <v>744</v>
+      </c>
+      <c r="I319" s="2">
+        <v>102549</v>
+      </c>
+      <c r="J319" s="2">
+        <v>35367</v>
+      </c>
+      <c r="K319" s="2">
+        <v>793</v>
+      </c>
+      <c r="L319" s="2">
+        <v>958</v>
+      </c>
+      <c r="M319" s="2">
+        <v>3379</v>
+      </c>
+      <c r="N319" s="2">
+        <v>6</v>
+      </c>
+      <c r="O319" s="2">
+        <v>126721</v>
+      </c>
+      <c r="P319" s="2">
+        <v>141509</v>
+      </c>
+      <c r="Q319" s="2">
+        <v>34498</v>
+      </c>
+      <c r="R319" s="2">
+        <v>19710</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18">
+      <c r="A320" s="3">
+        <v>40960</v>
+      </c>
+      <c r="B320" s="2">
+        <v>149840</v>
+      </c>
+      <c r="C320" s="2">
+        <v>12383</v>
+      </c>
+      <c r="D320" s="2">
+        <v>51119</v>
+      </c>
+      <c r="E320" s="2">
+        <v>3478</v>
+      </c>
+      <c r="F320" s="2">
+        <v>5967</v>
+      </c>
+      <c r="G320" s="2">
+        <v>40381</v>
+      </c>
+      <c r="H320" s="2">
+        <v>744</v>
+      </c>
+      <c r="I320" s="2">
+        <v>91311</v>
+      </c>
+      <c r="J320" s="2">
+        <v>29075</v>
+      </c>
+      <c r="K320" s="2">
+        <v>719</v>
+      </c>
+      <c r="L320" s="2">
+        <v>898</v>
+      </c>
+      <c r="M320" s="2">
+        <v>2752</v>
+      </c>
+      <c r="N320" s="2">
+        <v>6</v>
+      </c>
+      <c r="O320" s="2">
+        <v>115506</v>
+      </c>
+      <c r="P320" s="2">
+        <v>128274</v>
+      </c>
+      <c r="Q320" s="2">
+        <v>34334</v>
+      </c>
+      <c r="R320" s="2">
+        <v>21566</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18">
+      <c r="A321" s="3">
+        <v>40953</v>
+      </c>
+      <c r="B321" s="2">
+        <v>151885</v>
+      </c>
+      <c r="C321" s="2">
+        <v>12642</v>
+      </c>
+      <c r="D321" s="2">
+        <v>53586</v>
+      </c>
+      <c r="E321" s="2">
+        <v>3359</v>
+      </c>
+      <c r="F321" s="2">
+        <v>6328</v>
+      </c>
+      <c r="G321" s="2">
+        <v>40378</v>
+      </c>
+      <c r="H321" s="2">
+        <v>744</v>
+      </c>
+      <c r="I321" s="2">
+        <v>93077</v>
+      </c>
+      <c r="J321" s="2">
+        <v>30451</v>
+      </c>
+      <c r="K321" s="2">
+        <v>719</v>
+      </c>
+      <c r="L321" s="2">
+        <v>1116</v>
+      </c>
+      <c r="M321" s="2">
+        <v>2449</v>
+      </c>
+      <c r="N321" s="2">
+        <v>2</v>
+      </c>
+      <c r="O321" s="2">
+        <v>117987</v>
+      </c>
+      <c r="P321" s="2">
+        <v>131688</v>
+      </c>
+      <c r="Q321" s="2">
+        <v>33898</v>
+      </c>
+      <c r="R321" s="2">
+        <v>20197</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18">
+      <c r="A322" s="3">
+        <v>40946</v>
+      </c>
+      <c r="B322" s="2">
+        <v>148879</v>
+      </c>
+      <c r="C322" s="2">
+        <v>12035</v>
+      </c>
+      <c r="D322" s="2">
+        <v>51969</v>
+      </c>
+      <c r="E322" s="2">
+        <v>3364</v>
+      </c>
+      <c r="F322" s="2">
+        <v>5559</v>
+      </c>
+      <c r="G322" s="2">
+        <v>41648</v>
+      </c>
+      <c r="H322" s="2">
+        <v>1037</v>
+      </c>
+      <c r="I322" s="2">
+        <v>93012</v>
+      </c>
+      <c r="J322" s="2">
+        <v>28811</v>
+      </c>
+      <c r="K322" s="2">
+        <v>489</v>
+      </c>
+      <c r="L322" s="2">
+        <v>490</v>
+      </c>
+      <c r="M322" s="2">
+        <v>3347</v>
+      </c>
+      <c r="N322" s="2">
+        <v>2</v>
+      </c>
+      <c r="O322" s="2">
+        <v>115988</v>
+      </c>
+      <c r="P322" s="2">
+        <v>130667</v>
+      </c>
+      <c r="Q322" s="2">
+        <v>32891</v>
+      </c>
+      <c r="R322" s="2">
+        <v>18212</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18">
+      <c r="A323" s="3">
+        <v>40939</v>
+      </c>
+      <c r="B323" s="2">
+        <v>150115</v>
+      </c>
+      <c r="C323" s="2">
+        <v>13713</v>
+      </c>
+      <c r="D323" s="2">
+        <v>51273</v>
+      </c>
+      <c r="E323" s="2">
+        <v>3535</v>
+      </c>
+      <c r="F323" s="2">
+        <v>4985</v>
+      </c>
+      <c r="G323" s="2">
+        <v>42188</v>
+      </c>
+      <c r="H323" s="2">
+        <v>1020</v>
+      </c>
+      <c r="I323" s="2">
+        <v>96975</v>
+      </c>
+      <c r="J323" s="2">
+        <v>31534</v>
+      </c>
+      <c r="K323" s="2">
+        <v>498</v>
+      </c>
+      <c r="L323" s="2">
+        <v>980</v>
+      </c>
+      <c r="M323" s="2">
+        <v>1791</v>
+      </c>
+      <c r="N323" s="2">
+        <v>11</v>
+      </c>
+      <c r="O323" s="2">
+        <v>121717</v>
+      </c>
+      <c r="P323" s="2">
+        <v>131850</v>
+      </c>
+      <c r="Q323" s="2">
+        <v>28398</v>
+      </c>
+      <c r="R323" s="2">
+        <v>18265</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18">
+      <c r="A324" s="3">
+        <v>40932</v>
+      </c>
+      <c r="B324" s="2">
+        <v>139724</v>
+      </c>
+      <c r="C324" s="2">
+        <v>10756</v>
+      </c>
+      <c r="D324" s="2">
+        <v>44789</v>
+      </c>
+      <c r="E324" s="2">
+        <v>3269</v>
+      </c>
+      <c r="F324" s="2">
+        <v>3418</v>
+      </c>
+      <c r="G324" s="2">
+        <v>43938</v>
+      </c>
+      <c r="H324" s="2">
+        <v>1062</v>
+      </c>
+      <c r="I324" s="2">
+        <v>92137</v>
+      </c>
+      <c r="J324" s="2">
+        <v>26502</v>
+      </c>
+      <c r="K324" s="2">
+        <v>386</v>
+      </c>
+      <c r="L324" s="2">
+        <v>492</v>
+      </c>
+      <c r="M324" s="2">
+        <v>2560</v>
+      </c>
+      <c r="N324" s="2">
+        <v>11</v>
+      </c>
+      <c r="O324" s="2">
+        <v>111531</v>
+      </c>
+      <c r="P324" s="2">
+        <v>122517</v>
+      </c>
+      <c r="Q324" s="2">
+        <v>28193</v>
+      </c>
+      <c r="R324" s="2">
+        <v>17207</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18">
+      <c r="A325" s="3">
+        <v>40925</v>
+      </c>
+      <c r="B325" s="2">
+        <v>135321</v>
+      </c>
+      <c r="C325" s="2">
+        <v>16755</v>
+      </c>
+      <c r="D325" s="2">
+        <v>36181</v>
+      </c>
+      <c r="E325" s="2">
+        <v>3334</v>
+      </c>
+      <c r="F325" s="2">
+        <v>2931</v>
+      </c>
+      <c r="G325" s="2">
+        <v>44101</v>
+      </c>
+      <c r="H325" s="2">
+        <v>1044</v>
+      </c>
+      <c r="I325" s="2">
+        <v>83279</v>
+      </c>
+      <c r="J325" s="2">
+        <v>33214</v>
+      </c>
+      <c r="K325" s="2">
+        <v>23</v>
+      </c>
+      <c r="L325" s="2">
+        <v>1622</v>
+      </c>
+      <c r="M325" s="2">
+        <v>881</v>
+      </c>
+      <c r="N325" s="2">
+        <v>11</v>
+      </c>
+      <c r="O325" s="2">
+        <v>108999</v>
+      </c>
+      <c r="P325" s="2">
+        <v>118789</v>
+      </c>
+      <c r="Q325" s="2">
+        <v>26322</v>
+      </c>
+      <c r="R325" s="2">
+        <v>16532</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18">
+      <c r="A326" s="3">
+        <v>40918</v>
+      </c>
+      <c r="B326" s="2">
+        <v>125914</v>
+      </c>
+      <c r="C326" s="2">
+        <v>14487</v>
+      </c>
+      <c r="D326" s="2">
+        <v>29190</v>
+      </c>
+      <c r="E326" s="2">
+        <v>3340</v>
+      </c>
+      <c r="F326" s="2">
+        <v>2934</v>
+      </c>
+      <c r="G326" s="2">
+        <v>43992</v>
+      </c>
+      <c r="H326" s="2">
+        <v>1060</v>
+      </c>
+      <c r="I326" s="2">
+        <v>78427</v>
+      </c>
+      <c r="J326" s="2">
+        <v>30002</v>
+      </c>
+      <c r="K326" s="2">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2">
+        <v>1622</v>
+      </c>
+      <c r="M326" s="2">
+        <v>883</v>
+      </c>
+      <c r="N326" s="2">
+        <v>0</v>
+      </c>
+      <c r="O326" s="2">
+        <v>101870</v>
+      </c>
+      <c r="P326" s="2">
+        <v>108467</v>
+      </c>
+      <c r="Q326" s="2">
+        <v>24044</v>
+      </c>
+      <c r="R326" s="2">
+        <v>17447</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18">
+      <c r="A327" s="3">
+        <v>40911</v>
+      </c>
+      <c r="B327" s="2">
+        <v>117247</v>
+      </c>
+      <c r="C327" s="2">
+        <v>19706</v>
+      </c>
+      <c r="D327" s="2">
+        <v>22635</v>
+      </c>
+      <c r="E327" s="2">
+        <v>2790</v>
+      </c>
+      <c r="F327" s="2">
+        <v>3090</v>
+      </c>
+      <c r="G327" s="2">
+        <v>44168</v>
+      </c>
+      <c r="H327" s="2">
+        <v>1049</v>
+      </c>
+      <c r="I327" s="2">
+        <v>64348</v>
+      </c>
+      <c r="J327" s="2">
+        <v>28079</v>
+      </c>
+      <c r="K327" s="2">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2">
+        <v>6635</v>
+      </c>
+      <c r="M327" s="2">
+        <v>1521</v>
+      </c>
+      <c r="N327" s="2">
+        <v>0</v>
+      </c>
+      <c r="O327" s="2">
+        <v>97618</v>
+      </c>
+      <c r="P327" s="2">
+        <v>100242</v>
+      </c>
+      <c r="Q327" s="2">
+        <v>19629</v>
+      </c>
+      <c r="R327" s="2">
+        <v>17005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>